--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="353">
   <si>
     <t>Apellido</t>
   </si>
@@ -1069,6 +1069,9 @@
   </si>
   <si>
     <t>MIRIAM</t>
+  </si>
+  <si>
+    <t>MIAGROS</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1475,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J302" si="1">SUM(D2:H2)</f>
+        <f t="shared" ref="J2:J303" si="1">SUM(D2:H2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1518,18 +1521,18 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>301.0</v>
+        <v>302.0</v>
       </c>
       <c r="M4" s="8">
         <f>SUMIF(D:I,"&lt;&gt;0")</f>
-        <v>1430000</v>
+        <v>1440000</v>
       </c>
       <c r="N4" s="8">
         <v>9000000.0</v>
       </c>
       <c r="O4" s="9">
         <f>(N4-M4)*-1</f>
-        <v>-7570000</v>
+        <v>-7560000</v>
       </c>
     </row>
     <row r="5">
@@ -8367,33 +8370,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>302.0</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D303" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F303" s="5"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="6"/>
+      <c r="J303" s="5">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$B$1:$AG$1025">
     <sortState ref="B1:AG1025">
       <sortCondition ref="B1:B1025"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D302 F2:F302 H2:H302">
+  <conditionalFormatting sqref="D2:D303 F2:F303 H2:H303">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D302 F2:F302 H2:H302">
+  <conditionalFormatting sqref="D2:D303 F2:F303 H2:H303">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D302 F2:F302 H2:H302">
+  <conditionalFormatting sqref="D2:D303 F2:F303 H2:H303">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J302">
+  <conditionalFormatting sqref="J2:J303">
     <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(J2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J302">
+  <conditionalFormatting sqref="J2:J303">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
       <formula>5000</formula>
     </cfRule>
@@ -8417,7 +8445,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E302 G2:G302 I2:I302">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E303 G2:G303 I2:I303">
       <formula1>"Efectivo,Transferencia"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="352">
   <si>
     <t>Apellido</t>
   </si>
@@ -1069,9 +1069,6 @@
   </si>
   <si>
     <t>MIRIAM</t>
-  </si>
-  <si>
-    <t>MIAGROS</t>
   </si>
 </sst>
 </file>
@@ -8378,7 +8375,7 @@
         <v>220</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="D303" s="3">
         <v>10000.0</v>

--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="356">
   <si>
     <t>Apellido</t>
   </si>
@@ -66,6 +66,9 @@
     <t>FIAMA</t>
   </si>
   <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
     <t>ALFONSO</t>
   </si>
   <si>
@@ -105,19 +108,13 @@
     <t>1er entrega Efvo</t>
   </si>
   <si>
-    <t>$355.000,00</t>
-  </si>
-  <si>
     <t>ASENSIO</t>
   </si>
   <si>
     <t>NEHEMIAS</t>
   </si>
   <si>
-    <t>Transferencia</t>
-  </si>
-  <si>
-    <t>2da entrega</t>
+    <t>2da entrega Efvo</t>
   </si>
   <si>
     <t xml:space="preserve">ASENSIO </t>
@@ -321,6 +318,9 @@
     <t>DYLAN</t>
   </si>
   <si>
+    <t>DAVID</t>
+  </si>
+  <si>
     <t>CARRISO</t>
   </si>
   <si>
@@ -420,6 +420,9 @@
     <t>AYMARA</t>
   </si>
   <si>
+    <t>YAIR</t>
+  </si>
+  <si>
     <t>ESCOBAR</t>
   </si>
   <si>
@@ -654,6 +657,9 @@
     <t>CLAUDIA</t>
   </si>
   <si>
+    <t>Los paso al de IEPE</t>
+  </si>
+  <si>
     <t>SERGIO</t>
   </si>
   <si>
@@ -690,6 +696,9 @@
     <t>JENIFER</t>
   </si>
   <si>
+    <t>MILAGROS</t>
+  </si>
+  <si>
     <t>MONSALVO</t>
   </si>
   <si>
@@ -720,6 +729,9 @@
     <t>AGUSTIN</t>
   </si>
   <si>
+    <t>MUESA</t>
+  </si>
+  <si>
     <t>MUNOZ</t>
   </si>
   <si>
@@ -729,9 +741,6 @@
     <t>TAMARA</t>
   </si>
   <si>
-    <t>MILAGROS</t>
-  </si>
-  <si>
     <t>YAMILA</t>
   </si>
   <si>
@@ -1048,6 +1057,9 @@
   </si>
   <si>
     <t>CELIA</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
   </si>
   <si>
     <t>VELAZQUEZ</t>
@@ -1098,21 +1110,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1139,11 +1177,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,12 +1444,14 @@
     <col customWidth="1" min="1" max="1" width="4.38"/>
     <col customWidth="1" min="2" max="2" width="14.63"/>
     <col customWidth="1" min="3" max="3" width="14.25"/>
+    <col customWidth="1" min="4" max="4" width="13.38"/>
     <col customWidth="1" min="5" max="5" width="16.0"/>
     <col customWidth="1" min="6" max="6" width="14.88"/>
     <col customWidth="1" min="7" max="7" width="14.75"/>
     <col customWidth="1" min="8" max="8" width="13.5"/>
     <col customWidth="1" min="9" max="9" width="14.75"/>
     <col customWidth="1" min="10" max="10" width="15.63"/>
+    <col customWidth="1" min="11" max="11" width="16.13"/>
     <col customWidth="1" min="12" max="12" width="15.75"/>
     <col customWidth="1" min="13" max="13" width="14.38"/>
   </cols>
@@ -1472,7 +1515,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J303" si="1">SUM(D2:H2)</f>
+        <f t="shared" ref="J2:J14" si="1">SUM(D2:H2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1507,29 +1550,33 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L4" s="7">
-        <v>302.0</v>
+        <v>306.0</v>
       </c>
       <c r="M4" s="8">
         <f>SUMIF(D:I,"&lt;&gt;0")</f>
-        <v>1440000</v>
+        <v>1850000</v>
       </c>
       <c r="N4" s="8">
         <v>9000000.0</v>
       </c>
       <c r="O4" s="9">
         <f>(N4-M4)*-1</f>
-        <v>-7560000</v>
+        <v>-7150000</v>
       </c>
     </row>
     <row r="5">
@@ -1537,10 +1584,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
@@ -1558,10 +1605,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
@@ -1573,19 +1620,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>630000.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -1603,10 +1647,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
@@ -1618,31 +1662,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>365000.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
         <v>10000.0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3">
         <v>10000.0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
@@ -1656,10 +1697,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -1671,11 +1712,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>30</v>
+      </c>
+      <c r="M10" s="10">
+        <v>355000.0</v>
       </c>
       <c r="N10" s="11">
         <v>46040.0</v>
@@ -1695,7 +1736,7 @@
         <v>10000.0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
@@ -1705,11 +1746,14 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>34</v>
+      <c r="L11" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="M11" s="10">
         <v>230000.0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>46042.0</v>
       </c>
     </row>
     <row r="12">
@@ -1717,16 +1761,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" s="3">
         <v>10000.0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -1742,16 +1786,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D13" s="3">
         <v>10000.0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
@@ -1767,10 +1811,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
@@ -1788,20 +1832,32 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D15:I15)</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="16">
@@ -1809,10 +1865,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -1821,7 +1877,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J16:J109" si="2">SUM(D16:H16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1830,10 +1886,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -1842,7 +1898,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1851,10 +1907,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1863,7 +1919,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1872,23 +1928,23 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="3">
         <v>10000.0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -1897,23 +1953,23 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3">
         <v>10000.0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -1922,23 +1978,23 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3">
         <v>10000.0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -1947,10 +2003,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
@@ -1959,7 +2015,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1968,23 +2024,23 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" s="3">
         <v>10000.0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -1993,20 +2049,24 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="25">
@@ -2014,10 +2074,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -2026,7 +2086,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2035,10 +2095,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -2047,7 +2107,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2056,20 +2116,24 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="28">
@@ -2077,10 +2141,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
@@ -2089,7 +2153,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2098,10 +2162,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
@@ -2110,7 +2174,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
       <c r="J29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2119,20 +2183,24 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
       <c r="J30" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="31">
@@ -2140,10 +2208,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -2152,7 +2220,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
       <c r="J31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2161,23 +2229,23 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3">
         <v>10000.0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
       <c r="J32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2186,10 +2254,10 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -2198,7 +2266,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
       <c r="J33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2207,10 +2275,10 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
@@ -2219,7 +2287,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2228,23 +2296,23 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D35" s="3">
         <v>10000.0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
       <c r="J35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2253,10 +2321,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
@@ -2265,7 +2333,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
       <c r="J36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2274,23 +2342,23 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D37" s="3">
         <v>10000.0</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
       <c r="J37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2299,23 +2367,23 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3">
         <v>10000.0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
       <c r="J38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2324,23 +2392,23 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D39" s="3">
         <v>10000.0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
       <c r="J39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2349,27 +2417,27 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D40" s="3">
         <v>10000.0</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F40" s="3">
         <v>10000.0</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -2378,10 +2446,10 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
@@ -2390,7 +2458,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
       <c r="J41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2399,10 +2467,10 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
@@ -2411,7 +2479,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
       <c r="J42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2420,10 +2488,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
@@ -2432,7 +2500,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
       <c r="J43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2441,10 +2509,10 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
@@ -2453,7 +2521,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
       <c r="J44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2462,23 +2530,23 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="3">
         <v>10000.0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
       <c r="J45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2487,10 +2555,10 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
@@ -2499,7 +2567,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
       <c r="J46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2508,23 +2576,23 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3">
         <v>10000.0</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
       <c r="J47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2533,10 +2601,10 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
@@ -2545,7 +2613,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
       <c r="J48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2554,10 +2622,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -2566,7 +2634,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="6"/>
       <c r="J49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2575,23 +2643,23 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D50" s="3">
         <v>10000.0</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
       <c r="J50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2600,23 +2668,23 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="3">
         <v>10000.0</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
       <c r="J51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2625,23 +2693,23 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D52" s="3">
         <v>10000.0</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
       <c r="J52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2650,23 +2718,23 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="3">
         <v>10000.0</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="5"/>
       <c r="I53" s="6"/>
       <c r="J53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2675,23 +2743,23 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="3">
         <v>10000.0</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
       <c r="J54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -2700,20 +2768,24 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
       <c r="J55" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="56">
@@ -2721,10 +2793,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
@@ -2733,7 +2805,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
       <c r="J56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2742,20 +2814,24 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
+      <c r="D57" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
       <c r="J57" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="58">
@@ -2763,10 +2839,10 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
@@ -2775,7 +2851,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
       <c r="J58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2784,20 +2860,28 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
       <c r="J59" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="60">
@@ -2808,21 +2892,17 @@
         <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
       <c r="J60" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2830,20 +2910,24 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="D61" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="5"/>
       <c r="I61" s="6"/>
       <c r="J61" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="62">
@@ -2851,19 +2935,19 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
       <c r="J62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2872,10 +2956,10 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4"/>
@@ -2884,7 +2968,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="6"/>
       <c r="J63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2893,19 +2977,19 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
       <c r="J64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2914,10 +2998,10 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
@@ -2926,7 +3010,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
       <c r="J65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2938,7 +3022,7 @@
         <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
@@ -2947,7 +3031,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
       <c r="J66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2956,10 +3040,10 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
@@ -2968,7 +3052,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
       <c r="J67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2980,21 +3064,29 @@
         <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" s="3">
         <v>10000.0</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J68" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="69">
@@ -3002,23 +3094,23 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D69" s="3">
         <v>10000.0</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
       <c r="J69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3027,20 +3119,24 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="D70" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
       <c r="J70" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="71">
@@ -3048,24 +3144,20 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
       <c r="J71" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3073,32 +3165,24 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D72" s="3">
         <v>10000.0</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="73">
@@ -3109,21 +3193,29 @@
         <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D73" s="3">
         <v>10000.0</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F73" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J73" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="74">
@@ -3131,20 +3223,24 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="D74" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
       <c r="J74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="75">
@@ -3155,17 +3251,21 @@
         <v>128</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="D75" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
       <c r="J75" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="76">
@@ -3173,20 +3273,24 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="D76" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
       <c r="J76" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="77">
@@ -3194,10 +3298,10 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
@@ -3206,7 +3310,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
       <c r="J77" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3218,7 +3322,7 @@
         <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
@@ -3227,7 +3331,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
       <c r="J78" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3343,7 @@
         <v>132</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
@@ -3248,7 +3352,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
       <c r="J79" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3257,28 +3361,20 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="5"/>
       <c r="I80" s="6"/>
       <c r="J80" s="5">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3286,19 +3382,19 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="5"/>
       <c r="I81" s="6"/>
       <c r="J81" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3307,24 +3403,28 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D82" s="3">
         <v>10000.0</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F82" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
       <c r="J82" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="83">
@@ -3332,24 +3432,20 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D83" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="5"/>
       <c r="I83" s="6"/>
       <c r="J83" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3357,20 +3453,24 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="D84" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="H84" s="5"/>
       <c r="I84" s="6"/>
       <c r="J84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="85">
@@ -3378,23 +3478,23 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D85" s="3">
         <v>10000.0</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="H85" s="5"/>
       <c r="I85" s="6"/>
       <c r="J85" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3403,19 +3503,19 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="H86" s="5"/>
       <c r="I86" s="6"/>
       <c r="J86" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3424,20 +3524,24 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6"/>
+      <c r="D87" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="H87" s="5"/>
       <c r="I87" s="6"/>
       <c r="J87" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="88">
@@ -3445,24 +3549,20 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D88" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="6"/>
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="5"/>
       <c r="I88" s="6"/>
       <c r="J88" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3470,24 +3570,20 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D89" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
       <c r="H89" s="5"/>
       <c r="I89" s="6"/>
       <c r="J89" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3495,23 +3591,23 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="D90" s="3">
         <v>10000.0</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="H90" s="5"/>
       <c r="I90" s="6"/>
       <c r="J90" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3520,23 +3616,23 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D91" s="3">
         <v>10000.0</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="H91" s="5"/>
       <c r="I91" s="6"/>
       <c r="J91" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3545,23 +3641,23 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="D92" s="3">
         <v>10000.0</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
       <c r="H92" s="5"/>
       <c r="I92" s="6"/>
       <c r="J92" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3570,23 +3666,23 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D93" s="3">
         <v>10000.0</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
       <c r="J93" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3595,20 +3691,24 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
+      <c r="D94" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
       <c r="H94" s="5"/>
       <c r="I94" s="6"/>
       <c r="J94" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="95">
@@ -3616,20 +3716,24 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D95" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
       <c r="H95" s="5"/>
       <c r="I95" s="6"/>
       <c r="J95" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="96">
@@ -3637,24 +3741,20 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
       <c r="H96" s="5"/>
       <c r="I96" s="6"/>
       <c r="J96" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3662,24 +3762,20 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D97" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
       <c r="H97" s="5"/>
       <c r="I97" s="6"/>
       <c r="J97" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3687,23 +3783,23 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D98" s="3">
         <v>10000.0</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
       <c r="H98" s="5"/>
       <c r="I98" s="6"/>
       <c r="J98" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3712,20 +3808,24 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="D99" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="H99" s="5"/>
       <c r="I99" s="6"/>
       <c r="J99" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="100">
@@ -3733,20 +3833,24 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6"/>
+      <c r="D100" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
       <c r="J100" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="101">
@@ -3754,10 +3858,10 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
@@ -3766,7 +3870,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="6"/>
       <c r="J101" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3775,24 +3879,20 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="6"/>
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="5"/>
       <c r="I102" s="6"/>
       <c r="J102" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3800,24 +3900,20 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="6"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
       <c r="H103" s="5"/>
       <c r="I103" s="6"/>
       <c r="J103" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3825,20 +3921,24 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="D104" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
       <c r="H104" s="5"/>
       <c r="I104" s="6"/>
       <c r="J104" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="105">
@@ -3846,20 +3946,24 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="D105" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
       <c r="H105" s="5"/>
       <c r="I105" s="6"/>
       <c r="J105" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="106">
@@ -3867,24 +3971,20 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="6"/>
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="H106" s="5"/>
       <c r="I106" s="6"/>
       <c r="J106" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3892,28 +3992,20 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D107" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F107" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="6"/>
       <c r="H107" s="5"/>
       <c r="I107" s="6"/>
       <c r="J107" s="5">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3921,20 +4013,24 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="D108" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="H108" s="5"/>
       <c r="I108" s="6"/>
       <c r="J108" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="109">
@@ -3942,20 +4038,28 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="D109" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H109" s="5"/>
       <c r="I109" s="6"/>
       <c r="J109" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="110">
@@ -3963,20 +4067,32 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="D110" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J110" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J110:J112" si="3">SUM(D110:I110)</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="111">
@@ -3984,20 +4100,32 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="D111" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J111" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="112">
@@ -4005,24 +4133,32 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D112" s="3">
         <v>10000.0</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F112" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J112" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="113">
@@ -4030,19 +4166,19 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="4"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="6"/>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
       <c r="H113" s="5"/>
       <c r="I113" s="6"/>
       <c r="J113" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J113:J245" si="4">SUM(D113:H113)</f>
         <v>0</v>
       </c>
     </row>
@@ -4051,23 +4187,23 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D114" s="3">
         <v>10000.0</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="H114" s="5"/>
       <c r="I114" s="6"/>
       <c r="J114" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4076,19 +4212,19 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4"/>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
       <c r="H115" s="5"/>
       <c r="I115" s="6"/>
       <c r="J115" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4100,17 +4236,21 @@
         <v>174</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D116" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
       <c r="H116" s="5"/>
       <c r="I116" s="6"/>
       <c r="J116" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="117">
@@ -4118,10 +4258,10 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="6"/>
@@ -4130,7 +4270,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="6"/>
       <c r="J117" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4139,24 +4279,20 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D118" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="6"/>
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
       <c r="H118" s="5"/>
       <c r="I118" s="6"/>
       <c r="J118" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4164,28 +4300,20 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D119" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
       <c r="H119" s="5"/>
       <c r="I119" s="6"/>
       <c r="J119" s="5">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4193,20 +4321,24 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="4"/>
+      <c r="D120" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="H120" s="5"/>
       <c r="I120" s="6"/>
       <c r="J120" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="121">
@@ -4214,20 +4346,28 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="D121" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H121" s="5"/>
       <c r="I121" s="6"/>
       <c r="J121" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="122">
@@ -4235,10 +4375,10 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="4"/>
@@ -4247,7 +4387,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="6"/>
       <c r="J122" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4256,32 +4396,20 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D123" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="6"/>
       <c r="J123" s="5">
-        <f t="shared" si="1"/>
-        <v>60000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4289,24 +4417,20 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D124" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
       <c r="H124" s="5"/>
       <c r="I124" s="6"/>
       <c r="J124" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4314,20 +4438,32 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D125" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J125" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="126">
@@ -4335,23 +4471,23 @@
         <v>125.0</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D126" s="3">
         <v>10000.0</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
       <c r="H126" s="5"/>
       <c r="I126" s="6"/>
       <c r="J126" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4360,24 +4496,20 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
       <c r="H127" s="5"/>
       <c r="I127" s="6"/>
       <c r="J127" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4385,32 +4517,24 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D128" s="3">
         <v>10000.0</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="6"/>
       <c r="J128" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="129">
@@ -4418,20 +4542,24 @@
         <v>128.0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
       <c r="H129" s="5"/>
       <c r="I129" s="6"/>
       <c r="J129" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="130">
@@ -4439,24 +4567,32 @@
         <v>129.0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D130" s="3">
         <v>10000.0</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F130" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J130" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="131">
@@ -4464,19 +4600,19 @@
         <v>130.0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="6"/>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="H131" s="5"/>
       <c r="I131" s="6"/>
       <c r="J131" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4485,23 +4621,23 @@
         <v>131.0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D132" s="3">
         <v>10000.0</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="5"/>
       <c r="I132" s="6"/>
       <c r="J132" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4510,19 +4646,19 @@
         <v>132.0</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="6"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="5"/>
       <c r="I133" s="6"/>
       <c r="J133" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4531,20 +4667,24 @@
         <v>133.0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="D134" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="H134" s="5"/>
       <c r="I134" s="6"/>
       <c r="J134" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="135">
@@ -4552,24 +4692,20 @@
         <v>134.0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D135" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="6"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="5"/>
       <c r="I135" s="6"/>
       <c r="J135" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4577,24 +4713,20 @@
         <v>135.0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D136" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="6"/>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
       <c r="H136" s="5"/>
       <c r="I136" s="6"/>
       <c r="J136" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4602,23 +4734,23 @@
         <v>136.0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="D137" s="3">
         <v>10000.0</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
       <c r="H137" s="5"/>
       <c r="I137" s="6"/>
       <c r="J137" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4627,7 +4759,7 @@
         <v>137.0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>200</v>
@@ -4636,14 +4768,14 @@
         <v>10000.0</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
       <c r="H138" s="5"/>
       <c r="I138" s="6"/>
       <c r="J138" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4652,23 +4784,23 @@
         <v>138.0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="D139" s="3">
         <v>10000.0</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
       <c r="H139" s="5"/>
       <c r="I139" s="6"/>
       <c r="J139" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4677,20 +4809,24 @@
         <v>139.0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="D140" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="H140" s="5"/>
       <c r="I140" s="6"/>
       <c r="J140" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="141">
@@ -4698,20 +4834,24 @@
         <v>140.0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="D141" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
       <c r="H141" s="5"/>
       <c r="I141" s="6"/>
       <c r="J141" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="142">
@@ -4719,23 +4859,23 @@
         <v>141.0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D142" s="3">
         <v>10000.0</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
       <c r="H142" s="5"/>
       <c r="I142" s="6"/>
       <c r="J142" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4744,24 +4884,20 @@
         <v>142.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D143" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="6"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="5"/>
       <c r="I143" s="6"/>
       <c r="J143" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4769,23 +4905,23 @@
         <v>143.0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D144" s="3">
         <v>10000.0</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="5"/>
       <c r="I144" s="6"/>
       <c r="J144" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4794,23 +4930,23 @@
         <v>144.0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="D145" s="3">
         <v>10000.0</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="5"/>
       <c r="I145" s="6"/>
       <c r="J145" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4819,23 +4955,23 @@
         <v>145.0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="D146" s="3">
         <v>10000.0</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
       <c r="H146" s="5"/>
       <c r="I146" s="6"/>
       <c r="J146" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -4844,20 +4980,24 @@
         <v>146.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="D147" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
       <c r="H147" s="5"/>
       <c r="I147" s="6"/>
       <c r="J147" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="148">
@@ -4865,20 +5005,24 @@
         <v>147.0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D148" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="H148" s="5"/>
       <c r="I148" s="6"/>
       <c r="J148" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="149">
@@ -4886,24 +5030,20 @@
         <v>148.0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D149" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
       <c r="H149" s="5"/>
       <c r="I149" s="6"/>
       <c r="J149" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4911,24 +5051,20 @@
         <v>149.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D150" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="5"/>
       <c r="I150" s="6"/>
       <c r="J150" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4936,24 +5072,24 @@
         <v>150.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="D151" s="3">
-        <v>15000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="H151" s="5"/>
       <c r="I151" s="6"/>
       <c r="J151" s="5">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="152">
@@ -4961,20 +5097,24 @@
         <v>151.0</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="6"/>
+      <c r="D152" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
       <c r="H152" s="5"/>
       <c r="I152" s="6"/>
       <c r="J152" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="153">
@@ -4982,24 +5122,24 @@
         <v>152.0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="D153" s="3">
-        <v>10000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
       <c r="H153" s="5"/>
       <c r="I153" s="6"/>
       <c r="J153" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="154">
@@ -5007,10 +5147,10 @@
         <v>153.0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="6"/>
@@ -5019,7 +5159,7 @@
       <c r="H154" s="5"/>
       <c r="I154" s="6"/>
       <c r="J154" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5028,20 +5168,24 @@
         <v>154.0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D155" s="3"/>
-      <c r="E155" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="D155" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
       <c r="H155" s="5"/>
       <c r="I155" s="6"/>
       <c r="J155" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="156">
@@ -5049,20 +5193,27 @@
         <v>155.0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="D156" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
       <c r="H156" s="5"/>
       <c r="I156" s="6"/>
       <c r="J156" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="K156" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="157">
@@ -5070,24 +5221,20 @@
         <v>156.0</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D157" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
       <c r="H157" s="5"/>
       <c r="I157" s="6"/>
       <c r="J157" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5095,20 +5242,24 @@
         <v>157.0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D158" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
       <c r="H158" s="5"/>
       <c r="I158" s="6"/>
       <c r="J158" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="159">
@@ -5116,20 +5267,24 @@
         <v>158.0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="6"/>
+      <c r="D159" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
       <c r="H159" s="5"/>
       <c r="I159" s="6"/>
       <c r="J159" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="160">
@@ -5137,7 +5292,7 @@
         <v>159.0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>219</v>
@@ -5149,7 +5304,7 @@
       <c r="H160" s="5"/>
       <c r="I160" s="6"/>
       <c r="J160" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5158,19 +5313,19 @@
         <v>160.0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D161" s="5"/>
-      <c r="E161" s="4"/>
+      <c r="E161" s="6"/>
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
       <c r="H161" s="5"/>
       <c r="I161" s="6"/>
       <c r="J161" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5179,24 +5334,20 @@
         <v>161.0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D162" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="6"/>
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
       <c r="H162" s="5"/>
       <c r="I162" s="6"/>
       <c r="J162" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -5204,24 +5355,20 @@
         <v>162.0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D163" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="4"/>
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
       <c r="H163" s="5"/>
       <c r="I163" s="6"/>
       <c r="J163" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5229,23 +5376,23 @@
         <v>163.0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D164" s="3">
         <v>10000.0</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
       <c r="H164" s="5"/>
       <c r="I164" s="6"/>
       <c r="J164" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -5254,7 +5401,7 @@
         <v>164.0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>223</v>
@@ -5263,14 +5410,14 @@
         <v>10000.0</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
       <c r="H165" s="5"/>
       <c r="I165" s="6"/>
       <c r="J165" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -5279,7 +5426,7 @@
         <v>165.0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>224</v>
@@ -5288,14 +5435,14 @@
         <v>10000.0</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="5"/>
       <c r="I166" s="6"/>
       <c r="J166" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -5304,28 +5451,24 @@
         <v>166.0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D167" s="3">
         <v>10000.0</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="6"/>
       <c r="H167" s="5"/>
       <c r="I167" s="6"/>
       <c r="J167" s="5">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="168">
@@ -5333,20 +5476,24 @@
         <v>167.0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="4"/>
+      <c r="D168" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
       <c r="H168" s="5"/>
       <c r="I168" s="6"/>
       <c r="J168" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="169">
@@ -5354,24 +5501,28 @@
         <v>168.0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="D169" s="3">
         <v>10000.0</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F169" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H169" s="5"/>
       <c r="I169" s="6"/>
       <c r="J169" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="170">
@@ -5379,20 +5530,24 @@
         <v>169.0</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="6"/>
+      <c r="D170" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
       <c r="H170" s="5"/>
       <c r="I170" s="6"/>
       <c r="J170" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="171">
@@ -5400,10 +5555,10 @@
         <v>170.0</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="4"/>
@@ -5412,7 +5567,7 @@
       <c r="H171" s="5"/>
       <c r="I171" s="6"/>
       <c r="J171" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5421,23 +5576,23 @@
         <v>171.0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="D172" s="3">
         <v>10000.0</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
       <c r="H172" s="5"/>
       <c r="I172" s="6"/>
       <c r="J172" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -5446,24 +5601,20 @@
         <v>172.0</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D173" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="6"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
       <c r="H173" s="5"/>
       <c r="I173" s="6"/>
       <c r="J173" s="5">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -5471,19 +5622,19 @@
         <v>173.0</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="6"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="4"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="H174" s="5"/>
       <c r="I174" s="6"/>
       <c r="J174" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5492,20 +5643,24 @@
         <v>174.0</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="4"/>
+      <c r="D175" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="H175" s="5"/>
       <c r="I175" s="6"/>
       <c r="J175" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="176">
@@ -5513,20 +5668,24 @@
         <v>175.0</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="D176" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
       <c r="H176" s="5"/>
       <c r="I176" s="6"/>
       <c r="J176" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="177">
@@ -5537,7 +5696,7 @@
         <v>236</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="6"/>
@@ -5546,7 +5705,7 @@
       <c r="H177" s="5"/>
       <c r="I177" s="6"/>
       <c r="J177" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5555,24 +5714,20 @@
         <v>177.0</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D178" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="4"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="H178" s="5"/>
       <c r="I178" s="6"/>
       <c r="J178" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5580,24 +5735,20 @@
         <v>178.0</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D179" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="4"/>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="H179" s="5"/>
       <c r="I179" s="6"/>
       <c r="J179" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -5605,19 +5756,19 @@
         <v>179.0</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D180" s="5"/>
-      <c r="E180" s="6"/>
+      <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="H180" s="5"/>
       <c r="I180" s="6"/>
       <c r="J180" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5626,20 +5777,24 @@
         <v>180.0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="D181" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
       <c r="H181" s="5"/>
       <c r="I181" s="6"/>
       <c r="J181" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="182">
@@ -5647,20 +5802,24 @@
         <v>181.0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="D182" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
       <c r="H182" s="5"/>
       <c r="I182" s="6"/>
       <c r="J182" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="183">
@@ -5668,20 +5827,24 @@
         <v>182.0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="D183" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
       <c r="H183" s="5"/>
       <c r="I183" s="6"/>
       <c r="J183" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="184">
@@ -5689,19 +5852,19 @@
         <v>183.0</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D184" s="5"/>
-      <c r="E184" s="4"/>
+      <c r="E184" s="6"/>
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
       <c r="H184" s="5"/>
       <c r="I184" s="6"/>
       <c r="J184" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5710,24 +5873,20 @@
         <v>184.0</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D185" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="4"/>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
       <c r="H185" s="5"/>
       <c r="I185" s="6"/>
       <c r="J185" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5735,24 +5894,20 @@
         <v>185.0</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D186" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="4"/>
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
       <c r="H186" s="5"/>
       <c r="I186" s="6"/>
       <c r="J186" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5760,20 +5915,24 @@
         <v>186.0</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D187" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
       <c r="H187" s="5"/>
       <c r="I187" s="6"/>
       <c r="J187" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="188">
@@ -5781,24 +5940,20 @@
         <v>187.0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D188" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="4"/>
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
       <c r="H188" s="5"/>
       <c r="I188" s="6"/>
       <c r="J188" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5809,17 +5964,21 @@
         <v>245</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="D189" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
       <c r="H189" s="5"/>
       <c r="I189" s="6"/>
       <c r="J189" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="190">
@@ -5827,20 +5986,24 @@
         <v>189.0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D190" s="5"/>
-      <c r="E190" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="D190" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
       <c r="H190" s="5"/>
       <c r="I190" s="6"/>
       <c r="J190" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="191">
@@ -5848,7 +6011,7 @@
         <v>190.0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>249</v>
@@ -5860,7 +6023,7 @@
       <c r="H191" s="5"/>
       <c r="I191" s="6"/>
       <c r="J191" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5869,20 +6032,24 @@
         <v>191.0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D192" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6"/>
       <c r="J192" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="193">
@@ -5890,10 +6057,10 @@
         <v>192.0</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="6"/>
@@ -5902,7 +6069,7 @@
       <c r="H193" s="5"/>
       <c r="I193" s="6"/>
       <c r="J193" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5911,19 +6078,19 @@
         <v>193.0</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="6"/>
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
       <c r="H194" s="5"/>
       <c r="I194" s="6"/>
       <c r="J194" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5932,24 +6099,20 @@
         <v>194.0</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D195" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="6"/>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
       <c r="H195" s="5"/>
       <c r="I195" s="6"/>
       <c r="J195" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -5957,24 +6120,20 @@
         <v>195.0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D196" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="6"/>
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
       <c r="H196" s="5"/>
       <c r="I196" s="6"/>
       <c r="J196" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5982,19 +6141,19 @@
         <v>196.0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="4"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="6"/>
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6"/>
       <c r="J197" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6003,19 +6162,19 @@
         <v>197.0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="4"/>
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
       <c r="H198" s="5"/>
       <c r="I198" s="6"/>
       <c r="J198" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6024,20 +6183,24 @@
         <v>198.0</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="D199" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
       <c r="H199" s="5"/>
       <c r="I199" s="6"/>
       <c r="J199" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="200">
@@ -6045,20 +6208,24 @@
         <v>199.0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="6"/>
+        <v>257</v>
+      </c>
+      <c r="D200" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
       <c r="H200" s="5"/>
       <c r="I200" s="6"/>
       <c r="J200" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="201">
@@ -6069,21 +6236,17 @@
         <v>258</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D201" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
       <c r="H201" s="5"/>
       <c r="I201" s="6"/>
       <c r="J201" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -6091,19 +6254,19 @@
         <v>201.0</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D202" s="3"/>
-      <c r="E202" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="6"/>
       <c r="F202" s="5"/>
       <c r="G202" s="6"/>
       <c r="H202" s="5"/>
       <c r="I202" s="6"/>
       <c r="J202" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6112,19 +6275,19 @@
         <v>202.0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D203" s="3"/>
-      <c r="E203" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="6"/>
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6"/>
       <c r="J203" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6133,19 +6296,19 @@
         <v>203.0</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D204" s="3"/>
-      <c r="E204" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="6"/>
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
       <c r="H204" s="5"/>
       <c r="I204" s="6"/>
       <c r="J204" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6157,17 +6320,21 @@
         <v>261</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D205" s="5"/>
-      <c r="E205" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="D205" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
       <c r="H205" s="5"/>
       <c r="I205" s="6"/>
       <c r="J205" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="206">
@@ -6178,16 +6345,16 @@
         <v>261</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="4"/>
       <c r="F206" s="5"/>
       <c r="G206" s="6"/>
       <c r="H206" s="5"/>
       <c r="I206" s="6"/>
       <c r="J206" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6199,16 +6366,16 @@
         <v>261</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D207" s="5"/>
-      <c r="E207" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
       <c r="H207" s="5"/>
       <c r="I207" s="6"/>
       <c r="J207" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6220,16 +6387,16 @@
         <v>261</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D208" s="5"/>
-      <c r="E208" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="6"/>
       <c r="H208" s="5"/>
       <c r="I208" s="6"/>
       <c r="J208" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6238,32 +6405,20 @@
         <v>208.0</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D209" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F209" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H209" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I209" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="6"/>
       <c r="J209" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -6271,24 +6426,20 @@
         <v>209.0</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D210" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="6"/>
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
       <c r="H210" s="5"/>
       <c r="I210" s="6"/>
       <c r="J210" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -6296,19 +6447,19 @@
         <v>210.0</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D211" s="5"/>
-      <c r="E211" s="4"/>
+      <c r="E211" s="6"/>
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
       <c r="H211" s="5"/>
       <c r="I211" s="6"/>
       <c r="J211" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6317,24 +6468,20 @@
         <v>211.0</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D212" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="6"/>
       <c r="F212" s="5"/>
       <c r="G212" s="6"/>
       <c r="H212" s="5"/>
       <c r="I212" s="6"/>
       <c r="J212" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -6342,20 +6489,32 @@
         <v>212.0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D213" s="5"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="D213" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H213" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J213" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="214">
@@ -6363,20 +6522,24 @@
         <v>213.0</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D214" s="5"/>
-      <c r="E214" s="6"/>
+      <c r="D214" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
       <c r="H214" s="5"/>
       <c r="I214" s="6"/>
       <c r="J214" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="215">
@@ -6384,19 +6547,19 @@
         <v>214.0</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="D215" s="5"/>
-      <c r="E215" s="6"/>
+      <c r="E215" s="4"/>
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
       <c r="H215" s="5"/>
       <c r="I215" s="6"/>
       <c r="J215" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6405,23 +6568,23 @@
         <v>215.0</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="D216" s="3">
         <v>10000.0</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
       <c r="H216" s="5"/>
       <c r="I216" s="6"/>
       <c r="J216" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -6433,21 +6596,17 @@
         <v>272</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D217" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="6"/>
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
       <c r="H217" s="5"/>
       <c r="I217" s="6"/>
       <c r="J217" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6458,7 +6617,7 @@
         <v>272</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="6"/>
@@ -6467,7 +6626,7 @@
       <c r="H218" s="5"/>
       <c r="I218" s="6"/>
       <c r="J218" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6476,19 +6635,19 @@
         <v>218.0</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="D219" s="5"/>
-      <c r="E219" s="4"/>
+      <c r="E219" s="6"/>
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
       <c r="H219" s="5"/>
       <c r="I219" s="6"/>
       <c r="J219" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6497,20 +6656,24 @@
         <v>219.0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D220" s="5"/>
-      <c r="E220" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="D220" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
       <c r="H220" s="5"/>
       <c r="I220" s="6"/>
       <c r="J220" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="221">
@@ -6518,20 +6681,24 @@
         <v>220.0</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="6"/>
+      <c r="D221" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
       <c r="H221" s="5"/>
       <c r="I221" s="6"/>
       <c r="J221" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="222">
@@ -6539,10 +6706,10 @@
         <v>221.0</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="6"/>
@@ -6551,7 +6718,7 @@
       <c r="H222" s="5"/>
       <c r="I222" s="6"/>
       <c r="J222" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6560,24 +6727,20 @@
         <v>222.0</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D223" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="4"/>
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
       <c r="H223" s="5"/>
       <c r="I223" s="6"/>
       <c r="J223" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -6585,23 +6748,23 @@
         <v>223.0</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="D224" s="3">
         <v>10000.0</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
       <c r="H224" s="5"/>
       <c r="I224" s="6"/>
       <c r="J224" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -6610,23 +6773,23 @@
         <v>224.0</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D225" s="3">
         <v>5000.0</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
       <c r="H225" s="5"/>
       <c r="I225" s="6"/>
       <c r="J225" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
@@ -6635,24 +6798,20 @@
         <v>225.0</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D226" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D226" s="5"/>
+      <c r="E226" s="6"/>
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
       <c r="H226" s="5"/>
       <c r="I226" s="6"/>
       <c r="J226" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6660,7 +6819,7 @@
         <v>226.0</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>282</v>
@@ -6669,14 +6828,14 @@
         <v>10000.0</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
       <c r="H227" s="5"/>
       <c r="I227" s="6"/>
       <c r="J227" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -6690,15 +6849,19 @@
       <c r="C228" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D228" s="5"/>
-      <c r="E228" s="6"/>
+      <c r="D228" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
       <c r="H228" s="5"/>
       <c r="I228" s="6"/>
       <c r="J228" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="229">
@@ -6706,20 +6869,24 @@
         <v>228.0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D229" s="5"/>
-      <c r="E229" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="D229" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
       <c r="H229" s="5"/>
       <c r="I229" s="6"/>
       <c r="J229" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="230">
@@ -6727,20 +6894,24 @@
         <v>229.0</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D230" s="5"/>
-      <c r="E230" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D230" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
       <c r="H230" s="5"/>
       <c r="I230" s="6"/>
       <c r="J230" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="231">
@@ -6748,20 +6919,24 @@
         <v>230.0</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="4"/>
+      <c r="D231" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
       <c r="H231" s="5"/>
       <c r="I231" s="6"/>
       <c r="J231" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="232">
@@ -6769,19 +6944,19 @@
         <v>231.0</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="D232" s="5"/>
-      <c r="E232" s="4"/>
+      <c r="E232" s="6"/>
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
       <c r="H232" s="5"/>
       <c r="I232" s="6"/>
       <c r="J232" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6790,19 +6965,19 @@
         <v>232.0</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="D233" s="5"/>
-      <c r="E233" s="4"/>
+      <c r="E233" s="6"/>
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
       <c r="H233" s="5"/>
       <c r="I233" s="6"/>
       <c r="J233" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6811,28 +6986,20 @@
         <v>233.0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D234" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F234" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="6"/>
       <c r="H234" s="5"/>
       <c r="I234" s="6"/>
       <c r="J234" s="5">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -6840,19 +7007,19 @@
         <v>234.0</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="D235" s="5"/>
-      <c r="E235" s="6"/>
+      <c r="E235" s="4"/>
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
       <c r="H235" s="5"/>
       <c r="I235" s="6"/>
       <c r="J235" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6861,24 +7028,20 @@
         <v>235.0</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D236" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D236" s="5"/>
+      <c r="E236" s="4"/>
       <c r="F236" s="5"/>
       <c r="G236" s="6"/>
       <c r="H236" s="5"/>
       <c r="I236" s="6"/>
       <c r="J236" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -6886,24 +7049,20 @@
         <v>236.0</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D237" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="4"/>
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
       <c r="H237" s="5"/>
       <c r="I237" s="6"/>
       <c r="J237" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -6911,20 +7070,28 @@
         <v>237.0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="D238" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H238" s="5"/>
       <c r="I238" s="6"/>
       <c r="J238" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="239">
@@ -6932,20 +7099,24 @@
         <v>238.0</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D239" s="5"/>
-      <c r="E239" s="4"/>
+        <v>285</v>
+      </c>
+      <c r="D239" s="3">
+        <v>15000.0</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
       <c r="H239" s="5"/>
       <c r="I239" s="6"/>
       <c r="J239" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="240">
@@ -6956,17 +7127,21 @@
         <v>294</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D240" s="5"/>
-      <c r="E240" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="D240" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
       <c r="H240" s="5"/>
       <c r="I240" s="6"/>
       <c r="J240" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="241">
@@ -6977,21 +7152,25 @@
         <v>294</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="D241" s="3">
         <v>10000.0</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F241" s="5"/>
-      <c r="G241" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F241" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H241" s="5"/>
       <c r="I241" s="6"/>
       <c r="J241" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="242">
@@ -6999,10 +7178,10 @@
         <v>241.0</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="4"/>
@@ -7011,7 +7190,7 @@
       <c r="H242" s="5"/>
       <c r="I242" s="6"/>
       <c r="J242" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7020,24 +7199,20 @@
         <v>242.0</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D243" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D243" s="5"/>
+      <c r="E243" s="4"/>
       <c r="F243" s="5"/>
       <c r="G243" s="6"/>
       <c r="H243" s="5"/>
       <c r="I243" s="6"/>
       <c r="J243" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -7045,32 +7220,20 @@
         <v>243.0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D244" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F244" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G244" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H244" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I244" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D244" s="5"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="6"/>
       <c r="J244" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -7078,32 +7241,24 @@
         <v>244.0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="D245" s="3">
         <v>10000.0</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F245" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H245" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I245" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="6"/>
       <c r="J245" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="246">
@@ -7111,20 +7266,32 @@
         <v>245.0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="6"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="D246" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F246" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H246" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J246" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D246:I246)</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="247">
@@ -7132,20 +7299,24 @@
         <v>246.0</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D247" s="5"/>
-      <c r="E247" s="6"/>
+      <c r="D247" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
       <c r="H247" s="5"/>
       <c r="I247" s="6"/>
       <c r="J247" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J247:J307" si="5">SUM(D247:H247)</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="248">
@@ -7153,24 +7324,32 @@
         <v>247.0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="D248" s="3">
         <v>10000.0</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F248" s="5"/>
-      <c r="G248" s="6"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F248" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H248" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J248" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="249">
@@ -7178,24 +7357,32 @@
         <v>248.0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="D249" s="3">
         <v>10000.0</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F249" s="5"/>
-      <c r="G249" s="6"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F249" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H249" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J249" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="250">
@@ -7203,24 +7390,20 @@
         <v>249.0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D250" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D250" s="5"/>
+      <c r="E250" s="6"/>
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
       <c r="H250" s="5"/>
       <c r="I250" s="6"/>
       <c r="J250" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -7228,19 +7411,19 @@
         <v>250.0</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D251" s="5"/>
-      <c r="E251" s="4"/>
+      <c r="E251" s="6"/>
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
       <c r="H251" s="5"/>
       <c r="I251" s="6"/>
       <c r="J251" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7249,20 +7432,24 @@
         <v>251.0</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D252" s="5"/>
-      <c r="E252" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D252" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F252" s="5"/>
       <c r="G252" s="6"/>
       <c r="H252" s="5"/>
       <c r="I252" s="6"/>
       <c r="J252" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="253">
@@ -7270,20 +7457,24 @@
         <v>252.0</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D253" s="5"/>
-      <c r="E253" s="4"/>
+        <v>306</v>
+      </c>
+      <c r="D253" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F253" s="5"/>
       <c r="G253" s="6"/>
       <c r="H253" s="5"/>
       <c r="I253" s="6"/>
       <c r="J253" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="254">
@@ -7291,23 +7482,23 @@
         <v>253.0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="D254" s="3">
         <v>10000.0</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="6"/>
       <c r="H254" s="5"/>
       <c r="I254" s="6"/>
       <c r="J254" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
@@ -7316,28 +7507,20 @@
         <v>254.0</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D255" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F255" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G255" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D255" s="5"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="6"/>
       <c r="H255" s="5"/>
       <c r="I255" s="6"/>
       <c r="J255" s="5">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -7345,24 +7528,20 @@
         <v>255.0</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D256" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="4"/>
       <c r="F256" s="5"/>
       <c r="G256" s="6"/>
       <c r="H256" s="5"/>
       <c r="I256" s="6"/>
       <c r="J256" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -7370,19 +7549,19 @@
         <v>256.0</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="D257" s="5"/>
-      <c r="E257" s="6"/>
+      <c r="E257" s="4"/>
       <c r="F257" s="5"/>
       <c r="G257" s="6"/>
       <c r="H257" s="5"/>
       <c r="I257" s="6"/>
       <c r="J257" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7391,23 +7570,23 @@
         <v>257.0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D258" s="3">
         <v>10000.0</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="6"/>
       <c r="H258" s="5"/>
       <c r="I258" s="6"/>
       <c r="J258" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
@@ -7419,17 +7598,25 @@
         <v>309</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D259" s="5"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="D259" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F259" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H259" s="5"/>
       <c r="I259" s="6"/>
       <c r="J259" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="260">
@@ -7437,20 +7624,24 @@
         <v>259.0</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D260" s="5"/>
-      <c r="E260" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="D260" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F260" s="5"/>
       <c r="G260" s="6"/>
       <c r="H260" s="5"/>
       <c r="I260" s="6"/>
       <c r="J260" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="261">
@@ -7458,10 +7649,10 @@
         <v>260.0</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="6"/>
@@ -7470,7 +7661,7 @@
       <c r="H261" s="5"/>
       <c r="I261" s="6"/>
       <c r="J261" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7482,25 +7673,21 @@
         <v>311</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="D262" s="3">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F262" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="G262" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F262" s="5"/>
+      <c r="G262" s="6"/>
       <c r="H262" s="5"/>
       <c r="I262" s="6"/>
       <c r="J262" s="5">
-        <f t="shared" si="1"/>
-        <v>40000</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="263">
@@ -7508,19 +7695,19 @@
         <v>262.0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D263" s="3"/>
-      <c r="E263" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="6"/>
       <c r="F263" s="5"/>
       <c r="G263" s="6"/>
       <c r="H263" s="5"/>
       <c r="I263" s="6"/>
       <c r="J263" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7529,19 +7716,19 @@
         <v>263.0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="D264" s="5"/>
-      <c r="E264" s="4"/>
+      <c r="E264" s="6"/>
       <c r="F264" s="5"/>
       <c r="G264" s="6"/>
       <c r="H264" s="5"/>
       <c r="I264" s="6"/>
       <c r="J264" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7550,10 +7737,10 @@
         <v>264.0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="6"/>
@@ -7562,7 +7749,7 @@
       <c r="H265" s="5"/>
       <c r="I265" s="6"/>
       <c r="J265" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7571,20 +7758,28 @@
         <v>265.0</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D266" s="5"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="D266" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F266" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H266" s="5"/>
       <c r="I266" s="6"/>
       <c r="J266" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="267">
@@ -7595,16 +7790,16 @@
         <v>317</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D267" s="5"/>
-      <c r="E267" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" s="4"/>
       <c r="F267" s="5"/>
       <c r="G267" s="6"/>
       <c r="H267" s="5"/>
       <c r="I267" s="6"/>
       <c r="J267" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7613,19 +7808,19 @@
         <v>267.0</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D268" s="5"/>
-      <c r="E268" s="6"/>
+      <c r="E268" s="4"/>
       <c r="F268" s="5"/>
       <c r="G268" s="6"/>
       <c r="H268" s="5"/>
       <c r="I268" s="6"/>
       <c r="J268" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7634,20 +7829,24 @@
         <v>268.0</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D269" s="5"/>
-      <c r="E269" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="D269" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F269" s="5"/>
       <c r="G269" s="6"/>
       <c r="H269" s="5"/>
       <c r="I269" s="6"/>
       <c r="J269" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="270">
@@ -7655,20 +7854,24 @@
         <v>269.0</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D270" s="5"/>
-      <c r="E270" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="D270" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F270" s="5"/>
       <c r="G270" s="6"/>
       <c r="H270" s="5"/>
       <c r="I270" s="6"/>
       <c r="J270" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="271">
@@ -7676,20 +7879,24 @@
         <v>270.0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D271" s="5"/>
-      <c r="E271" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="D271" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F271" s="5"/>
       <c r="G271" s="6"/>
       <c r="H271" s="5"/>
       <c r="I271" s="6"/>
       <c r="J271" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="272">
@@ -7697,19 +7904,19 @@
         <v>271.0</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="D272" s="5"/>
-      <c r="E272" s="4"/>
+      <c r="E272" s="6"/>
       <c r="F272" s="5"/>
       <c r="G272" s="6"/>
       <c r="H272" s="5"/>
       <c r="I272" s="6"/>
       <c r="J272" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7718,24 +7925,20 @@
         <v>272.0</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D273" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="6"/>
       <c r="F273" s="5"/>
       <c r="G273" s="6"/>
       <c r="H273" s="5"/>
       <c r="I273" s="6"/>
       <c r="J273" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -7743,19 +7946,19 @@
         <v>273.0</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="D274" s="5"/>
-      <c r="E274" s="6"/>
+      <c r="E274" s="4"/>
       <c r="F274" s="5"/>
       <c r="G274" s="6"/>
       <c r="H274" s="5"/>
       <c r="I274" s="6"/>
       <c r="J274" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7764,19 +7967,19 @@
         <v>274.0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D275" s="5"/>
-      <c r="E275" s="6"/>
+      <c r="E275" s="4"/>
       <c r="F275" s="5"/>
       <c r="G275" s="6"/>
       <c r="H275" s="5"/>
       <c r="I275" s="6"/>
       <c r="J275" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7785,19 +7988,19 @@
         <v>275.0</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="D276" s="5"/>
-      <c r="E276" s="6"/>
+      <c r="E276" s="4"/>
       <c r="F276" s="5"/>
       <c r="G276" s="6"/>
       <c r="H276" s="5"/>
       <c r="I276" s="6"/>
       <c r="J276" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7806,20 +8009,24 @@
         <v>276.0</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D277" s="5"/>
-      <c r="E277" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D277" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F277" s="5"/>
       <c r="G277" s="6"/>
       <c r="H277" s="5"/>
       <c r="I277" s="6"/>
       <c r="J277" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="278">
@@ -7827,19 +8034,19 @@
         <v>277.0</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="D278" s="5"/>
-      <c r="E278" s="4"/>
+      <c r="E278" s="6"/>
       <c r="F278" s="5"/>
       <c r="G278" s="6"/>
       <c r="H278" s="5"/>
       <c r="I278" s="6"/>
       <c r="J278" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7851,7 +8058,7 @@
         <v>325</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="6"/>
@@ -7860,7 +8067,7 @@
       <c r="H279" s="5"/>
       <c r="I279" s="6"/>
       <c r="J279" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7869,10 +8076,10 @@
         <v>279.0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>328</v>
+        <v>129</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="6"/>
@@ -7881,7 +8088,7 @@
       <c r="H280" s="5"/>
       <c r="I280" s="6"/>
       <c r="J280" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7890,24 +8097,20 @@
         <v>280.0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D281" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="6"/>
       <c r="F281" s="5"/>
       <c r="G281" s="6"/>
       <c r="H281" s="5"/>
       <c r="I281" s="6"/>
       <c r="J281" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -7915,19 +8118,19 @@
         <v>281.0</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="D282" s="5"/>
-      <c r="E282" s="6"/>
+      <c r="E282" s="4"/>
       <c r="F282" s="5"/>
       <c r="G282" s="6"/>
       <c r="H282" s="5"/>
       <c r="I282" s="6"/>
       <c r="J282" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7936,19 +8139,19 @@
         <v>282.0</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D283" s="5"/>
-      <c r="E283" s="4"/>
+      <c r="E283" s="6"/>
       <c r="F283" s="5"/>
       <c r="G283" s="6"/>
       <c r="H283" s="5"/>
       <c r="I283" s="6"/>
       <c r="J283" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7957,24 +8160,20 @@
         <v>283.0</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D284" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D284" s="5"/>
+      <c r="E284" s="6"/>
       <c r="F284" s="5"/>
       <c r="G284" s="6"/>
       <c r="H284" s="5"/>
       <c r="I284" s="6"/>
       <c r="J284" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -7982,20 +8181,24 @@
         <v>284.0</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D285" s="5"/>
-      <c r="E285" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="D285" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F285" s="5"/>
       <c r="G285" s="6"/>
       <c r="H285" s="5"/>
       <c r="I285" s="6"/>
       <c r="J285" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="286">
@@ -8003,10 +8206,10 @@
         <v>285.0</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="6"/>
@@ -8015,7 +8218,7 @@
       <c r="H286" s="5"/>
       <c r="I286" s="6"/>
       <c r="J286" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8024,24 +8227,20 @@
         <v>286.0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D287" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="4"/>
       <c r="F287" s="5"/>
       <c r="G287" s="6"/>
       <c r="H287" s="5"/>
       <c r="I287" s="6"/>
       <c r="J287" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -8049,20 +8248,24 @@
         <v>287.0</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D288" s="5"/>
-      <c r="E288" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="D288" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F288" s="5"/>
       <c r="G288" s="6"/>
       <c r="H288" s="5"/>
       <c r="I288" s="6"/>
       <c r="J288" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="289">
@@ -8070,10 +8273,10 @@
         <v>288.0</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="6"/>
@@ -8082,7 +8285,7 @@
       <c r="H289" s="5"/>
       <c r="I289" s="6"/>
       <c r="J289" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8091,10 +8294,10 @@
         <v>289.0</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="6"/>
@@ -8103,7 +8306,7 @@
       <c r="H290" s="5"/>
       <c r="I290" s="6"/>
       <c r="J290" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8112,20 +8315,24 @@
         <v>290.0</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D291" s="5"/>
-      <c r="E291" s="6"/>
+        <v>339</v>
+      </c>
+      <c r="D291" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F291" s="5"/>
       <c r="G291" s="6"/>
       <c r="H291" s="5"/>
       <c r="I291" s="6"/>
       <c r="J291" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="292">
@@ -8133,19 +8340,19 @@
         <v>291.0</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="D292" s="5"/>
-      <c r="E292" s="4"/>
+      <c r="E292" s="6"/>
       <c r="F292" s="5"/>
       <c r="G292" s="6"/>
       <c r="H292" s="5"/>
       <c r="I292" s="6"/>
       <c r="J292" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8154,19 +8361,19 @@
         <v>292.0</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="D293" s="5"/>
-      <c r="E293" s="4"/>
+      <c r="E293" s="6"/>
       <c r="F293" s="5"/>
       <c r="G293" s="6"/>
       <c r="H293" s="5"/>
       <c r="I293" s="6"/>
       <c r="J293" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8175,19 +8382,19 @@
         <v>293.0</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D294" s="5"/>
-      <c r="E294" s="4"/>
+      <c r="E294" s="6"/>
       <c r="F294" s="5"/>
       <c r="G294" s="6"/>
       <c r="H294" s="5"/>
       <c r="I294" s="6"/>
       <c r="J294" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8196,24 +8403,20 @@
         <v>294.0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D295" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="6"/>
       <c r="F295" s="5"/>
       <c r="G295" s="6"/>
       <c r="H295" s="5"/>
       <c r="I295" s="6"/>
       <c r="J295" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -8221,19 +8424,19 @@
         <v>295.0</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="D296" s="5"/>
-      <c r="E296" s="6"/>
+      <c r="E296" s="4"/>
       <c r="F296" s="5"/>
       <c r="G296" s="6"/>
       <c r="H296" s="5"/>
       <c r="I296" s="6"/>
       <c r="J296" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8242,19 +8445,19 @@
         <v>296.0</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D297" s="5"/>
-      <c r="E297" s="6"/>
+      <c r="E297" s="4"/>
       <c r="F297" s="5"/>
       <c r="G297" s="6"/>
       <c r="H297" s="5"/>
       <c r="I297" s="6"/>
       <c r="J297" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8263,10 +8466,10 @@
         <v>297.0</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="4"/>
@@ -8275,7 +8478,7 @@
       <c r="H298" s="5"/>
       <c r="I298" s="6"/>
       <c r="J298" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8284,20 +8487,24 @@
         <v>298.0</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D299" s="5"/>
-      <c r="E299" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="D299" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F299" s="5"/>
       <c r="G299" s="6"/>
       <c r="H299" s="5"/>
       <c r="I299" s="6"/>
       <c r="J299" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="300">
@@ -8305,24 +8512,20 @@
         <v>299.0</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D300" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D300" s="5"/>
+      <c r="E300" s="4"/>
       <c r="F300" s="5"/>
       <c r="G300" s="6"/>
       <c r="H300" s="5"/>
       <c r="I300" s="6"/>
       <c r="J300" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -8330,10 +8533,10 @@
         <v>300.0</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="6"/>
@@ -8342,7 +8545,7 @@
       <c r="H301" s="5"/>
       <c r="I301" s="6"/>
       <c r="J301" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8351,19 +8554,19 @@
         <v>301.0</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D302" s="5"/>
-      <c r="E302" s="4"/>
+      <c r="E302" s="6"/>
       <c r="F302" s="5"/>
       <c r="G302" s="6"/>
       <c r="H302" s="5"/>
       <c r="I302" s="6"/>
       <c r="J302" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8372,24 +8575,108 @@
         <v>302.0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D303" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="D303" s="5"/>
+      <c r="E303" s="4"/>
       <c r="F303" s="5"/>
       <c r="G303" s="6"/>
       <c r="H303" s="5"/>
       <c r="I303" s="6"/>
       <c r="J303" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>303.0</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D304" s="5"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="6"/>
+      <c r="J304" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>304.0</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D305" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" s="5"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="6"/>
+      <c r="J305" s="5">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>305.0</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D306" s="5"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="6"/>
+      <c r="J306" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>306.0</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="6"/>
+      <c r="J307" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8398,27 +8685,27 @@
       <sortCondition ref="B1:B1025"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D303 F2:F303 H2:H303">
+  <conditionalFormatting sqref="D2:D307 F2:F307 H2:H307">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D303 F2:F303 H2:H303">
+  <conditionalFormatting sqref="D2:D307 F2:F307 H2:H307">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D303 F2:F303 H2:H303">
+  <conditionalFormatting sqref="D2:D307 F2:F307 H2:H307">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J303">
+  <conditionalFormatting sqref="J2:J307">
     <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(J2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J303">
+  <conditionalFormatting sqref="J2:J307">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
       <formula>5000</formula>
     </cfRule>
@@ -8441,8 +8728,18 @@
       <formula>90000000</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J5 J68">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+      <formula>30000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2 J125">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThanOrEqual">
+      <formula>30000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E303 G2:G303 I2:I303">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E307 G2:G307 I2:I307">
       <formula1>"Efectivo,Transferencia"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="390">
   <si>
     <t>Apellido</t>
   </si>
@@ -69,6 +69,9 @@
     <t>ISMAEL</t>
   </si>
   <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
     <t>ALDERETE</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
     <t>CELESTINA</t>
   </si>
   <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
     <t>2da entrega Efvo</t>
   </si>
   <si>
@@ -129,6 +129,9 @@
     <t>MARIA LUISA</t>
   </si>
   <si>
+    <t>6ta entrega Efvo</t>
+  </si>
+  <si>
     <t>ARGUELLO</t>
   </si>
   <si>
@@ -198,6 +201,12 @@
     <t>MARIO</t>
   </si>
   <si>
+    <t>BARBI</t>
+  </si>
+  <si>
+    <t>RUBI</t>
+  </si>
+  <si>
     <t>BARICHIA</t>
   </si>
   <si>
@@ -552,6 +561,12 @@
     <t>ABIGAIL</t>
   </si>
   <si>
+    <t>GODOY</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
     <t>GOMEZ</t>
   </si>
   <si>
@@ -759,6 +774,12 @@
     <t>MILAGROS</t>
   </si>
   <si>
+    <t>ROXY</t>
+  </si>
+  <si>
+    <t>SELENE</t>
+  </si>
+  <si>
     <t>MONSALVO</t>
   </si>
   <si>
@@ -1135,6 +1156,12 @@
   </si>
   <si>
     <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>CLARA</t>
+  </si>
+  <si>
+    <t>MANUELA</t>
   </si>
   <si>
     <t>VELAZQUEZ</t>
@@ -1574,7 +1601,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1594,12 +1621,12 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J331" si="1">SUM(D2:H2)</f>
+        <f t="shared" ref="J2:J340" si="1">SUM(D2:H2)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1632,7 +1659,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1641,26 +1668,30 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
         <v>10000.0</v>
@@ -1677,29 +1708,29 @@
         <v>10000</v>
       </c>
       <c r="L5" s="7">
-        <v>332.0</v>
+        <v>341.0</v>
       </c>
       <c r="M5" s="8">
         <f>SUMIF(D:I,"&lt;&gt;0")</f>
-        <v>2541000</v>
+        <v>2841000</v>
       </c>
       <c r="N5" s="8">
         <v>9000000.0</v>
       </c>
       <c r="O5" s="9">
         <f>(N5-M5)*-1</f>
-        <v>-6459000</v>
+        <v>-6159000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -1713,14 +1744,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
@@ -1733,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="10">
         <v>355000.0</v>
@@ -1743,20 +1774,20 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3">
         <v>6000.0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
@@ -1777,7 +1808,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1807,7 +1838,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1837,7 +1868,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1850,13 +1881,13 @@
         <v>10000.0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3">
         <v>10000.0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
@@ -1875,7 +1906,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1888,13 +1919,13 @@
         <v>10000.0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3">
         <v>10000.0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
@@ -1902,16 +1933,25 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
+      <c r="L12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="10">
+        <v>110000.0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>46048.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
@@ -1925,20 +1965,20 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>14.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3">
         <v>10000.0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
@@ -1950,14 +1990,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>15.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3">
         <v>10000.0</v>
@@ -1975,14 +2015,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>16.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3">
         <v>10000.0</v>
@@ -2000,14 +2040,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>17.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3">
         <v>10000.0</v>
@@ -2025,20 +2065,20 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>18.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3">
         <v>10000.0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
@@ -2050,20 +2090,20 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>19.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3">
         <v>10000.0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
@@ -2075,14 +2115,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>20.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3">
         <v>10000.0</v>
@@ -2108,14 +2148,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>21.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -2129,14 +2169,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>22.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -2150,14 +2190,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>23.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -2171,14 +2211,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>24.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3">
         <v>10000.0</v>
@@ -2196,14 +2236,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>25.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3">
         <v>10000.0</v>
@@ -2221,14 +2261,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>26.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <v>10000.0</v>
@@ -2246,14 +2286,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>27.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
@@ -2267,20 +2307,20 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>28.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3">
         <v>10000.0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
@@ -2292,20 +2332,20 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>29.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3">
         <v>10000.0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
@@ -2317,14 +2357,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>30.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3">
         <v>10000.0</v>
@@ -2342,112 +2382,120 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>31.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
       <c r="J31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>32.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3">
         <v>10000.0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
       <c r="J32" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>33.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
       <c r="J33" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>34.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>35.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3">
         <v>10000.0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
@@ -2459,159 +2507,171 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>36.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
       <c r="J36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>37.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
       <c r="J37" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>38.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D38" s="3">
         <v>10000.0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
       <c r="J38" s="5">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>39.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
       <c r="J39" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>40.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>41.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J41" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>42.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5"/>
@@ -2622,39 +2682,35 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>43.0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
       <c r="J43" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>44.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3">
         <v>10000.0</v>
@@ -2672,14 +2728,14 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>45.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D45" s="3">
         <v>10000.0</v>
@@ -2697,14 +2753,14 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>46.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" s="3">
         <v>10000.0</v>
@@ -2712,49 +2768,53 @@
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
       <c r="J46" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>47.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="D47" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
       <c r="J47" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>48.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
@@ -2768,14 +2828,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>49.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
@@ -2789,45 +2849,41 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>50.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
       <c r="J50" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>51.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D51" s="3">
         <v>10000.0</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
@@ -2839,20 +2895,20 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>52.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" s="3">
         <v>10000.0</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
@@ -2864,20 +2920,20 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>53.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D53" s="3">
         <v>10000.0</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
@@ -2889,83 +2945,87 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>54.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="D54" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
       <c r="J54" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>55.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
       <c r="J55" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>56.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="D56" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
       <c r="J56" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>57.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
@@ -2977,39 +3037,35 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>58.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
       <c r="J58" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>59.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D59" s="3">
         <v>10000.0</v>
@@ -3027,14 +3083,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>60.0</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D60" s="3">
         <v>10000.0</v>
@@ -3052,14 +3108,14 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>61.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D61" s="3">
         <v>10000.0</v>
@@ -3077,14 +3133,14 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>62.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3">
         <v>10000.0</v>
@@ -3102,14 +3158,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>63.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D63" s="3">
         <v>10000.0</v>
@@ -3127,37 +3183,41 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>64.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="D64" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
       <c r="J64" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>65.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
@@ -3169,14 +3229,14 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>66.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
@@ -3190,191 +3250,187 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>67.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
       <c r="J67" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>68.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="D68" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
       <c r="J68" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>69.0</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
       <c r="J69" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>70.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D70" s="3">
         <v>10000.0</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
       <c r="J70" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>71.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D71" s="3">
         <v>10000.0</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F71" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
       <c r="J71" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>72.0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
       <c r="J72" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>73.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
       <c r="J73" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>74.0</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D74" s="3">
         <v>10000.0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
@@ -3386,35 +3442,39 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>75.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="D75" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
       <c r="J75" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>76.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
@@ -3428,17 +3488,17 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>77.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="6"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="5"/>
@@ -3449,14 +3509,14 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>78.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
@@ -3470,14 +3530,14 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>79.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
@@ -3491,72 +3551,68 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>80.0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
       <c r="J80" s="5">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2">
-        <v>81.0</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>82.0</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D82" s="3">
         <v>10000.0</v>
@@ -3574,60 +3630,60 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>83.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="D83" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="5"/>
       <c r="I83" s="6"/>
       <c r="J83" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>84.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="H84" s="5"/>
       <c r="I84" s="6"/>
       <c r="J84" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>85.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D85" s="3">
         <v>10000.0</v>
@@ -3635,103 +3691,103 @@
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="5">
         <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2">
-        <v>86.0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>87.0</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="D87" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="H87" s="5"/>
       <c r="I87" s="6"/>
       <c r="J87" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>88.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D88" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="5"/>
       <c r="I88" s="6"/>
       <c r="J88" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>89.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D89" s="3">
         <v>10000.0</v>
@@ -3749,66 +3805,66 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>90.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="D90" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="H90" s="5"/>
       <c r="I90" s="6"/>
       <c r="J90" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>91.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D91" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="H91" s="5"/>
       <c r="I91" s="6"/>
       <c r="J91" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>92.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="D92" s="3">
         <v>10000.0</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
@@ -3820,20 +3876,20 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>93.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="D93" s="3">
         <v>10000.0</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
@@ -3845,20 +3901,20 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>94.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D94" s="3">
         <v>10000.0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
@@ -3870,70 +3926,74 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>95.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D95" s="3">
         <v>10000.0</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F95" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="5"/>
       <c r="I95" s="6"/>
       <c r="J95" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>96.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="D96" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H96" s="5"/>
       <c r="I96" s="6"/>
       <c r="J96" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>97.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D97" s="3">
         <v>10000.0</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
@@ -3945,20 +4005,20 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>98.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D98" s="3">
         <v>10000.0</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
@@ -3970,81 +4030,85 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>99.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="D99" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="H99" s="5"/>
       <c r="I99" s="6"/>
       <c r="J99" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>100.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
       <c r="J100" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>101.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D101" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
       <c r="H101" s="5"/>
       <c r="I101" s="6"/>
       <c r="J101" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>102.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
@@ -4058,39 +4122,35 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>103.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="6"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
       <c r="H103" s="5"/>
       <c r="I103" s="6"/>
       <c r="J103" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>104.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D104" s="3">
         <v>10000.0</v>
@@ -4108,14 +4168,14 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>105.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D105" s="3">
         <v>10000.0</v>
@@ -4133,14 +4193,14 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>106.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="D106" s="3">
         <v>10000.0</v>
@@ -4158,14 +4218,14 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>107.0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D107" s="3">
         <v>10000.0</v>
@@ -4183,14 +4243,14 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>108.0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="D108" s="3">
         <v>10000.0</v>
@@ -4208,38 +4268,42 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>109.0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="D109" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
       <c r="H109" s="5"/>
       <c r="I109" s="6"/>
       <c r="J109" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>110.0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D110" s="5"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="6"/>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="H110" s="5"/>
@@ -4250,39 +4314,35 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>111.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D111" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6"/>
       <c r="J111" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>112.0</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D112" s="3">
         <v>10000.0</v>
@@ -4300,20 +4360,20 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>113.0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D113" s="3">
         <v>10000.0</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
@@ -4325,83 +4385,95 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>114.0</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="6"/>
+      <c r="D114" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="H114" s="5"/>
       <c r="I114" s="6"/>
       <c r="J114" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>115.0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="6"/>
+      <c r="D115" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
       <c r="H115" s="5"/>
       <c r="I115" s="6"/>
       <c r="J115" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>116.0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="D116" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
       <c r="H116" s="5"/>
       <c r="I116" s="6"/>
       <c r="J116" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>117.0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="D117" s="3">
         <v>10000.0</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
@@ -4413,20 +4485,20 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>118.0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D118" s="3">
         <v>10000.0</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
@@ -4438,66 +4510,66 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>119.0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D119" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
       <c r="H119" s="5"/>
       <c r="I119" s="6"/>
       <c r="J119" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>120.0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="D120" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="H120" s="5"/>
       <c r="I120" s="6"/>
       <c r="J120" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>121.0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="D121" s="3">
         <v>10000.0</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
@@ -4509,76 +4581,60 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>122.0</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D122" s="3">
         <v>10000.0</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="6"/>
       <c r="H122" s="5"/>
       <c r="I122" s="6"/>
       <c r="J122" s="5">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>123.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D123" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="6"/>
       <c r="J123" s="5">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>124.0</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D124" s="3">
         <v>10000.0</v>
@@ -4586,181 +4642,201 @@
       <c r="E124" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="6"/>
       <c r="J124" s="5">
         <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="5">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D126" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="5">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D125" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J125" s="5">
+    <row r="127">
+      <c r="A127" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D127" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="5">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2">
-        <v>126.0</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2">
-        <v>127.0</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D127" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="5"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="5">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
     <row r="128">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>128.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="D128" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J128" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>129.0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D129" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="6"/>
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
       <c r="H129" s="5"/>
       <c r="I129" s="6"/>
       <c r="J129" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>130.0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
       <c r="H130" s="5"/>
       <c r="I130" s="6"/>
       <c r="J130" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>131.0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="H131" s="5"/>
@@ -4771,92 +4847,84 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>132.0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D132" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="5"/>
       <c r="I132" s="6"/>
       <c r="J132" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>133.0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D133" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="6"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="5"/>
       <c r="I133" s="6"/>
       <c r="J133" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>134.0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D134" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="6"/>
       <c r="H134" s="5"/>
       <c r="I134" s="6"/>
       <c r="J134" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>135.0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D135" s="5"/>
-      <c r="E135" s="4"/>
+      <c r="E135" s="6"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="5"/>
@@ -4867,116 +4935,112 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>136.0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="D136" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
       <c r="H136" s="5"/>
       <c r="I136" s="6"/>
       <c r="J136" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>137.0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="D137" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" s="5"/>
       <c r="I137" s="6"/>
       <c r="J137" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>138.0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D138" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H138" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="6"/>
       <c r="J138" s="5">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>139.0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D139" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="4"/>
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
       <c r="H139" s="5"/>
       <c r="I139" s="6"/>
       <c r="J139" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>140.0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D140" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="D140" s="5"/>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
@@ -4988,45 +5052,53 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>141.0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="D141" s="3">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F141" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J141" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>142.0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D142" s="3">
         <v>10000.0</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
@@ -5038,99 +5110,91 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>143.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D143" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="5"/>
       <c r="I143" s="6"/>
       <c r="J143" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2">
+      <c r="A144" s="1">
         <v>144.0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="D144" s="3">
         <v>10000.0</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F144" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H144" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="6"/>
       <c r="J144" s="5">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2">
+      <c r="A145" s="1">
         <v>145.0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="D145" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="5"/>
       <c r="I145" s="6"/>
       <c r="J145" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>146.0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D146" s="3">
         <v>10000.0</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
@@ -5142,66 +5206,74 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>147.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="D147" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J147" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2">
+      <c r="A148" s="1">
         <v>148.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D148" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="6"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="H148" s="5"/>
       <c r="I148" s="6"/>
       <c r="J148" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2">
+      <c r="A149" s="1">
         <v>149.0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="D149" s="3">
         <v>10000.0</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
@@ -5213,45 +5285,41 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>150.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D150" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="5"/>
       <c r="I150" s="6"/>
       <c r="J150" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>151.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="D151" s="3">
         <v>10000.0</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
@@ -5263,20 +5331,20 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>152.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D152" s="3">
         <v>10000.0</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
@@ -5288,20 +5356,20 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>153.0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="D153" s="3">
         <v>10000.0</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
@@ -5313,14 +5381,14 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>154.0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D154" s="3">
         <v>10000.0</v>
@@ -5338,14 +5406,14 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>155.0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D155" s="3">
         <v>10000.0</v>
@@ -5363,14 +5431,14 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>156.0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="D156" s="3">
         <v>10000.0</v>
@@ -5388,41 +5456,45 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>157.0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="D157" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
       <c r="H157" s="5"/>
       <c r="I157" s="6"/>
       <c r="J157" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>158.0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D158" s="3">
         <v>10000.0</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
@@ -5434,14 +5506,14 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>159.0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D159" s="3">
         <v>10000.0</v>
@@ -5459,45 +5531,41 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>160.0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D160" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="6"/>
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
       <c r="H160" s="5"/>
       <c r="I160" s="6"/>
       <c r="J160" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>161.0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="D161" s="3">
         <v>10000.0</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
@@ -5509,14 +5577,14 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>162.0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="D162" s="3">
         <v>10000.0</v>
@@ -5524,72 +5592,104 @@
       <c r="E162" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="5"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="6"/>
+      <c r="F162" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J162" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>163.0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="D163" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J163" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>164.0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="D164" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J164" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>165.0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="D165" s="3">
         <v>10000.0</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
@@ -5601,85 +5701,81 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>166.0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D166" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="4"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="5"/>
       <c r="I166" s="6"/>
       <c r="J166" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>167.0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D167" s="3">
-        <v>15000.0</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="4"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
       <c r="H167" s="5"/>
       <c r="I167" s="6"/>
       <c r="J167" s="5">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>168.0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="D168" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
       <c r="H168" s="5"/>
       <c r="I168" s="6"/>
       <c r="J168" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2">
+      <c r="A169" s="1">
         <v>169.0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D169" s="3">
         <v>10000.0</v>
@@ -5697,17 +5793,17 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>170.0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="D170" s="3">
-        <v>10000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>13</v>
@@ -5718,24 +5814,21 @@
       <c r="I170" s="6"/>
       <c r="J170" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="K170" s="12" t="s">
-        <v>233</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2">
+      <c r="A171" s="1">
         <v>171.0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D171" s="3"/>
-      <c r="E171" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="6"/>
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
       <c r="H171" s="5"/>
@@ -5746,14 +5839,14 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2">
+      <c r="A172" s="1">
         <v>172.0</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="D172" s="3">
         <v>10000.0</v>
@@ -5771,14 +5864,14 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2">
+      <c r="A173" s="1">
         <v>173.0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D173" s="3">
         <v>10000.0</v>
@@ -5794,19 +5887,22 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
+      <c r="K173" s="12" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="2">
+      <c r="A174" s="1">
         <v>174.0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="4"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="H174" s="5"/>
@@ -5817,59 +5913,67 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2">
+      <c r="A175" s="1">
         <v>175.0</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="D175" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="H175" s="5"/>
       <c r="I175" s="6"/>
       <c r="J175" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2">
+      <c r="A176" s="1">
         <v>176.0</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="D176" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
       <c r="H176" s="5"/>
       <c r="I176" s="6"/>
       <c r="J176" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2">
+      <c r="A177" s="1">
         <v>177.0</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="D177" s="5"/>
-      <c r="E177" s="4"/>
+      <c r="E177" s="6"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
       <c r="H177" s="5"/>
@@ -5880,124 +5984,108 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2">
+      <c r="A178" s="1">
         <v>178.0</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D178" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="6"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="H178" s="5"/>
       <c r="I178" s="6"/>
       <c r="J178" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2">
+      <c r="A179" s="1">
         <v>179.0</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D179" s="3">
-        <v>50000.0</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="6"/>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="H179" s="5"/>
       <c r="I179" s="6"/>
       <c r="J179" s="5">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2">
+      <c r="A180" s="1">
         <v>180.0</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D180" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="H180" s="5"/>
       <c r="I180" s="6"/>
       <c r="J180" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2">
+      <c r="A181" s="1">
         <v>181.0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="D181" s="3">
         <v>10000.0</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F181" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F181" s="5"/>
+      <c r="G181" s="6"/>
       <c r="H181" s="5"/>
       <c r="I181" s="6"/>
       <c r="J181" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2">
+      <c r="A182" s="1">
         <v>182.0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D182" s="3">
-        <v>10000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
@@ -6005,18 +6093,18 @@
       <c r="I182" s="6"/>
       <c r="J182" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2">
+      <c r="A183" s="1">
         <v>183.0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D183" s="3">
         <v>10000.0</v>
@@ -6034,26 +6122,26 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2">
+      <c r="A184" s="1">
         <v>184.0</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D184" s="3">
         <v>10000.0</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F184" s="3">
         <v>10000.0</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="6"/>
@@ -6063,20 +6151,20 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2">
+      <c r="A185" s="1">
         <v>185.0</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D185" s="3">
         <v>10000.0</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
@@ -6088,108 +6176,124 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2">
+      <c r="A186" s="1">
         <v>186.0</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="D186" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
       <c r="H186" s="5"/>
       <c r="I186" s="6"/>
       <c r="J186" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2">
+      <c r="A187" s="1">
         <v>187.0</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="D187" s="3">
         <v>10000.0</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F187" s="5"/>
-      <c r="G187" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F187" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H187" s="5"/>
       <c r="I187" s="6"/>
       <c r="J187" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2">
+      <c r="A188" s="1">
         <v>188.0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D188" s="5"/>
-      <c r="E188" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="D188" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
       <c r="H188" s="5"/>
       <c r="I188" s="6"/>
       <c r="J188" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2">
+      <c r="A189" s="1">
         <v>189.0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="4"/>
+      <c r="D189" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
       <c r="H189" s="5"/>
       <c r="I189" s="6"/>
       <c r="J189" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2">
+      <c r="A190" s="1">
         <v>190.0</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="D190" s="3">
         <v>10000.0</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
@@ -6201,63 +6305,63 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2">
+      <c r="A191" s="1">
         <v>191.0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D191" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="4"/>
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
       <c r="H191" s="5"/>
       <c r="I191" s="6"/>
       <c r="J191" s="5">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2">
+      <c r="A192" s="1">
         <v>192.0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="D192" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6"/>
       <c r="J192" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2">
+      <c r="A193" s="1">
         <v>193.0</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D193" s="3"/>
-      <c r="E193" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="6"/>
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
       <c r="H193" s="5"/>
@@ -6268,20 +6372,20 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2">
+      <c r="A194" s="1">
         <v>194.0</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="D194" s="3">
         <v>10000.0</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
@@ -6293,20 +6397,20 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2">
+      <c r="A195" s="1">
         <v>195.0</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="D195" s="3">
         <v>10000.0</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
@@ -6318,17 +6422,17 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2">
+      <c r="A196" s="1">
         <v>196.0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="D196" s="3">
-        <v>20000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>13</v>
@@ -6339,95 +6443,91 @@
       <c r="I196" s="6"/>
       <c r="J196" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2">
+      <c r="A197" s="1">
         <v>197.0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D197" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="6"/>
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6"/>
       <c r="J197" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2">
+      <c r="A198" s="1">
         <v>198.0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D198" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="4"/>
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
       <c r="H198" s="5"/>
       <c r="I198" s="6"/>
       <c r="J198" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2">
+      <c r="A199" s="1">
         <v>199.0</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="D199" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
       <c r="H199" s="5"/>
       <c r="I199" s="6"/>
       <c r="J199" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2">
+      <c r="A200" s="1">
         <v>200.0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="D200" s="3">
         <v>10000.0</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
@@ -6439,38 +6539,42 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2">
+      <c r="A201" s="1">
         <v>201.0</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="D201" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
       <c r="H201" s="5"/>
       <c r="I201" s="6"/>
       <c r="J201" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2">
+      <c r="A202" s="1">
         <v>202.0</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D202" s="3">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>13</v>
@@ -6481,45 +6585,49 @@
       <c r="I202" s="6"/>
       <c r="J202" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2">
+      <c r="A203" s="1">
         <v>203.0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D203" s="5"/>
-      <c r="E203" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="D203" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6"/>
       <c r="J203" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2">
+      <c r="A204" s="1">
         <v>204.0</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="D204" s="3">
         <v>10000.0</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
@@ -6531,66 +6639,66 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2">
+      <c r="A205" s="1">
         <v>205.0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D205" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="6"/>
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
       <c r="H205" s="5"/>
       <c r="I205" s="6"/>
       <c r="J205" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2">
+      <c r="A206" s="1">
         <v>206.0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="6"/>
+      <c r="D206" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F206" s="5"/>
       <c r="G206" s="6"/>
       <c r="H206" s="5"/>
       <c r="I206" s="6"/>
       <c r="J206" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2">
+      <c r="A207" s="1">
         <v>207.0</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="D207" s="3">
         <v>10000.0</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
@@ -6602,38 +6710,42 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2">
+      <c r="A208" s="1">
         <v>208.0</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D208" s="5"/>
-      <c r="E208" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="D208" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F208" s="5"/>
       <c r="G208" s="6"/>
       <c r="H208" s="5"/>
       <c r="I208" s="6"/>
       <c r="J208" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2">
+      <c r="A209" s="1">
         <v>209.0</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="D209" s="5"/>
-      <c r="E209" s="6"/>
+      <c r="E209" s="4"/>
       <c r="F209" s="5"/>
       <c r="G209" s="6"/>
       <c r="H209" s="5"/>
@@ -6644,62 +6756,70 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2">
+      <c r="A210" s="1">
         <v>210.0</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D210" s="5"/>
-      <c r="E210" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="D210" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
       <c r="H210" s="5"/>
       <c r="I210" s="6"/>
       <c r="J210" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2">
+      <c r="A211" s="1">
         <v>211.0</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D211" s="5"/>
-      <c r="E211" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="D211" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
       <c r="H211" s="5"/>
       <c r="I211" s="6"/>
       <c r="J211" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2">
+      <c r="A212" s="1">
         <v>212.0</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D212" s="3">
         <v>10000.0</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="6"/>
@@ -6711,38 +6831,42 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2">
+      <c r="A213" s="1">
         <v>213.0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="D213" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F213" s="5"/>
       <c r="G213" s="6"/>
       <c r="H213" s="5"/>
       <c r="I213" s="6"/>
       <c r="J213" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2">
+      <c r="A214" s="1">
         <v>214.0</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D214" s="5"/>
-      <c r="E214" s="4"/>
+      <c r="E214" s="6"/>
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
       <c r="H214" s="5"/>
@@ -6753,17 +6877,17 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2">
+      <c r="A215" s="1">
         <v>215.0</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D215" s="5"/>
-      <c r="E215" s="4"/>
+      <c r="E215" s="6"/>
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
       <c r="H215" s="5"/>
@@ -6774,88 +6898,84 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2">
+      <c r="A216" s="1">
         <v>216.0</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D216" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D216" s="5"/>
+      <c r="E216" s="6"/>
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
       <c r="H216" s="5"/>
       <c r="I216" s="6"/>
       <c r="J216" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2">
+      <c r="A217" s="1">
         <v>217.0</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D217" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="6"/>
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
       <c r="H217" s="5"/>
       <c r="I217" s="6"/>
       <c r="J217" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2">
+      <c r="A218" s="1">
         <v>218.0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D218" s="3"/>
-      <c r="E218" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="D218" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F218" s="5"/>
       <c r="G218" s="6"/>
       <c r="H218" s="5"/>
       <c r="I218" s="6"/>
       <c r="J218" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2">
+      <c r="A219" s="1">
         <v>219.0</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D219" s="5"/>
-      <c r="E219" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="4"/>
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
       <c r="H219" s="5"/>
@@ -6866,17 +6986,17 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2">
+      <c r="A220" s="1">
         <v>220.0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D220" s="5"/>
-      <c r="E220" s="6"/>
+      <c r="E220" s="4"/>
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
       <c r="H220" s="5"/>
@@ -6887,17 +7007,17 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2">
+      <c r="A221" s="1">
         <v>221.0</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D221" s="5"/>
-      <c r="E221" s="6"/>
+      <c r="E221" s="4"/>
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
       <c r="H221" s="5"/>
@@ -6908,20 +7028,20 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2">
+      <c r="A222" s="1">
         <v>222.0</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D222" s="3">
         <v>10000.0</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
@@ -6933,35 +7053,39 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2">
+      <c r="A223" s="1">
         <v>223.0</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D223" s="3"/>
-      <c r="E223" s="4"/>
+        <v>285</v>
+      </c>
+      <c r="D223" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
       <c r="H223" s="5"/>
       <c r="I223" s="6"/>
       <c r="J223" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2">
+      <c r="A224" s="1">
         <v>224.0</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="4"/>
@@ -6975,17 +7099,17 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2">
+      <c r="A225" s="1">
         <v>225.0</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D225" s="3"/>
-      <c r="E225" s="4"/>
+        <v>288</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="6"/>
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
       <c r="H225" s="5"/>
@@ -6996,14 +7120,14 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2">
+      <c r="A226" s="1">
         <v>226.0</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="6"/>
@@ -7017,14 +7141,14 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2">
+      <c r="A227" s="1">
         <v>227.0</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="6"/>
@@ -7038,38 +7162,42 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2">
+      <c r="A228" s="1">
         <v>228.0</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D228" s="5"/>
-      <c r="E228" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="D228" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
       <c r="H228" s="5"/>
       <c r="I228" s="6"/>
       <c r="J228" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2">
+      <c r="A229" s="1">
         <v>229.0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D229" s="5"/>
-      <c r="E229" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229" s="4"/>
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
       <c r="H229" s="5"/>
@@ -7080,75 +7208,59 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2">
+      <c r="A230" s="1">
         <v>230.0</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C230" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F230" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H230" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I230" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J230" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2">
-        <v>231.0</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D231" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" s="4"/>
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
       <c r="H231" s="5"/>
       <c r="I231" s="6"/>
       <c r="J231" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2">
+      <c r="A232" s="1">
         <v>232.0</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="D232" s="5"/>
-      <c r="E232" s="4"/>
+      <c r="E232" s="6"/>
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
       <c r="H232" s="5"/>
@@ -7159,39 +7271,35 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2">
+      <c r="A233" s="1">
         <v>233.0</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D233" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D233" s="5"/>
+      <c r="E233" s="6"/>
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
       <c r="H233" s="5"/>
       <c r="I233" s="6"/>
       <c r="J233" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2">
+      <c r="A234" s="1">
         <v>234.0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="6"/>
@@ -7205,14 +7313,14 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2">
+      <c r="A235" s="1">
         <v>235.0</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="6"/>
@@ -7226,41 +7334,53 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2">
+      <c r="A236" s="1">
         <v>236.0</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="6"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="D236" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F236" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J236" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2">
+      <c r="A237" s="1">
         <v>237.0</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="D237" s="3">
         <v>10000.0</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
@@ -7272,63 +7392,63 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2">
+      <c r="A238" s="1">
         <v>238.0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D238" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="4"/>
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
       <c r="H238" s="5"/>
       <c r="I238" s="6"/>
       <c r="J238" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2">
+      <c r="A239" s="1">
         <v>239.0</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D239" s="5"/>
-      <c r="E239" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="D239" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
       <c r="H239" s="5"/>
       <c r="I239" s="6"/>
       <c r="J239" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2">
+      <c r="A240" s="1">
         <v>240.0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="D240" s="5"/>
-      <c r="E240" s="4"/>
+      <c r="E240" s="6"/>
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
       <c r="H240" s="5"/>
@@ -7339,91 +7459,87 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2">
+      <c r="A241" s="1">
         <v>241.0</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D241" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="6"/>
       <c r="F241" s="5"/>
       <c r="G241" s="6"/>
       <c r="H241" s="5"/>
       <c r="I241" s="6"/>
       <c r="J241" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2">
+      <c r="A242" s="1">
         <v>242.0</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D242" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="6"/>
       <c r="F242" s="5"/>
       <c r="G242" s="6"/>
       <c r="H242" s="5"/>
       <c r="I242" s="6"/>
       <c r="J242" s="5">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2">
+      <c r="A243" s="1">
         <v>243.0</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D243" s="5"/>
-      <c r="E243" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="D243" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F243" s="5"/>
       <c r="G243" s="6"/>
       <c r="H243" s="5"/>
       <c r="I243" s="6"/>
       <c r="J243" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2">
+      <c r="A244" s="1">
         <v>244.0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D244" s="3">
         <v>10000.0</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="6"/>
@@ -7435,70 +7551,62 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2">
+      <c r="A245" s="1">
         <v>245.0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D245" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D245" s="5"/>
+      <c r="E245" s="6"/>
       <c r="F245" s="5"/>
       <c r="G245" s="6"/>
       <c r="H245" s="5"/>
       <c r="I245" s="6"/>
       <c r="J245" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2">
+      <c r="A246" s="1">
         <v>246.0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D246" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="4"/>
       <c r="F246" s="5"/>
       <c r="G246" s="6"/>
       <c r="H246" s="5"/>
       <c r="I246" s="6"/>
       <c r="J246" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2">
+      <c r="A247" s="1">
         <v>247.0</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="D247" s="3">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
@@ -7506,21 +7614,21 @@
       <c r="I247" s="6"/>
       <c r="J247" s="5">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2">
+      <c r="A248" s="1">
         <v>248.0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="D248" s="3">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>13</v>
@@ -7531,329 +7639,321 @@
       <c r="I248" s="6"/>
       <c r="J248" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2">
+      <c r="A249" s="1">
         <v>249.0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D249" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D249" s="5"/>
+      <c r="E249" s="6"/>
       <c r="F249" s="5"/>
       <c r="G249" s="6"/>
       <c r="H249" s="5"/>
       <c r="I249" s="6"/>
       <c r="J249" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2">
+      <c r="A250" s="1">
         <v>250.0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D250" s="5"/>
-      <c r="E250" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="D250" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
       <c r="H250" s="5"/>
       <c r="I250" s="6"/>
       <c r="J250" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2">
+      <c r="A251" s="1">
         <v>251.0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D251" s="5"/>
-      <c r="E251" s="6"/>
+      <c r="D251" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
       <c r="H251" s="5"/>
       <c r="I251" s="6"/>
       <c r="J251" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2">
+      <c r="A252" s="1">
         <v>252.0</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D252" s="5"/>
-      <c r="E252" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="D252" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F252" s="5"/>
       <c r="G252" s="6"/>
       <c r="H252" s="5"/>
       <c r="I252" s="6"/>
       <c r="J252" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2">
+      <c r="A253" s="1">
         <v>253.0</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D253" s="5"/>
-      <c r="E253" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="D253" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F253" s="5"/>
       <c r="G253" s="6"/>
       <c r="H253" s="5"/>
       <c r="I253" s="6"/>
       <c r="J253" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2">
+      <c r="A254" s="1">
         <v>254.0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D254" s="5"/>
-      <c r="E254" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D254" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F254" s="5"/>
       <c r="G254" s="6"/>
       <c r="H254" s="5"/>
       <c r="I254" s="6"/>
       <c r="J254" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2">
+      <c r="A255" s="1">
         <v>255.0</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D255" s="5"/>
-      <c r="E255" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="D255" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F255" s="5"/>
       <c r="G255" s="6"/>
       <c r="H255" s="5"/>
       <c r="I255" s="6"/>
       <c r="J255" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2">
+      <c r="A256" s="1">
         <v>256.0</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D256" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="6"/>
       <c r="F256" s="5"/>
       <c r="G256" s="6"/>
       <c r="H256" s="5"/>
       <c r="I256" s="6"/>
       <c r="J256" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2">
+      <c r="A257" s="1">
         <v>257.0</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D257" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="6"/>
       <c r="F257" s="5"/>
       <c r="G257" s="6"/>
       <c r="H257" s="5"/>
       <c r="I257" s="6"/>
       <c r="J257" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2">
+      <c r="A258" s="1">
         <v>258.0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D258" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="4"/>
       <c r="F258" s="5"/>
       <c r="G258" s="6"/>
       <c r="H258" s="5"/>
       <c r="I258" s="6"/>
       <c r="J258" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2">
+      <c r="A259" s="1">
         <v>259.0</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D259" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="4"/>
       <c r="F259" s="5"/>
       <c r="G259" s="6"/>
       <c r="H259" s="5"/>
       <c r="I259" s="6"/>
       <c r="J259" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2">
+      <c r="A260" s="1">
         <v>260.0</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D260" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F260" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G260" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="6"/>
       <c r="H260" s="5"/>
       <c r="I260" s="6"/>
       <c r="J260" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2">
+      <c r="A261" s="1">
         <v>261.0</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D261" s="3">
-        <v>15000.0</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="4"/>
       <c r="F261" s="5"/>
       <c r="G261" s="6"/>
       <c r="H261" s="5"/>
       <c r="I261" s="6"/>
       <c r="J261" s="5">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2">
+      <c r="A262" s="1">
         <v>262.0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D262" s="3">
         <v>10000.0</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="6"/>
@@ -7865,120 +7965,124 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2">
+      <c r="A263" s="1">
         <v>263.0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="D263" s="3">
         <v>10000.0</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F263" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G263" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F263" s="5"/>
+      <c r="G263" s="6"/>
       <c r="H263" s="5"/>
       <c r="I263" s="6"/>
       <c r="J263" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2">
+      <c r="A264" s="1">
         <v>264.0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D264" s="5"/>
-      <c r="E264" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="D264" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F264" s="5"/>
       <c r="G264" s="6"/>
       <c r="H264" s="5"/>
       <c r="I264" s="6"/>
       <c r="J264" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2">
+      <c r="A265" s="1">
         <v>265.0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D265" s="3">
         <v>10000.0</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F265" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F265" s="5"/>
+      <c r="G265" s="6"/>
       <c r="H265" s="5"/>
       <c r="I265" s="6"/>
       <c r="J265" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2">
+      <c r="A266" s="1">
         <v>266.0</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D266" s="5"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="6"/>
+        <v>325</v>
+      </c>
+      <c r="D266" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H266" s="5"/>
       <c r="I266" s="6"/>
       <c r="J266" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2">
+      <c r="A267" s="1">
         <v>267.0</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="D267" s="3">
-        <v>10000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F267" s="5"/>
       <c r="G267" s="6"/>
@@ -7986,18 +8090,18 @@
       <c r="I267" s="6"/>
       <c r="J267" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2">
+      <c r="A268" s="1">
         <v>268.0</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>324</v>
+        <v>134</v>
       </c>
       <c r="D268" s="3">
         <v>10000.0</v>
@@ -8005,179 +8109,151 @@
       <c r="E268" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F268" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G268" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H268" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I268" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F268" s="5"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="6"/>
       <c r="J268" s="5">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2">
+      <c r="A269" s="1">
         <v>269.0</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="D269" s="3">
         <v>10000.0</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F269" s="5"/>
-      <c r="G269" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F269" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H269" s="5"/>
       <c r="I269" s="6"/>
       <c r="J269" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2">
+      <c r="A270" s="1">
         <v>270.0</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>271.0</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>272.0</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C272" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D270" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F270" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G270" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H270" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I270" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J270" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2">
-        <v>271.0</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D271" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H271" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I271" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J271" s="5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2">
-        <v>272.0</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D272" s="3">
         <v>10000.0</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F272" s="5"/>
-      <c r="G272" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F272" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H272" s="5"/>
       <c r="I272" s="6"/>
       <c r="J272" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2">
+      <c r="A273" s="1">
         <v>273.0</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D273" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="6"/>
       <c r="F273" s="5"/>
       <c r="G273" s="6"/>
       <c r="H273" s="5"/>
       <c r="I273" s="6"/>
       <c r="J273" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2">
+      <c r="A274" s="1">
         <v>274.0</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="D274" s="3">
         <v>10000.0</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="6"/>
@@ -8189,11 +8265,11 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2">
+      <c r="A275" s="1">
         <v>275.0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>331</v>
@@ -8204,24 +8280,32 @@
       <c r="E275" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F275" s="5"/>
-      <c r="G275" s="6"/>
-      <c r="H275" s="5"/>
-      <c r="I275" s="6"/>
+      <c r="F275" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H275" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I275" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J275" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2">
+      <c r="A276" s="1">
         <v>276.0</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D276" s="3">
         <v>10000.0</v>
@@ -8239,70 +8323,86 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2">
+      <c r="A277" s="1">
         <v>277.0</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D277" s="3">
         <v>10000.0</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F277" s="3">
         <v>10000.0</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H277" s="5"/>
-      <c r="I277" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="H277" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J277" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2">
+      <c r="A278" s="1">
         <v>278.0</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D278" s="5"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="5"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="5"/>
-      <c r="I278" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="D278" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J278" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2">
+      <c r="A279" s="1">
         <v>279.0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="D279" s="3">
         <v>10000.0</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F279" s="5"/>
       <c r="G279" s="6"/>
@@ -8314,53 +8414,45 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2">
+      <c r="A280" s="1">
         <v>280.0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="D280" s="3">
         <v>10000.0</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F280" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H280" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I280" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F280" s="5"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="6"/>
       <c r="J280" s="5">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2">
+      <c r="A281" s="1">
         <v>281.0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="D281" s="3">
         <v>10000.0</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F281" s="5"/>
       <c r="G281" s="6"/>
@@ -8372,49 +8464,45 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2">
+      <c r="A282" s="1">
         <v>282.0</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>201</v>
+        <v>338</v>
       </c>
       <c r="D282" s="3">
         <v>10000.0</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F282" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F282" s="5"/>
+      <c r="G282" s="6"/>
       <c r="H282" s="5"/>
       <c r="I282" s="6"/>
       <c r="J282" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2">
+      <c r="A283" s="1">
         <v>283.0</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="D283" s="3">
         <v>10000.0</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F283" s="5"/>
       <c r="G283" s="6"/>
@@ -8426,66 +8514,70 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2">
+      <c r="A284" s="1">
         <v>284.0</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D284" s="5"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="5"/>
-      <c r="G284" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="D284" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F284" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H284" s="5"/>
       <c r="I284" s="6"/>
       <c r="J284" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2">
+      <c r="A285" s="1">
         <v>285.0</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D285" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="4"/>
       <c r="F285" s="5"/>
       <c r="G285" s="6"/>
       <c r="H285" s="5"/>
       <c r="I285" s="6"/>
       <c r="J285" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2">
+      <c r="A286" s="1">
         <v>286.0</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="D286" s="3">
         <v>10000.0</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="6"/>
@@ -8497,91 +8589,107 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2">
+      <c r="A287" s="1">
         <v>287.0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D287" s="5"/>
-      <c r="E287" s="6"/>
-      <c r="F287" s="5"/>
-      <c r="G287" s="6"/>
-      <c r="H287" s="5"/>
-      <c r="I287" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="D287" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H287" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I287" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J287" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2">
+      <c r="A288" s="1">
         <v>288.0</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D288" s="5"/>
-      <c r="E288" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="D288" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F288" s="5"/>
       <c r="G288" s="6"/>
       <c r="H288" s="5"/>
       <c r="I288" s="6"/>
       <c r="J288" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2">
+      <c r="A289" s="1">
         <v>289.0</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="D289" s="3">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F289" s="3">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H289" s="5"/>
       <c r="I289" s="6"/>
       <c r="J289" s="5">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2">
+      <c r="A290" s="1">
         <v>290.0</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="D290" s="3">
         <v>10000.0</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="6"/>
@@ -8593,39 +8701,35 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2">
+      <c r="A291" s="1">
         <v>291.0</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D291" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="6"/>
       <c r="F291" s="5"/>
       <c r="G291" s="6"/>
       <c r="H291" s="5"/>
       <c r="I291" s="6"/>
       <c r="J291" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2">
+      <c r="A292" s="1">
         <v>293.0</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="D292" s="3">
         <v>10000.0</v>
@@ -8643,14 +8747,14 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2">
+      <c r="A293" s="1">
         <v>294.0</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="D293" s="3">
         <v>10000.0</v>
@@ -8668,169 +8772,185 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2">
+      <c r="A294" s="1">
         <v>295.0</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D294" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E294" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D294" s="5"/>
+      <c r="E294" s="6"/>
       <c r="F294" s="5"/>
       <c r="G294" s="6"/>
       <c r="H294" s="5"/>
       <c r="I294" s="6"/>
       <c r="J294" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2">
+      <c r="A295" s="1">
         <v>296.0</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D295" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="6"/>
       <c r="F295" s="5"/>
       <c r="G295" s="6"/>
       <c r="H295" s="5"/>
       <c r="I295" s="6"/>
       <c r="J295" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2">
+      <c r="A296" s="1">
         <v>297.0</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D296" s="5"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="5"/>
-      <c r="G296" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="D296" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H296" s="5"/>
       <c r="I296" s="6"/>
       <c r="J296" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2">
+      <c r="A297" s="1">
         <v>298.0</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D297" s="5"/>
-      <c r="E297" s="6"/>
+        <v>351</v>
+      </c>
+      <c r="D297" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F297" s="5"/>
       <c r="G297" s="6"/>
       <c r="H297" s="5"/>
       <c r="I297" s="6"/>
       <c r="J297" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2">
+      <c r="A298" s="1">
         <v>299.0</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D298" s="5"/>
-      <c r="E298" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="D298" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F298" s="5"/>
       <c r="G298" s="6"/>
       <c r="H298" s="5"/>
       <c r="I298" s="6"/>
       <c r="J298" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2">
+      <c r="A299" s="1">
         <v>300.0</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D299" s="5"/>
-      <c r="E299" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="D299" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F299" s="5"/>
       <c r="G299" s="6"/>
       <c r="H299" s="5"/>
       <c r="I299" s="6"/>
       <c r="J299" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2">
+      <c r="A300" s="1">
         <v>301.0</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D300" s="5"/>
-      <c r="E300" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="D300" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F300" s="5"/>
       <c r="G300" s="6"/>
       <c r="H300" s="5"/>
       <c r="I300" s="6"/>
       <c r="J300" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2">
+      <c r="A301" s="1">
         <v>302.0</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="D301" s="3">
         <v>10000.0</v>
@@ -8848,80 +8968,92 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2">
+      <c r="A302" s="1">
         <v>303.0</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D302" s="5"/>
-      <c r="E302" s="6"/>
+        <v>356</v>
+      </c>
+      <c r="D302" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F302" s="5"/>
       <c r="G302" s="6"/>
       <c r="H302" s="5"/>
       <c r="I302" s="6"/>
       <c r="J302" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2">
+      <c r="A303" s="1">
         <v>304.0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D303" s="5"/>
-      <c r="E303" s="6"/>
+        <v>357</v>
+      </c>
+      <c r="D303" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F303" s="5"/>
       <c r="G303" s="6"/>
       <c r="H303" s="5"/>
       <c r="I303" s="6"/>
       <c r="J303" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2">
+      <c r="A304" s="1">
         <v>305.0</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D304" s="5"/>
-      <c r="E304" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="D304" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F304" s="5"/>
       <c r="G304" s="6"/>
       <c r="H304" s="5"/>
       <c r="I304" s="6"/>
       <c r="J304" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2">
+      <c r="A305" s="1">
         <v>306.0</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="D305" s="5"/>
-      <c r="E305" s="6"/>
+      <c r="E305" s="4"/>
       <c r="F305" s="5"/>
       <c r="G305" s="6"/>
       <c r="H305" s="5"/>
@@ -8932,14 +9064,14 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2">
+      <c r="A306" s="1">
         <v>307.0</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="4"/>
@@ -8953,45 +9085,41 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2">
+      <c r="A307" s="1">
         <v>308.0</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D307" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="4"/>
       <c r="F307" s="5"/>
       <c r="G307" s="6"/>
       <c r="H307" s="5"/>
       <c r="I307" s="6"/>
       <c r="J307" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2">
+      <c r="A308" s="1">
         <v>309.0</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>358</v>
+        <v>46</v>
       </c>
       <c r="D308" s="3">
         <v>10000.0</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="6"/>
@@ -9003,20 +9131,20 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2">
+      <c r="A309" s="1">
         <v>310.0</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="D309" s="3">
         <v>10000.0</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F309" s="5"/>
       <c r="G309" s="6"/>
@@ -9028,20 +9156,20 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2">
+      <c r="A310" s="1">
         <v>311.0</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="D310" s="3">
         <v>10000.0</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F310" s="5"/>
       <c r="G310" s="6"/>
@@ -9053,20 +9181,20 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2">
+      <c r="A311" s="1">
         <v>312.0</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>359</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="D311" s="3">
         <v>10000.0</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F311" s="5"/>
       <c r="G311" s="6"/>
@@ -9078,70 +9206,62 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2">
+      <c r="A312" s="1">
         <v>313.0</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D312" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D312" s="5"/>
+      <c r="E312" s="6"/>
       <c r="F312" s="5"/>
       <c r="G312" s="6"/>
       <c r="H312" s="5"/>
       <c r="I312" s="6"/>
       <c r="J312" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2">
+      <c r="A313" s="1">
         <v>314.0</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D313" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="4"/>
       <c r="F313" s="5"/>
       <c r="G313" s="6"/>
       <c r="H313" s="5"/>
       <c r="I313" s="6"/>
       <c r="J313" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2">
+      <c r="A314" s="1">
         <v>315.0</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="D314" s="3">
         <v>10000.0</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="6"/>
@@ -9153,7 +9273,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2">
+      <c r="A315" s="1">
         <v>316.0</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -9166,7 +9286,7 @@
         <v>10000.0</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F315" s="5"/>
       <c r="G315" s="6"/>
@@ -9178,20 +9298,20 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2">
+      <c r="A316" s="1">
         <v>317.0</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D316" s="3">
         <v>10000.0</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F316" s="5"/>
       <c r="G316" s="6"/>
@@ -9203,20 +9323,20 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2">
+      <c r="A317" s="1">
         <v>318.0</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>367</v>
+        <v>72</v>
       </c>
       <c r="D317" s="3">
         <v>10000.0</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F317" s="5"/>
       <c r="G317" s="6"/>
@@ -9228,35 +9348,39 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2">
+      <c r="A318" s="1">
         <v>319.0</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D318" s="5"/>
-      <c r="E318" s="6"/>
+        <v>367</v>
+      </c>
+      <c r="D318" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F318" s="5"/>
       <c r="G318" s="6"/>
       <c r="H318" s="5"/>
       <c r="I318" s="6"/>
       <c r="J318" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2">
+      <c r="A319" s="1">
         <v>320.0</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D319" s="3">
         <v>10000.0</v>
@@ -9274,41 +9398,45 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2">
+      <c r="A320" s="1">
         <v>321.0</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C320" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D320" s="5"/>
-      <c r="E320" s="4"/>
+      <c r="D320" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F320" s="5"/>
       <c r="G320" s="6"/>
       <c r="H320" s="5"/>
       <c r="I320" s="6"/>
       <c r="J320" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2">
+      <c r="A321" s="1">
         <v>322.0</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="D321" s="3">
         <v>10000.0</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F321" s="5"/>
       <c r="G321" s="6"/>
@@ -9320,11 +9448,11 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2">
+      <c r="A322" s="1">
         <v>323.0</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>372</v>
@@ -9333,40 +9461,32 @@
         <v>10000.0</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F322" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G322" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H322" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I322" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F322" s="5"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="6"/>
       <c r="J322" s="5">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2">
+      <c r="A323" s="1">
         <v>324.0</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="D323" s="3">
         <v>10000.0</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="6"/>
@@ -9378,35 +9498,39 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2">
+      <c r="A324" s="1">
         <v>325.0</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D324" s="5"/>
-      <c r="E324" s="4"/>
+        <v>374</v>
+      </c>
+      <c r="D324" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F324" s="5"/>
       <c r="G324" s="6"/>
       <c r="H324" s="5"/>
       <c r="I324" s="6"/>
       <c r="J324" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2">
+      <c r="A325" s="1">
         <v>326.0</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="6"/>
@@ -9420,32 +9544,36 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2">
+      <c r="A326" s="1">
         <v>327.0</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D326" s="5"/>
-      <c r="E326" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="D326" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F326" s="5"/>
       <c r="G326" s="6"/>
       <c r="H326" s="5"/>
       <c r="I326" s="6"/>
       <c r="J326" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2">
+      <c r="A327" s="1">
         <v>328.0</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>378</v>
@@ -9462,78 +9590,94 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2">
+      <c r="A328" s="1">
         <v>329.0</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D328" s="5"/>
-      <c r="E328" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="D328" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F328" s="5"/>
       <c r="G328" s="6"/>
       <c r="H328" s="5"/>
       <c r="I328" s="6"/>
       <c r="J328" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2">
+      <c r="A329" s="1">
         <v>330.0</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>120</v>
+        <v>379</v>
       </c>
       <c r="D329" s="3">
         <v>10000.0</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F329" s="5"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="5"/>
-      <c r="I329" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F329" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H329" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J329" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2">
+      <c r="A330" s="1">
         <v>331.0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D330" s="5"/>
-      <c r="E330" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="D330" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F330" s="5"/>
       <c r="G330" s="6"/>
       <c r="H330" s="5"/>
       <c r="I330" s="6"/>
       <c r="J330" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2">
+      <c r="A331" s="1">
         <v>332.0</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>380</v>
@@ -9549,34 +9693,235 @@
         <v>0</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>333.0</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D332" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F332" s="5"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="6"/>
+      <c r="J332" s="5">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>334.0</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D333" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F333" s="5"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="6"/>
+      <c r="J333" s="5">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>335.0</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D334" s="5"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="6"/>
+      <c r="J334" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>336.0</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D335" s="5"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="6"/>
+      <c r="J335" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>337.0</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D336" s="5"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>338.0</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D337" s="5"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="6"/>
+      <c r="J337" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>339.0</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D338" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F338" s="5"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="6"/>
+      <c r="J338" s="5">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>340.0</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D339" s="5"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="6"/>
+      <c r="J339" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>341.0</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D340" s="5"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="6"/>
+      <c r="J340" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$B$1:$AG$1023">
     <sortState ref="B1:AG1023">
       <sortCondition ref="B1:B1023"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D331 F2:F331 H2:H331">
+  <conditionalFormatting sqref="D2:D340 F2:F340 H2:H340">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D331 F2:F331 H2:H331">
+  <conditionalFormatting sqref="D2:D340 F2:F340 H2:H340">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D331 F2:F331 H2:H331">
+  <conditionalFormatting sqref="D2:D340 F2:F340 H2:H340">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J331">
+  <conditionalFormatting sqref="J2:J340">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>0</formula>
       <formula>9999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J331">
+  <conditionalFormatting sqref="J2:J340">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>10000</formula>
       <formula>29999</formula>
@@ -9605,14 +9950,14 @@
       <formula>30000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J20 J68 J73 J110:J112 J124:J125 J130 J213 J249:J253 J260:J270 J301">
+  <conditionalFormatting sqref="J2:J20 J40 J68 J73 J80:J85 J110:J112 J124:J148 J160:J169 J181 J213 J235 J249:J253 J260:J296 J301 J328">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
       <formula>30000</formula>
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E331 G2:G331 I2:I331">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E340 G2:G340 I2:I340">
       <formula1>"Efectivo,Transferencia"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="390">
   <si>
     <t>Apellido</t>
   </si>
@@ -72,31 +72,40 @@
     <t>Efectivo</t>
   </si>
   <si>
+    <t>1er entrega Efvo</t>
+  </si>
+  <si>
     <t>ALDERETE</t>
   </si>
   <si>
     <t>FIAMA</t>
   </si>
   <si>
+    <t>2da entrega Efvo</t>
+  </si>
+  <si>
     <t>ALFONSO</t>
   </si>
   <si>
     <t>MARIA ESTER</t>
   </si>
   <si>
+    <t>3ra entrega Efvo</t>
+  </si>
+  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
     <t>MARIANA</t>
   </si>
   <si>
-    <t>1er entrega Efvo</t>
+    <t>4ta entrega Efvo</t>
   </si>
   <si>
     <t>CELESTINA</t>
   </si>
   <si>
-    <t>2da entrega Efvo</t>
+    <t>5ta entrega Efvo</t>
   </si>
   <si>
     <t>AMARILLA</t>
@@ -105,7 +114,7 @@
     <t>SANTINO</t>
   </si>
   <si>
-    <t>3ra entrega Efvo</t>
+    <t>6ta entrega Efvo</t>
   </si>
   <si>
     <t>APONTE</t>
@@ -114,22 +123,13 @@
     <t>ROSA</t>
   </si>
   <si>
-    <t>4ta entrega Efvo</t>
-  </si>
-  <si>
     <t>ESTEBAN</t>
   </si>
   <si>
-    <t>5ta entrega Efvo</t>
-  </si>
-  <si>
     <t>ARANGUIZ</t>
   </si>
   <si>
     <t>MARIA LUISA</t>
-  </si>
-  <si>
-    <t>6ta entrega Efvo</t>
   </si>
   <si>
     <t>ARGUELLO</t>
@@ -1621,8 +1621,22 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J340" si="1">SUM(D2:H2)</f>
-        <v>10000</v>
+        <f t="shared" ref="J2:J56" si="1">SUM(D2:H2)</f>
+        <v>10000</v>
+      </c>
+      <c r="L2" s="7">
+        <v>341.0</v>
+      </c>
+      <c r="M2" s="8">
+        <f>SUMIF(D:I,"&lt;&gt;0")</f>
+        <v>2926000</v>
+      </c>
+      <c r="N2" s="8">
+        <v>9000000.0</v>
+      </c>
+      <c r="O2" s="9">
+        <f>(N2-M2)*-1</f>
+        <v>-6074000</v>
       </c>
     </row>
     <row r="3">
@@ -1682,16 +1696,25 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
+      <c r="L4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="10">
+        <v>355000.0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>46040.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>10000.0</v>
@@ -1707,19 +1730,14 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="L5" s="7">
-        <v>341.0</v>
-      </c>
-      <c r="M5" s="8">
-        <f>SUMIF(D:I,"&lt;&gt;0")</f>
-        <v>2841000</v>
-      </c>
-      <c r="N5" s="8">
-        <v>9000000.0</v>
-      </c>
-      <c r="O5" s="9">
-        <f>(N5-M5)*-1</f>
-        <v>-6159000</v>
+      <c r="L5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="10">
+        <v>230000.0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>46042.0</v>
       </c>
     </row>
     <row r="6">
@@ -1727,10 +1745,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -1742,16 +1760,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="10">
+        <v>230000.0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>46044.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
@@ -1764,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M7" s="10">
-        <v>355000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="N7" s="11">
-        <v>46040.0</v>
+        <v>46046.0</v>
       </c>
     </row>
     <row r="8">
@@ -1778,10 +1805,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
         <v>6000.0</v>
@@ -1798,13 +1825,13 @@
         <v>6000</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M8" s="10">
-        <v>230000.0</v>
+        <v>156000.0</v>
       </c>
       <c r="N8" s="11">
-        <v>46042.0</v>
+        <v>46048.0</v>
       </c>
     </row>
     <row r="9">
@@ -1812,10 +1839,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1828,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9" s="10">
-        <v>230000.0</v>
+        <v>110000.0</v>
       </c>
       <c r="N9" s="11">
-        <v>46044.0</v>
+        <v>46048.0</v>
       </c>
     </row>
     <row r="10">
@@ -1842,10 +1869,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -1857,25 +1884,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="10">
-        <v>150000.0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>46046.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3">
         <v>10000.0</v>
@@ -1895,25 +1913,16 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="10">
-        <v>156000.0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>46048.0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3">
         <v>10000.0</v>
@@ -1932,15 +1941,6 @@
       <c r="J12" s="5">
         <f t="shared" si="1"/>
         <v>20000</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="10">
-        <v>110000.0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>46048.0</v>
       </c>
     </row>
     <row r="13">
@@ -3025,15 +3025,27 @@
       <c r="C57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
+      <c r="D57" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J57" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D57:I57)</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="58">
@@ -3053,7 +3065,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
       <c r="J58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J58:J340" si="2">SUM(D58:H58)</f>
         <v>0</v>
       </c>
     </row>
@@ -3078,7 +3090,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
       <c r="J59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3103,7 +3115,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
       <c r="J60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3128,7 +3140,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="6"/>
       <c r="J61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3153,7 +3165,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
       <c r="J62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3178,7 +3190,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="6"/>
       <c r="J63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3203,7 +3215,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
       <c r="J64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3224,7 +3236,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
       <c r="J65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3245,7 +3257,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
       <c r="J66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3266,7 +3278,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
       <c r="J67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3291,7 +3303,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
       <c r="J68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3312,7 +3324,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
       <c r="J69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3337,7 +3349,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
       <c r="J70" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3366,7 +3378,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
       <c r="J71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -3391,7 +3403,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
       <c r="J72" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3412,7 +3424,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
       <c r="J73" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3437,7 +3449,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
       <c r="J74" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3462,7 +3474,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
       <c r="J75" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3483,7 +3495,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
       <c r="J76" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3504,7 +3516,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
       <c r="J77" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3525,7 +3537,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
       <c r="J78" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3546,7 +3558,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
       <c r="J79" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +3579,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="6"/>
       <c r="J80" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3600,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -3625,7 +3637,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
       <c r="J82" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3650,7 +3662,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="6"/>
       <c r="J83" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3671,7 +3683,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="6"/>
       <c r="J84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3696,7 +3708,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="6"/>
       <c r="J85" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3729,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -3754,7 +3766,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="6"/>
       <c r="J87" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3775,7 +3787,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="6"/>
       <c r="J88" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3800,7 +3812,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="6"/>
       <c r="J89" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3825,7 +3837,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="6"/>
       <c r="J90" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3839,15 +3851,19 @@
       <c r="C91" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
+      <c r="D91" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="H91" s="5"/>
       <c r="I91" s="6"/>
       <c r="J91" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="92">
@@ -3871,7 +3887,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="6"/>
       <c r="J92" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3896,7 +3912,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
       <c r="J93" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3921,7 +3937,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="6"/>
       <c r="J94" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3946,7 +3962,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="6"/>
       <c r="J95" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -3975,7 +3991,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="6"/>
       <c r="J96" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -4000,7 +4016,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="6"/>
       <c r="J97" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4025,7 +4041,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="6"/>
       <c r="J98" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4050,7 +4066,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="6"/>
       <c r="J99" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4071,7 +4087,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
       <c r="J100" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4096,7 +4112,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="6"/>
       <c r="J101" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4117,7 +4133,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="6"/>
       <c r="J102" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4138,7 +4154,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="6"/>
       <c r="J103" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4163,7 +4179,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="6"/>
       <c r="J104" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4188,7 +4204,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="6"/>
       <c r="J105" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4213,7 +4229,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="6"/>
       <c r="J106" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4238,7 +4254,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="6"/>
       <c r="J107" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4263,7 +4279,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="6"/>
       <c r="J108" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4288,7 +4304,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="6"/>
       <c r="J109" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4309,7 +4325,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="6"/>
       <c r="J110" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4330,7 +4346,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="6"/>
       <c r="J111" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4355,7 +4371,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="6"/>
       <c r="J112" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4380,7 +4396,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="6"/>
       <c r="J113" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4405,7 +4421,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="6"/>
       <c r="J114" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4430,7 +4446,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="6"/>
       <c r="J115" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4455,7 +4471,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="6"/>
       <c r="J116" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4480,7 +4496,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="6"/>
       <c r="J117" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4505,7 +4521,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="6"/>
       <c r="J118" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4526,7 +4542,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="6"/>
       <c r="J119" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4551,7 +4567,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="6"/>
       <c r="J120" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4576,7 +4592,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="6"/>
       <c r="J121" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4601,7 +4617,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="6"/>
       <c r="J122" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4622,7 +4638,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="6"/>
       <c r="J123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4647,7 +4663,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="6"/>
       <c r="J124" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4676,7 +4692,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="6"/>
       <c r="J125" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
     </row>
@@ -4709,7 +4725,7 @@
         <v>13</v>
       </c>
       <c r="J126" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -4742,7 +4758,7 @@
         <v>13</v>
       </c>
       <c r="J127" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -4775,7 +4791,7 @@
         <v>13</v>
       </c>
       <c r="J128" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -4796,7 +4812,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="6"/>
       <c r="J129" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4821,7 +4837,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="6"/>
       <c r="J130" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4842,7 +4858,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="6"/>
       <c r="J131" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +4870,7 @@
         <v>196</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D132" s="3">
         <v>10000.0</v>
@@ -4867,7 +4883,7 @@
       <c r="H132" s="5"/>
       <c r="I132" s="6"/>
       <c r="J132" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4888,7 +4904,7 @@
       <c r="H133" s="5"/>
       <c r="I133" s="6"/>
       <c r="J133" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4909,7 +4925,7 @@
       <c r="H134" s="5"/>
       <c r="I134" s="6"/>
       <c r="J134" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4923,15 +4939,19 @@
       <c r="C135" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="6"/>
+      <c r="D135" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="5"/>
       <c r="I135" s="6"/>
       <c r="J135" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="136">
@@ -4955,7 +4975,7 @@
       <c r="H136" s="5"/>
       <c r="I136" s="6"/>
       <c r="J136" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -4984,7 +5004,7 @@
       <c r="H137" s="5"/>
       <c r="I137" s="6"/>
       <c r="J137" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -5005,7 +5025,7 @@
       <c r="H138" s="5"/>
       <c r="I138" s="6"/>
       <c r="J138" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5026,7 +5046,7 @@
       <c r="H139" s="5"/>
       <c r="I139" s="6"/>
       <c r="J139" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5047,7 +5067,7 @@
       <c r="H140" s="5"/>
       <c r="I140" s="6"/>
       <c r="J140" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5080,7 +5100,7 @@
         <v>18</v>
       </c>
       <c r="J141" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
     </row>
@@ -5105,7 +5125,7 @@
       <c r="H142" s="5"/>
       <c r="I142" s="6"/>
       <c r="J142" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5126,7 +5146,7 @@
       <c r="H143" s="5"/>
       <c r="I143" s="6"/>
       <c r="J143" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5151,7 +5171,7 @@
       <c r="H144" s="5"/>
       <c r="I144" s="6"/>
       <c r="J144" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5176,7 +5196,7 @@
       <c r="H145" s="5"/>
       <c r="I145" s="6"/>
       <c r="J145" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5201,7 +5221,7 @@
       <c r="H146" s="5"/>
       <c r="I146" s="6"/>
       <c r="J146" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5234,7 +5254,7 @@
         <v>18</v>
       </c>
       <c r="J147" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -5255,7 +5275,7 @@
       <c r="H148" s="5"/>
       <c r="I148" s="6"/>
       <c r="J148" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5280,7 +5300,7 @@
       <c r="H149" s="5"/>
       <c r="I149" s="6"/>
       <c r="J149" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5301,7 +5321,7 @@
       <c r="H150" s="5"/>
       <c r="I150" s="6"/>
       <c r="J150" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5326,7 +5346,7 @@
       <c r="H151" s="5"/>
       <c r="I151" s="6"/>
       <c r="J151" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5351,7 +5371,7 @@
       <c r="H152" s="5"/>
       <c r="I152" s="6"/>
       <c r="J152" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5376,7 +5396,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="6"/>
       <c r="J153" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5401,7 +5421,7 @@
       <c r="H154" s="5"/>
       <c r="I154" s="6"/>
       <c r="J154" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5426,7 +5446,7 @@
       <c r="H155" s="5"/>
       <c r="I155" s="6"/>
       <c r="J155" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5451,7 +5471,7 @@
       <c r="H156" s="5"/>
       <c r="I156" s="6"/>
       <c r="J156" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5476,7 +5496,7 @@
       <c r="H157" s="5"/>
       <c r="I157" s="6"/>
       <c r="J157" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5501,7 +5521,7 @@
       <c r="H158" s="5"/>
       <c r="I158" s="6"/>
       <c r="J158" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5526,7 +5546,7 @@
       <c r="H159" s="5"/>
       <c r="I159" s="6"/>
       <c r="J159" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5547,7 +5567,7 @@
       <c r="H160" s="5"/>
       <c r="I160" s="6"/>
       <c r="J160" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5572,7 +5592,7 @@
       <c r="H161" s="5"/>
       <c r="I161" s="6"/>
       <c r="J161" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5605,7 +5625,7 @@
         <v>13</v>
       </c>
       <c r="J162" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -5638,7 +5658,7 @@
         <v>13</v>
       </c>
       <c r="J163" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -5671,7 +5691,7 @@
         <v>13</v>
       </c>
       <c r="J164" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -5696,7 +5716,7 @@
       <c r="H165" s="5"/>
       <c r="I165" s="6"/>
       <c r="J165" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5717,7 +5737,7 @@
       <c r="H166" s="5"/>
       <c r="I166" s="6"/>
       <c r="J166" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +5758,7 @@
       <c r="H167" s="5"/>
       <c r="I167" s="6"/>
       <c r="J167" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5763,7 +5783,7 @@
       <c r="H168" s="5"/>
       <c r="I168" s="6"/>
       <c r="J168" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5788,7 +5808,7 @@
       <c r="H169" s="5"/>
       <c r="I169" s="6"/>
       <c r="J169" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5813,7 +5833,7 @@
       <c r="H170" s="5"/>
       <c r="I170" s="6"/>
       <c r="J170" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
     </row>
@@ -5834,7 +5854,7 @@
       <c r="H171" s="5"/>
       <c r="I171" s="6"/>
       <c r="J171" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5859,7 +5879,7 @@
       <c r="H172" s="5"/>
       <c r="I172" s="6"/>
       <c r="J172" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5884,7 +5904,7 @@
       <c r="H173" s="5"/>
       <c r="I173" s="6"/>
       <c r="J173" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="K173" s="12" t="s">
@@ -5908,7 +5928,7 @@
       <c r="H174" s="5"/>
       <c r="I174" s="6"/>
       <c r="J174" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5933,7 +5953,7 @@
       <c r="H175" s="5"/>
       <c r="I175" s="6"/>
       <c r="J175" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5958,7 +5978,7 @@
       <c r="H176" s="5"/>
       <c r="I176" s="6"/>
       <c r="J176" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -5979,7 +5999,7 @@
       <c r="H177" s="5"/>
       <c r="I177" s="6"/>
       <c r="J177" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6000,7 +6020,7 @@
       <c r="H178" s="5"/>
       <c r="I178" s="6"/>
       <c r="J178" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6021,7 +6041,7 @@
       <c r="H179" s="5"/>
       <c r="I179" s="6"/>
       <c r="J179" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6042,7 +6062,7 @@
       <c r="H180" s="5"/>
       <c r="I180" s="6"/>
       <c r="J180" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6067,7 +6087,7 @@
       <c r="H181" s="5"/>
       <c r="I181" s="6"/>
       <c r="J181" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6092,7 +6112,7 @@
       <c r="H182" s="5"/>
       <c r="I182" s="6"/>
       <c r="J182" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
     </row>
@@ -6117,7 +6137,7 @@
       <c r="H183" s="5"/>
       <c r="I183" s="6"/>
       <c r="J183" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6146,7 +6166,7 @@
       <c r="H184" s="5"/>
       <c r="I184" s="6"/>
       <c r="J184" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -6171,7 +6191,7 @@
       <c r="H185" s="5"/>
       <c r="I185" s="6"/>
       <c r="J185" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6196,7 +6216,7 @@
       <c r="H186" s="5"/>
       <c r="I186" s="6"/>
       <c r="J186" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6225,7 +6245,7 @@
       <c r="H187" s="5"/>
       <c r="I187" s="6"/>
       <c r="J187" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -6250,7 +6270,7 @@
       <c r="H188" s="5"/>
       <c r="I188" s="6"/>
       <c r="J188" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6275,7 +6295,7 @@
       <c r="H189" s="5"/>
       <c r="I189" s="6"/>
       <c r="J189" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6300,7 +6320,7 @@
       <c r="H190" s="5"/>
       <c r="I190" s="6"/>
       <c r="J190" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6321,7 +6341,7 @@
       <c r="H191" s="5"/>
       <c r="I191" s="6"/>
       <c r="J191" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6346,7 +6366,7 @@
       <c r="H192" s="5"/>
       <c r="I192" s="6"/>
       <c r="J192" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6367,7 +6387,7 @@
       <c r="H193" s="5"/>
       <c r="I193" s="6"/>
       <c r="J193" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6392,7 +6412,7 @@
       <c r="H194" s="5"/>
       <c r="I194" s="6"/>
       <c r="J194" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6417,7 +6437,7 @@
       <c r="H195" s="5"/>
       <c r="I195" s="6"/>
       <c r="J195" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6442,7 +6462,7 @@
       <c r="H196" s="5"/>
       <c r="I196" s="6"/>
       <c r="J196" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
     </row>
@@ -6463,7 +6483,7 @@
       <c r="H197" s="5"/>
       <c r="I197" s="6"/>
       <c r="J197" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6484,7 +6504,7 @@
       <c r="H198" s="5"/>
       <c r="I198" s="6"/>
       <c r="J198" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6509,7 +6529,7 @@
       <c r="H199" s="5"/>
       <c r="I199" s="6"/>
       <c r="J199" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6534,7 +6554,7 @@
       <c r="H200" s="5"/>
       <c r="I200" s="6"/>
       <c r="J200" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6559,7 +6579,7 @@
       <c r="H201" s="5"/>
       <c r="I201" s="6"/>
       <c r="J201" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6584,7 +6604,7 @@
       <c r="H202" s="5"/>
       <c r="I202" s="6"/>
       <c r="J202" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -6609,7 +6629,7 @@
       <c r="H203" s="5"/>
       <c r="I203" s="6"/>
       <c r="J203" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6634,7 +6654,7 @@
       <c r="H204" s="5"/>
       <c r="I204" s="6"/>
       <c r="J204" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6655,7 +6675,7 @@
       <c r="H205" s="5"/>
       <c r="I205" s="6"/>
       <c r="J205" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6680,7 +6700,7 @@
       <c r="H206" s="5"/>
       <c r="I206" s="6"/>
       <c r="J206" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6705,7 +6725,7 @@
       <c r="H207" s="5"/>
       <c r="I207" s="6"/>
       <c r="J207" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6730,7 +6750,7 @@
       <c r="H208" s="5"/>
       <c r="I208" s="6"/>
       <c r="J208" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6751,7 +6771,7 @@
       <c r="H209" s="5"/>
       <c r="I209" s="6"/>
       <c r="J209" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6776,7 +6796,7 @@
       <c r="H210" s="5"/>
       <c r="I210" s="6"/>
       <c r="J210" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6801,7 +6821,7 @@
       <c r="H211" s="5"/>
       <c r="I211" s="6"/>
       <c r="J211" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6826,7 +6846,7 @@
       <c r="H212" s="5"/>
       <c r="I212" s="6"/>
       <c r="J212" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6851,7 +6871,7 @@
       <c r="H213" s="5"/>
       <c r="I213" s="6"/>
       <c r="J213" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6872,7 +6892,7 @@
       <c r="H214" s="5"/>
       <c r="I214" s="6"/>
       <c r="J214" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6893,7 +6913,7 @@
       <c r="H215" s="5"/>
       <c r="I215" s="6"/>
       <c r="J215" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6914,7 +6934,7 @@
       <c r="H216" s="5"/>
       <c r="I216" s="6"/>
       <c r="J216" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6935,7 +6955,7 @@
       <c r="H217" s="5"/>
       <c r="I217" s="6"/>
       <c r="J217" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6960,7 +6980,7 @@
       <c r="H218" s="5"/>
       <c r="I218" s="6"/>
       <c r="J218" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -6974,15 +6994,19 @@
       <c r="C219" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D219" s="3"/>
-      <c r="E219" s="4"/>
+      <c r="D219" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
       <c r="H219" s="5"/>
       <c r="I219" s="6"/>
       <c r="J219" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="220">
@@ -7002,7 +7026,7 @@
       <c r="H220" s="5"/>
       <c r="I220" s="6"/>
       <c r="J220" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7023,7 +7047,7 @@
       <c r="H221" s="5"/>
       <c r="I221" s="6"/>
       <c r="J221" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7048,7 +7072,7 @@
       <c r="H222" s="5"/>
       <c r="I222" s="6"/>
       <c r="J222" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7073,7 +7097,7 @@
       <c r="H223" s="5"/>
       <c r="I223" s="6"/>
       <c r="J223" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7087,15 +7111,19 @@
       <c r="C224" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D224" s="3"/>
-      <c r="E224" s="4"/>
+      <c r="D224" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
       <c r="H224" s="5"/>
       <c r="I224" s="6"/>
       <c r="J224" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="225">
@@ -7115,7 +7143,7 @@
       <c r="H225" s="5"/>
       <c r="I225" s="6"/>
       <c r="J225" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7136,7 +7164,7 @@
       <c r="H226" s="5"/>
       <c r="I226" s="6"/>
       <c r="J226" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7157,7 +7185,7 @@
       <c r="H227" s="5"/>
       <c r="I227" s="6"/>
       <c r="J227" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7182,7 +7210,7 @@
       <c r="H228" s="5"/>
       <c r="I228" s="6"/>
       <c r="J228" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7203,7 +7231,7 @@
       <c r="H229" s="5"/>
       <c r="I229" s="6"/>
       <c r="J229" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7224,7 +7252,7 @@
       <c r="H230" s="5"/>
       <c r="I230" s="6"/>
       <c r="J230" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7245,7 +7273,7 @@
       <c r="H231" s="5"/>
       <c r="I231" s="6"/>
       <c r="J231" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7266,7 +7294,7 @@
       <c r="H232" s="5"/>
       <c r="I232" s="6"/>
       <c r="J232" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7287,7 +7315,7 @@
       <c r="H233" s="5"/>
       <c r="I233" s="6"/>
       <c r="J233" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7308,7 +7336,7 @@
       <c r="H234" s="5"/>
       <c r="I234" s="6"/>
       <c r="J234" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7329,7 +7357,7 @@
       <c r="H235" s="5"/>
       <c r="I235" s="6"/>
       <c r="J235" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7362,7 +7390,7 @@
         <v>18</v>
       </c>
       <c r="J236" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -7387,7 +7415,7 @@
       <c r="H237" s="5"/>
       <c r="I237" s="6"/>
       <c r="J237" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7401,15 +7429,19 @@
       <c r="C238" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="4"/>
+      <c r="D238" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
       <c r="H238" s="5"/>
       <c r="I238" s="6"/>
       <c r="J238" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="239">
@@ -7433,7 +7465,7 @@
       <c r="H239" s="5"/>
       <c r="I239" s="6"/>
       <c r="J239" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7454,7 +7486,7 @@
       <c r="H240" s="5"/>
       <c r="I240" s="6"/>
       <c r="J240" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7475,7 +7507,7 @@
       <c r="H241" s="5"/>
       <c r="I241" s="6"/>
       <c r="J241" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7496,7 +7528,7 @@
       <c r="H242" s="5"/>
       <c r="I242" s="6"/>
       <c r="J242" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7521,7 +7553,7 @@
       <c r="H243" s="5"/>
       <c r="I243" s="6"/>
       <c r="J243" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7546,7 +7578,7 @@
       <c r="H244" s="5"/>
       <c r="I244" s="6"/>
       <c r="J244" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7567,7 +7599,7 @@
       <c r="H245" s="5"/>
       <c r="I245" s="6"/>
       <c r="J245" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7588,7 +7620,7 @@
       <c r="H246" s="5"/>
       <c r="I246" s="6"/>
       <c r="J246" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7613,7 +7645,7 @@
       <c r="H247" s="5"/>
       <c r="I247" s="6"/>
       <c r="J247" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7628,7 +7660,7 @@
         <v>308</v>
       </c>
       <c r="D248" s="3">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>13</v>
@@ -7638,8 +7670,8 @@
       <c r="H248" s="5"/>
       <c r="I248" s="6"/>
       <c r="J248" s="5">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="249">
@@ -7659,7 +7691,7 @@
       <c r="H249" s="5"/>
       <c r="I249" s="6"/>
       <c r="J249" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7684,7 +7716,7 @@
       <c r="H250" s="5"/>
       <c r="I250" s="6"/>
       <c r="J250" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7709,7 +7741,7 @@
       <c r="H251" s="5"/>
       <c r="I251" s="6"/>
       <c r="J251" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7734,7 +7766,7 @@
       <c r="H252" s="5"/>
       <c r="I252" s="6"/>
       <c r="J252" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7759,7 +7791,7 @@
       <c r="H253" s="5"/>
       <c r="I253" s="6"/>
       <c r="J253" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
     </row>
@@ -7784,7 +7816,7 @@
       <c r="H254" s="5"/>
       <c r="I254" s="6"/>
       <c r="J254" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7809,7 +7841,7 @@
       <c r="H255" s="5"/>
       <c r="I255" s="6"/>
       <c r="J255" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7830,7 +7862,7 @@
       <c r="H256" s="5"/>
       <c r="I256" s="6"/>
       <c r="J256" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7851,7 +7883,7 @@
       <c r="H257" s="5"/>
       <c r="I257" s="6"/>
       <c r="J257" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7872,7 +7904,7 @@
       <c r="H258" s="5"/>
       <c r="I258" s="6"/>
       <c r="J258" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7893,7 +7925,7 @@
       <c r="H259" s="5"/>
       <c r="I259" s="6"/>
       <c r="J259" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7905,7 +7937,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="4"/>
@@ -7914,7 +7946,7 @@
       <c r="H260" s="5"/>
       <c r="I260" s="6"/>
       <c r="J260" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7935,7 +7967,7 @@
       <c r="H261" s="5"/>
       <c r="I261" s="6"/>
       <c r="J261" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7960,7 +7992,7 @@
       <c r="H262" s="5"/>
       <c r="I262" s="6"/>
       <c r="J262" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -7985,7 +8017,7 @@
       <c r="H263" s="5"/>
       <c r="I263" s="6"/>
       <c r="J263" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8010,7 +8042,7 @@
       <c r="H264" s="5"/>
       <c r="I264" s="6"/>
       <c r="J264" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8035,7 +8067,7 @@
       <c r="H265" s="5"/>
       <c r="I265" s="6"/>
       <c r="J265" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8064,7 +8096,7 @@
       <c r="H266" s="5"/>
       <c r="I266" s="6"/>
       <c r="J266" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -8089,7 +8121,7 @@
       <c r="H267" s="5"/>
       <c r="I267" s="6"/>
       <c r="J267" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
     </row>
@@ -8114,7 +8146,7 @@
       <c r="H268" s="5"/>
       <c r="I268" s="6"/>
       <c r="J268" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8126,7 +8158,7 @@
         <v>326</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D269" s="3">
         <v>10000.0</v>
@@ -8143,7 +8175,7 @@
       <c r="H269" s="5"/>
       <c r="I269" s="6"/>
       <c r="J269" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -8164,7 +8196,7 @@
       <c r="H270" s="5"/>
       <c r="I270" s="6"/>
       <c r="J270" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8185,7 +8217,7 @@
       <c r="H271" s="5"/>
       <c r="I271" s="6"/>
       <c r="J271" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8214,7 +8246,7 @@
       <c r="H272" s="5"/>
       <c r="I272" s="6"/>
       <c r="J272" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -8235,7 +8267,7 @@
       <c r="H273" s="5"/>
       <c r="I273" s="6"/>
       <c r="J273" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8260,7 +8292,7 @@
       <c r="H274" s="5"/>
       <c r="I274" s="6"/>
       <c r="J274" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8293,7 +8325,7 @@
         <v>13</v>
       </c>
       <c r="J275" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -8318,7 +8350,7 @@
       <c r="H276" s="5"/>
       <c r="I276" s="6"/>
       <c r="J276" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8351,7 +8383,7 @@
         <v>13</v>
       </c>
       <c r="J277" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -8384,7 +8416,7 @@
         <v>13</v>
       </c>
       <c r="J278" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -8409,7 +8441,7 @@
       <c r="H279" s="5"/>
       <c r="I279" s="6"/>
       <c r="J279" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8434,7 +8466,7 @@
       <c r="H280" s="5"/>
       <c r="I280" s="6"/>
       <c r="J280" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8459,7 +8491,7 @@
       <c r="H281" s="5"/>
       <c r="I281" s="6"/>
       <c r="J281" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8484,7 +8516,7 @@
       <c r="H282" s="5"/>
       <c r="I282" s="6"/>
       <c r="J282" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8509,7 +8541,7 @@
       <c r="H283" s="5"/>
       <c r="I283" s="6"/>
       <c r="J283" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8538,7 +8570,7 @@
       <c r="H284" s="5"/>
       <c r="I284" s="6"/>
       <c r="J284" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -8559,7 +8591,7 @@
       <c r="H285" s="5"/>
       <c r="I285" s="6"/>
       <c r="J285" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8584,7 +8616,7 @@
       <c r="H286" s="5"/>
       <c r="I286" s="6"/>
       <c r="J286" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8617,7 +8649,7 @@
         <v>18</v>
       </c>
       <c r="J287" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -8642,7 +8674,7 @@
       <c r="H288" s="5"/>
       <c r="I288" s="6"/>
       <c r="J288" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8671,7 +8703,7 @@
       <c r="H289" s="5"/>
       <c r="I289" s="6"/>
       <c r="J289" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
@@ -8696,7 +8728,7 @@
       <c r="H290" s="5"/>
       <c r="I290" s="6"/>
       <c r="J290" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8717,7 +8749,7 @@
       <c r="H291" s="5"/>
       <c r="I291" s="6"/>
       <c r="J291" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8742,7 +8774,7 @@
       <c r="H292" s="5"/>
       <c r="I292" s="6"/>
       <c r="J292" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8767,7 +8799,7 @@
       <c r="H293" s="5"/>
       <c r="I293" s="6"/>
       <c r="J293" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8788,7 +8820,7 @@
       <c r="H294" s="5"/>
       <c r="I294" s="6"/>
       <c r="J294" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8809,7 +8841,7 @@
       <c r="H295" s="5"/>
       <c r="I295" s="6"/>
       <c r="J295" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8838,7 +8870,7 @@
       <c r="H296" s="5"/>
       <c r="I296" s="6"/>
       <c r="J296" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
@@ -8863,7 +8895,7 @@
       <c r="H297" s="5"/>
       <c r="I297" s="6"/>
       <c r="J297" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8888,7 +8920,7 @@
       <c r="H298" s="5"/>
       <c r="I298" s="6"/>
       <c r="J298" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8913,7 +8945,7 @@
       <c r="H299" s="5"/>
       <c r="I299" s="6"/>
       <c r="J299" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8938,7 +8970,7 @@
       <c r="H300" s="5"/>
       <c r="I300" s="6"/>
       <c r="J300" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8963,7 +8995,7 @@
       <c r="H301" s="5"/>
       <c r="I301" s="6"/>
       <c r="J301" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -8988,7 +9020,7 @@
       <c r="H302" s="5"/>
       <c r="I302" s="6"/>
       <c r="J302" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9013,7 +9045,7 @@
       <c r="H303" s="5"/>
       <c r="I303" s="6"/>
       <c r="J303" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9038,7 +9070,7 @@
       <c r="H304" s="5"/>
       <c r="I304" s="6"/>
       <c r="J304" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9059,7 +9091,7 @@
       <c r="H305" s="5"/>
       <c r="I305" s="6"/>
       <c r="J305" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9080,7 +9112,7 @@
       <c r="H306" s="5"/>
       <c r="I306" s="6"/>
       <c r="J306" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9101,7 +9133,7 @@
       <c r="H307" s="5"/>
       <c r="I307" s="6"/>
       <c r="J307" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9126,7 +9158,7 @@
       <c r="H308" s="5"/>
       <c r="I308" s="6"/>
       <c r="J308" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9151,7 +9183,7 @@
       <c r="H309" s="5"/>
       <c r="I309" s="6"/>
       <c r="J309" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9176,7 +9208,7 @@
       <c r="H310" s="5"/>
       <c r="I310" s="6"/>
       <c r="J310" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9201,7 +9233,7 @@
       <c r="H311" s="5"/>
       <c r="I311" s="6"/>
       <c r="J311" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9222,7 +9254,7 @@
       <c r="H312" s="5"/>
       <c r="I312" s="6"/>
       <c r="J312" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9243,7 +9275,7 @@
       <c r="H313" s="5"/>
       <c r="I313" s="6"/>
       <c r="J313" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9268,7 +9300,7 @@
       <c r="H314" s="5"/>
       <c r="I314" s="6"/>
       <c r="J314" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9293,7 +9325,7 @@
       <c r="H315" s="5"/>
       <c r="I315" s="6"/>
       <c r="J315" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9318,7 +9350,7 @@
       <c r="H316" s="5"/>
       <c r="I316" s="6"/>
       <c r="J316" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9343,7 +9375,7 @@
       <c r="H317" s="5"/>
       <c r="I317" s="6"/>
       <c r="J317" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9368,7 +9400,7 @@
       <c r="H318" s="5"/>
       <c r="I318" s="6"/>
       <c r="J318" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9393,7 +9425,7 @@
       <c r="H319" s="5"/>
       <c r="I319" s="6"/>
       <c r="J319" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9418,7 +9450,7 @@
       <c r="H320" s="5"/>
       <c r="I320" s="6"/>
       <c r="J320" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9443,7 +9475,7 @@
       <c r="H321" s="5"/>
       <c r="I321" s="6"/>
       <c r="J321" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9468,7 +9500,7 @@
       <c r="H322" s="5"/>
       <c r="I322" s="6"/>
       <c r="J322" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9493,7 +9525,7 @@
       <c r="H323" s="5"/>
       <c r="I323" s="6"/>
       <c r="J323" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9518,7 +9550,7 @@
       <c r="H324" s="5"/>
       <c r="I324" s="6"/>
       <c r="J324" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9539,7 +9571,7 @@
       <c r="H325" s="5"/>
       <c r="I325" s="6"/>
       <c r="J325" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9564,7 +9596,7 @@
       <c r="H326" s="5"/>
       <c r="I326" s="6"/>
       <c r="J326" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9585,7 +9617,7 @@
       <c r="H327" s="5"/>
       <c r="I327" s="6"/>
       <c r="J327" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9610,7 +9642,7 @@
       <c r="H328" s="5"/>
       <c r="I328" s="6"/>
       <c r="J328" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9643,7 +9675,7 @@
         <v>18</v>
       </c>
       <c r="J329" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
@@ -9668,7 +9700,7 @@
       <c r="H330" s="5"/>
       <c r="I330" s="6"/>
       <c r="J330" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9689,7 +9721,7 @@
       <c r="H331" s="5"/>
       <c r="I331" s="6"/>
       <c r="J331" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9714,7 +9746,7 @@
       <c r="H332" s="5"/>
       <c r="I332" s="6"/>
       <c r="J332" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9739,7 +9771,7 @@
       <c r="H333" s="5"/>
       <c r="I333" s="6"/>
       <c r="J333" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9760,7 +9792,7 @@
       <c r="H334" s="5"/>
       <c r="I334" s="6"/>
       <c r="J334" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9781,7 +9813,7 @@
       <c r="H335" s="5"/>
       <c r="I335" s="6"/>
       <c r="J335" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9802,7 +9834,7 @@
       <c r="H336" s="5"/>
       <c r="I336" s="6"/>
       <c r="J336" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9823,7 +9855,7 @@
       <c r="H337" s="5"/>
       <c r="I337" s="6"/>
       <c r="J337" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9848,7 +9880,7 @@
       <c r="H338" s="5"/>
       <c r="I338" s="6"/>
       <c r="J338" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
@@ -9869,7 +9901,7 @@
       <c r="H339" s="5"/>
       <c r="I339" s="6"/>
       <c r="J339" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9890,7 +9922,7 @@
       <c r="H340" s="5"/>
       <c r="I340" s="6"/>
       <c r="J340" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9927,31 +9959,13 @@
       <formula>29999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M2">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
-      <formula>0</formula>
-      <formula>3000000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M2">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
-      <formula>3000001</formula>
-      <formula>6000000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M2">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="between">
-      <formula>6000001</formula>
-      <formula>90000000</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5 J67">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>30000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J20 J40 J68 J73 J80:J85 J110:J112 J124:J148 J160:J169 J181 J213 J235 J249:J253 J260:J296 J301 J328">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
       <formula>30000</formula>
       <formula>100000</formula>
     </cfRule>

--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="406">
   <si>
     <t>Apellido</t>
   </si>
@@ -123,6 +123,9 @@
     <t>ROSA</t>
   </si>
   <si>
+    <t>7ta entrega Efvo</t>
+  </si>
+  <si>
     <t>ESTEBAN</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>NOEMI</t>
   </si>
   <si>
+    <t>KARINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">AYALA </t>
   </si>
   <si>
@@ -186,6 +192,12 @@
     <t>LUANA</t>
   </si>
   <si>
+    <t>BADANO</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
     <t>BALMACEDA</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>CINTIA</t>
   </si>
   <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
     <t>BERRIOS</t>
   </si>
   <si>
@@ -315,6 +330,9 @@
     <t>MABEL</t>
   </si>
   <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABRERA </t>
   </si>
   <si>
@@ -396,6 +414,12 @@
     <t>CRISTIAN</t>
   </si>
   <si>
+    <t>CASAS</t>
+  </si>
+  <si>
+    <t>FABIAN</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
@@ -618,6 +642,12 @@
     <t>SABRINA</t>
   </si>
   <si>
+    <t>KANCHEFF</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
     <t>LENCINA</t>
   </si>
   <si>
@@ -663,9 +693,6 @@
     <t xml:space="preserve">MAINO </t>
   </si>
   <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
     <t>MANSILLA</t>
   </si>
   <si>
@@ -720,9 +747,6 @@
     <t xml:space="preserve">MEDRANO </t>
   </si>
   <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
     <t>EMANUEL</t>
   </si>
   <si>
@@ -957,9 +981,15 @@
     <t>SEGUNDO</t>
   </si>
   <si>
+    <t>Efectivo, Transferencia</t>
+  </si>
+  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
+    <t>JESICA</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
@@ -987,6 +1017,9 @@
     <t>SILVANA</t>
   </si>
   <si>
+    <t>VANESA</t>
+  </si>
+  <si>
     <t>ROA</t>
   </si>
   <si>
@@ -1065,6 +1098,12 @@
     <t>IVO</t>
   </si>
   <si>
+    <t>SERDAN</t>
+  </si>
+  <si>
+    <t>RUBEN</t>
+  </si>
+  <si>
     <t>SIBOLDI</t>
   </si>
   <si>
@@ -1077,6 +1116,9 @@
     <t>JEZABEL</t>
   </si>
   <si>
+    <t>TRINIDAD</t>
+  </si>
+  <si>
     <t>SOLARI</t>
   </si>
   <si>
@@ -1183,6 +1225,12 @@
   </si>
   <si>
     <t>MIRIAM</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
   </si>
 </sst>
 </file>
@@ -1621,22 +1669,22 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J56" si="1">SUM(D2:H2)</f>
+        <f t="shared" ref="J2:J82" si="1">SUM(D2:H2)</f>
         <v>10000</v>
       </c>
       <c r="L2" s="7">
-        <v>341.0</v>
+        <v>357.0</v>
       </c>
       <c r="M2" s="8">
         <f>SUMIF(D:I,"&lt;&gt;0")</f>
-        <v>2926000</v>
+        <v>3383000</v>
       </c>
       <c r="N2" s="8">
         <v>9000000.0</v>
       </c>
       <c r="O2" s="9">
         <f>(N2-M2)*-1</f>
-        <v>-6074000</v>
+        <v>-5617000</v>
       </c>
     </row>
     <row r="3">
@@ -1750,15 +1798,19 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>25</v>
@@ -1884,6 +1936,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="10">
+        <v>335000.0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>46056.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -1893,7 +1954,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3">
         <v>10000.0</v>
@@ -1919,10 +1980,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3">
         <v>10000.0</v>
@@ -1948,20 +2009,24 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14">
@@ -1969,10 +2034,10 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3">
         <v>10000.0</v>
@@ -1994,10 +2059,10 @@
         <v>15.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3">
         <v>10000.0</v>
@@ -2019,10 +2084,10 @@
         <v>16.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3">
         <v>10000.0</v>
@@ -2044,10 +2109,10 @@
         <v>17.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3">
         <v>10000.0</v>
@@ -2069,10 +2134,10 @@
         <v>18.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
         <v>10000.0</v>
@@ -2094,10 +2159,10 @@
         <v>19.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3">
         <v>10000.0</v>
@@ -2119,10 +2184,10 @@
         <v>20.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3">
         <v>10000.0</v>
@@ -2152,20 +2217,24 @@
         <v>21.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22">
@@ -2173,10 +2242,10 @@
         <v>22.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -2194,10 +2263,10 @@
         <v>23.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -2215,24 +2284,20 @@
         <v>24.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2240,16 +2305,16 @@
         <v>25.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3">
         <v>10000.0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
@@ -2265,10 +2330,10 @@
         <v>26.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3">
         <v>10000.0</v>
@@ -2290,20 +2355,28 @@
         <v>27.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28">
@@ -2311,10 +2384,10 @@
         <v>28.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3">
         <v>10000.0</v>
@@ -2322,13 +2395,17 @@
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="29">
@@ -2336,13 +2413,13 @@
         <v>29.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="3">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>18</v>
@@ -2353,7 +2430,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30">
@@ -2395,7 +2472,7 @@
         <v>10000.0</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
@@ -2414,25 +2491,21 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3">
         <v>10000.0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
       <c r="J32" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33">
@@ -2440,10 +2513,10 @@
         <v>33.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3">
         <v>10000.0</v>
@@ -2465,20 +2538,28 @@
         <v>34.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="35">
@@ -2486,16 +2567,16 @@
         <v>35.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3">
         <v>10000.0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
@@ -2511,24 +2592,20 @@
         <v>36.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
       <c r="J36" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2536,20 +2613,24 @@
         <v>37.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
       <c r="J37" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="38">
@@ -2557,16 +2638,16 @@
         <v>38.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3">
         <v>10000.0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
@@ -2582,28 +2663,20 @@
         <v>39.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
       <c r="J39" s="5">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2611,20 +2684,24 @@
         <v>40.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="41">
@@ -2632,7 +2709,7 @@
         <v>41.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>80</v>
@@ -2644,20 +2721,16 @@
         <v>13</v>
       </c>
       <c r="F41" s="3">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="5">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="42">
@@ -2665,20 +2738,24 @@
         <v>42.0</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
       <c r="J42" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="43">
@@ -2686,7 +2763,7 @@
         <v>43.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>83</v>
@@ -2718,13 +2795,21 @@
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
+      <c r="F44" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J44" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="45">
@@ -2735,21 +2820,17 @@
         <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
       <c r="J45" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2757,24 +2838,20 @@
         <v>46.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
       <c r="J46" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2793,17 +2870,13 @@
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
       <c r="J47" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48">
@@ -2814,17 +2887,21 @@
         <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D48" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
       <c r="J48" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="49">
@@ -2832,20 +2909,24 @@
         <v>49.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="5"/>
       <c r="I49" s="6"/>
       <c r="J49" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="50">
@@ -2853,20 +2934,28 @@
         <v>50.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="D50" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
       <c r="J50" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="51">
@@ -2874,24 +2963,20 @@
         <v>51.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
       <c r="J51" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2899,24 +2984,20 @@
         <v>52.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
       <c r="J52" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2924,24 +3005,20 @@
         <v>53.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="5"/>
       <c r="I53" s="6"/>
       <c r="J53" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2949,10 +3026,10 @@
         <v>54.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D54" s="3">
         <v>10000.0</v>
@@ -2977,17 +3054,21 @@
         <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="D55" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
       <c r="J55" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56">
@@ -2998,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D56" s="3">
         <v>10000.0</v>
@@ -3023,29 +3104,21 @@
         <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D57" s="3">
         <v>10000.0</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="5">
-        <f>SUM(D57:I57)</f>
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="58">
@@ -3056,17 +3129,21 @@
         <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="D58" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
       <c r="J58" s="5">
-        <f t="shared" ref="J58:J340" si="2">SUM(D58:H58)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="59">
@@ -3074,24 +3151,20 @@
         <v>59.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
       <c r="J59" s="5">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3099,23 +3172,23 @@
         <v>60.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D60" s="3">
         <v>10000.0</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
       <c r="J60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
@@ -3124,10 +3197,10 @@
         <v>61.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D61" s="3">
         <v>10000.0</v>
@@ -3135,13 +3208,21 @@
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="6"/>
+      <c r="F61" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J61" s="5">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="62">
@@ -3149,24 +3230,20 @@
         <v>62.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
       <c r="J62" s="5">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3174,10 +3251,10 @@
         <v>63.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D63" s="3">
         <v>10000.0</v>
@@ -3190,7 +3267,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="6"/>
       <c r="J63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
@@ -3199,7 +3276,7 @@
         <v>64.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>112</v>
@@ -3215,7 +3292,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
       <c r="J64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
@@ -3224,20 +3301,24 @@
         <v>65.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="D65" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
       <c r="J65" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="66">
@@ -3245,20 +3326,24 @@
         <v>66.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D66" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
       <c r="J66" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="67">
@@ -3266,20 +3351,24 @@
         <v>67.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="D67" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
       <c r="J67" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="68">
@@ -3287,10 +3376,10 @@
         <v>68.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D68" s="3">
         <v>10000.0</v>
@@ -3303,7 +3392,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
       <c r="J68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
@@ -3312,20 +3401,24 @@
         <v>69.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="D69" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
       <c r="J69" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="70">
@@ -3333,24 +3426,20 @@
         <v>70.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
       <c r="J70" s="5">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3358,28 +3447,20 @@
         <v>71.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
       <c r="J71" s="5">
-        <f t="shared" si="2"/>
-        <v>20000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3387,23 +3468,23 @@
         <v>72.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D72" s="3">
         <v>10000.0</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
       <c r="J72" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
@@ -3415,17 +3496,21 @@
         <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="D73" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
       <c r="J73" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="74">
@@ -3433,10 +3518,10 @@
         <v>74.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D74" s="3">
         <v>10000.0</v>
@@ -3449,7 +3534,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
       <c r="J74" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
@@ -3461,7 +3546,7 @@
         <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D75" s="3">
         <v>10000.0</v>
@@ -3469,13 +3554,17 @@
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
       <c r="J75" s="5">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="76">
@@ -3483,20 +3572,24 @@
         <v>76.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="D76" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
       <c r="J76" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="77">
@@ -3504,19 +3597,19 @@
         <v>77.0</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="6"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
       <c r="J77" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3525,20 +3618,24 @@
         <v>78.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="D78" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
       <c r="J78" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="79">
@@ -3546,20 +3643,24 @@
         <v>79.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="D79" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
       <c r="J79" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="80">
@@ -3570,17 +3671,21 @@
         <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="D80" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="5"/>
       <c r="I80" s="6"/>
       <c r="J80" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="81">
@@ -3588,32 +3693,20 @@
         <v>81.0</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="5">
-        <f t="shared" si="2"/>
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3621,24 +3714,20 @@
         <v>82.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D82" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
       <c r="J82" s="5">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3655,15 +3744,23 @@
         <v>10000.0</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J83" s="5">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f>SUM(D83:I83)</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="84">
@@ -3683,7 +3780,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="6"/>
       <c r="J84" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J84:J356" si="2">SUM(D84:H84)</f>
         <v>0</v>
       </c>
     </row>
@@ -3692,24 +3789,20 @@
         <v>85.0</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D85" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="H85" s="5"/>
       <c r="I85" s="6"/>
       <c r="J85" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3717,10 +3810,10 @@
         <v>86.0</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D86" s="3">
         <v>10000.0</v>
@@ -3750,16 +3843,16 @@
         <v>87.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D87" s="3">
         <v>10000.0</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
@@ -3775,20 +3868,24 @@
         <v>88.0</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="4"/>
+      <c r="D88" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="5"/>
       <c r="I88" s="6"/>
       <c r="J88" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="89">
@@ -3796,24 +3893,20 @@
         <v>89.0</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
       <c r="H89" s="5"/>
       <c r="I89" s="6"/>
       <c r="J89" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3821,10 +3914,10 @@
         <v>90.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D90" s="3">
         <v>10000.0</v>
@@ -3846,10 +3939,10 @@
         <v>91.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D91" s="3">
         <v>10000.0</v>
@@ -3857,13 +3950,21 @@
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="6"/>
+      <c r="F91" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J91" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="92">
@@ -3871,10 +3972,10 @@
         <v>92.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D92" s="3">
         <v>10000.0</v>
@@ -3896,24 +3997,20 @@
         <v>93.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
       <c r="J93" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3921,16 +4018,16 @@
         <v>94.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D94" s="3">
         <v>10000.0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
@@ -3946,10 +4043,10 @@
         <v>95.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D95" s="3">
         <v>10000.0</v>
@@ -3971,28 +4068,24 @@
         <v>96.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D96" s="3">
         <v>10000.0</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="5"/>
       <c r="I96" s="6"/>
       <c r="J96" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="97">
@@ -4000,10 +4093,10 @@
         <v>97.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D97" s="3">
         <v>10000.0</v>
@@ -4025,10 +4118,10 @@
         <v>98.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="D98" s="3">
         <v>10000.0</v>
@@ -4050,7 +4143,7 @@
         <v>99.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>163</v>
@@ -4075,20 +4168,24 @@
         <v>100.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
       <c r="J100" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="101">
@@ -4096,24 +4193,28 @@
         <v>101.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="D101" s="3">
         <v>10000.0</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F101" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H101" s="5"/>
       <c r="I101" s="6"/>
       <c r="J101" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="102">
@@ -4121,20 +4222,24 @@
         <v>102.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="D102" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="5"/>
       <c r="I102" s="6"/>
       <c r="J102" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="103">
@@ -4142,20 +4247,24 @@
         <v>103.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="D103" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
       <c r="H103" s="5"/>
       <c r="I103" s="6"/>
       <c r="J103" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="104">
@@ -4163,16 +4272,16 @@
         <v>104.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D104" s="3">
         <v>10000.0</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
@@ -4188,16 +4297,16 @@
         <v>105.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D105" s="3">
         <v>10000.0</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
@@ -4216,7 +4325,7 @@
         <v>169</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="D106" s="3">
         <v>10000.0</v>
@@ -4238,24 +4347,20 @@
         <v>107.0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D107" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="6"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
       <c r="H107" s="5"/>
       <c r="I107" s="6"/>
       <c r="J107" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4263,24 +4368,20 @@
         <v>108.0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D108" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="6"/>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="H108" s="5"/>
       <c r="I108" s="6"/>
       <c r="J108" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4288,10 +4389,10 @@
         <v>109.0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D109" s="3">
         <v>10000.0</v>
@@ -4316,17 +4417,21 @@
         <v>173</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="D110" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="H110" s="5"/>
       <c r="I110" s="6"/>
       <c r="J110" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="111">
@@ -4334,20 +4439,24 @@
         <v>111.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="D111" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6"/>
       <c r="J111" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="112">
@@ -4355,10 +4464,10 @@
         <v>112.0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D112" s="3">
         <v>10000.0</v>
@@ -4380,16 +4489,16 @@
         <v>113.0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D113" s="3">
         <v>10000.0</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
@@ -4405,10 +4514,10 @@
         <v>114.0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D114" s="3">
         <v>10000.0</v>
@@ -4430,24 +4539,20 @@
         <v>115.0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D115" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="6"/>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
       <c r="H115" s="5"/>
       <c r="I115" s="6"/>
       <c r="J115" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4455,24 +4560,20 @@
         <v>116.0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D116" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
       <c r="H116" s="5"/>
       <c r="I116" s="6"/>
       <c r="J116" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4480,7 +4581,7 @@
         <v>117.0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>185</v>
@@ -4505,16 +4606,16 @@
         <v>118.0</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="D118" s="3">
         <v>10000.0</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
@@ -4530,20 +4631,24 @@
         <v>119.0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
       <c r="H119" s="5"/>
       <c r="I119" s="6"/>
       <c r="J119" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="120">
@@ -4551,10 +4656,10 @@
         <v>120.0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="D120" s="3">
         <v>10000.0</v>
@@ -4576,16 +4681,16 @@
         <v>121.0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D121" s="3">
         <v>10000.0</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
@@ -4601,16 +4706,16 @@
         <v>122.0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D122" s="3">
         <v>10000.0</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
@@ -4626,20 +4731,24 @@
         <v>123.0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="D123" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
       <c r="H123" s="5"/>
       <c r="I123" s="6"/>
       <c r="J123" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="124">
@@ -4647,24 +4756,20 @@
         <v>124.0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D124" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="6"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
       <c r="H124" s="5"/>
       <c r="I124" s="6"/>
       <c r="J124" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4672,28 +4777,24 @@
         <v>125.0</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D125" s="3">
         <v>10000.0</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="6"/>
       <c r="H125" s="5"/>
       <c r="I125" s="6"/>
       <c r="J125" s="5">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="126">
@@ -4701,32 +4802,24 @@
         <v>126.0</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D126" s="3">
         <v>10000.0</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="6"/>
       <c r="J126" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="127">
@@ -4734,32 +4827,24 @@
         <v>127.0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D127" s="3">
         <v>10000.0</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="6"/>
       <c r="J127" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="128">
@@ -4767,32 +4852,20 @@
         <v>128.0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D128" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="6"/>
       <c r="J128" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4800,20 +4873,24 @@
         <v>129.0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
       <c r="H129" s="5"/>
       <c r="I129" s="6"/>
       <c r="J129" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="130">
@@ -4821,24 +4898,28 @@
         <v>130.0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D130" s="3">
         <v>10000.0</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F130" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" s="5"/>
       <c r="I130" s="6"/>
       <c r="J130" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="131">
@@ -4846,20 +4927,32 @@
         <v>131.0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J131" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="132">
@@ -4867,10 +4960,10 @@
         <v>132.0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="D132" s="3">
         <v>10000.0</v>
@@ -4878,13 +4971,21 @@
       <c r="E132" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="6"/>
+      <c r="F132" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J132" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="133">
@@ -4895,17 +4996,29 @@
         <v>197</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="D133" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J133" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="134">
@@ -4916,17 +5029,21 @@
         <v>197</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="D134" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="H134" s="5"/>
       <c r="I134" s="6"/>
       <c r="J134" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="135">
@@ -4937,13 +5054,13 @@
         <v>197</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="D135" s="3">
         <v>10000.0</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
@@ -4959,16 +5076,16 @@
         <v>136.0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D136" s="3">
         <v>10000.0</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
@@ -4984,28 +5101,24 @@
         <v>137.0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="D137" s="3">
         <v>10000.0</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="6"/>
       <c r="H137" s="5"/>
       <c r="I137" s="6"/>
       <c r="J137" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="138">
@@ -5013,13 +5126,13 @@
         <v>138.0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D138" s="5"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="6"/>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
       <c r="H138" s="5"/>
@@ -5034,13 +5147,13 @@
         <v>139.0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D139" s="5"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="6"/>
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
       <c r="H139" s="5"/>
@@ -5055,20 +5168,24 @@
         <v>140.0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="D140" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="H140" s="5"/>
       <c r="I140" s="6"/>
       <c r="J140" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="141">
@@ -5076,32 +5193,24 @@
         <v>141.0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="D141" s="3">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F141" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="6"/>
       <c r="J141" s="5">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="142">
@@ -5109,10 +5218,10 @@
         <v>142.0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D142" s="3">
         <v>10000.0</v>
@@ -5134,20 +5243,28 @@
         <v>143.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="D143" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" s="5"/>
       <c r="I143" s="6"/>
       <c r="J143" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="144">
@@ -5155,24 +5272,20 @@
         <v>144.0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D144" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="5"/>
       <c r="I144" s="6"/>
       <c r="J144" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5180,10 +5293,10 @@
         <v>145.0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D145" s="3">
         <v>10000.0</v>
@@ -5208,21 +5321,17 @@
         <v>213</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D146" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="4"/>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
       <c r="H146" s="5"/>
       <c r="I146" s="6"/>
       <c r="J146" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5230,32 +5339,32 @@
         <v>147.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="D147" s="3">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F147" s="3">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H147" s="3">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J147" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="148">
@@ -5263,20 +5372,24 @@
         <v>148.0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="D148" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="H148" s="5"/>
       <c r="I148" s="6"/>
       <c r="J148" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="149">
@@ -5284,24 +5397,20 @@
         <v>149.0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D149" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
       <c r="H149" s="5"/>
       <c r="I149" s="6"/>
       <c r="J149" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5309,20 +5418,24 @@
         <v>150.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="D150" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="5"/>
       <c r="I150" s="6"/>
       <c r="J150" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="151">
@@ -5330,10 +5443,10 @@
         <v>151.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="D151" s="3">
         <v>10000.0</v>
@@ -5355,10 +5468,10 @@
         <v>152.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="D152" s="3">
         <v>10000.0</v>
@@ -5380,10 +5493,10 @@
         <v>153.0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D153" s="3">
         <v>10000.0</v>
@@ -5391,13 +5504,21 @@
       <c r="E153" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="6"/>
+      <c r="F153" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J153" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="154">
@@ -5405,24 +5526,20 @@
         <v>154.0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D154" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="6"/>
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
       <c r="H154" s="5"/>
       <c r="I154" s="6"/>
       <c r="J154" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -5430,16 +5547,16 @@
         <v>155.0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="D155" s="3">
         <v>10000.0</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
@@ -5455,24 +5572,20 @@
         <v>156.0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D156" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
       <c r="H156" s="5"/>
       <c r="I156" s="6"/>
       <c r="J156" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -5480,16 +5593,16 @@
         <v>157.0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="D157" s="3">
         <v>10000.0</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
@@ -5505,16 +5618,16 @@
         <v>158.0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D158" s="3">
         <v>10000.0</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
@@ -5530,16 +5643,16 @@
         <v>159.0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D159" s="3">
         <v>10000.0</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
@@ -5555,20 +5668,24 @@
         <v>160.0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="D160" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
       <c r="H160" s="5"/>
       <c r="I160" s="6"/>
       <c r="J160" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="161">
@@ -5576,16 +5693,16 @@
         <v>161.0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D161" s="3">
         <v>10000.0</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
@@ -5601,10 +5718,10 @@
         <v>162.0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="D162" s="3">
         <v>10000.0</v>
@@ -5612,21 +5729,13 @@
       <c r="E162" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="6"/>
       <c r="J162" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="163">
@@ -5634,10 +5743,10 @@
         <v>163.0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D163" s="3">
         <v>10000.0</v>
@@ -5645,21 +5754,13 @@
       <c r="E163" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="6"/>
       <c r="J163" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="164">
@@ -5667,10 +5768,10 @@
         <v>164.0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="D164" s="3">
         <v>10000.0</v>
@@ -5678,21 +5779,13 @@
       <c r="E164" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F164" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F164" s="5"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="6"/>
       <c r="J164" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="165">
@@ -5700,10 +5793,10 @@
         <v>165.0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="D165" s="3">
         <v>10000.0</v>
@@ -5725,13 +5818,13 @@
         <v>166.0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="5"/>
@@ -5746,20 +5839,24 @@
         <v>167.0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="D167" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
       <c r="H167" s="5"/>
       <c r="I167" s="6"/>
       <c r="J167" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="168">
@@ -5767,24 +5864,32 @@
         <v>168.0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="D168" s="3">
         <v>10000.0</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" s="5"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F168" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J168" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="169">
@@ -5792,10 +5897,10 @@
         <v>169.0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D169" s="3">
         <v>10000.0</v>
@@ -5803,13 +5908,21 @@
       <c r="E169" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="6"/>
+      <c r="F169" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J169" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="170">
@@ -5817,24 +5930,32 @@
         <v>170.0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D170" s="3">
-        <v>15000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F170" s="5"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="6"/>
+      <c r="F170" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J170" s="5">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="171">
@@ -5842,20 +5963,24 @@
         <v>171.0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="D171" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
       <c r="H171" s="5"/>
       <c r="I171" s="6"/>
       <c r="J171" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="172">
@@ -5863,24 +5988,20 @@
         <v>172.0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D172" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="4"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
       <c r="H172" s="5"/>
       <c r="I172" s="6"/>
       <c r="J172" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5888,27 +6009,20 @@
         <v>173.0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D173" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="4"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
       <c r="H173" s="5"/>
       <c r="I173" s="6"/>
       <c r="J173" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="K173" s="12" t="s">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -5916,20 +6030,24 @@
         <v>174.0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D174" s="3"/>
-      <c r="E174" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="D174" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="H174" s="5"/>
       <c r="I174" s="6"/>
       <c r="J174" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="175">
@@ -5937,10 +6055,10 @@
         <v>175.0</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D175" s="3">
         <v>10000.0</v>
@@ -5962,13 +6080,13 @@
         <v>176.0</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="D176" s="3">
-        <v>10000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>13</v>
@@ -5979,7 +6097,7 @@
       <c r="I176" s="6"/>
       <c r="J176" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="177">
@@ -5987,10 +6105,10 @@
         <v>177.0</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="6"/>
@@ -6008,20 +6126,24 @@
         <v>178.0</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="D178" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="H178" s="5"/>
       <c r="I178" s="6"/>
       <c r="J178" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="179">
@@ -6029,20 +6151,27 @@
         <v>179.0</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="D179" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="H179" s="5"/>
       <c r="I179" s="6"/>
       <c r="J179" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="K179" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="180">
@@ -6050,12 +6179,12 @@
         <v>180.0</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D180" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="D180" s="3"/>
       <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
@@ -6071,16 +6200,16 @@
         <v>181.0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D181" s="3">
         <v>10000.0</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
@@ -6096,16 +6225,16 @@
         <v>182.0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D182" s="3">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
@@ -6113,7 +6242,7 @@
       <c r="I182" s="6"/>
       <c r="J182" s="5">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="183">
@@ -6121,24 +6250,20 @@
         <v>183.0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D183" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="6"/>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
       <c r="H183" s="5"/>
       <c r="I183" s="6"/>
       <c r="J183" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6146,28 +6271,20 @@
         <v>184.0</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D184" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F184" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="5"/>
       <c r="I184" s="6"/>
       <c r="J184" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -6175,24 +6292,20 @@
         <v>185.0</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D185" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="6"/>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
       <c r="H185" s="5"/>
       <c r="I185" s="6"/>
       <c r="J185" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6200,24 +6313,20 @@
         <v>186.0</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D186" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="4"/>
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
       <c r="H186" s="5"/>
       <c r="I186" s="6"/>
       <c r="J186" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -6225,10 +6334,10 @@
         <v>187.0</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="D187" s="3">
         <v>10000.0</v>
@@ -6236,17 +6345,13 @@
       <c r="E187" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F187" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F187" s="5"/>
+      <c r="G187" s="6"/>
       <c r="H187" s="5"/>
       <c r="I187" s="6"/>
       <c r="J187" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="188">
@@ -6254,13 +6359,13 @@
         <v>188.0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D188" s="3">
-        <v>10000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>18</v>
@@ -6271,7 +6376,7 @@
       <c r="I188" s="6"/>
       <c r="J188" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="189">
@@ -6279,16 +6384,16 @@
         <v>189.0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D189" s="3">
         <v>10000.0</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
@@ -6304,10 +6409,10 @@
         <v>190.0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D190" s="3">
         <v>10000.0</v>
@@ -6315,13 +6420,21 @@
       <c r="E190" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F190" s="5"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="6"/>
+      <c r="F190" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J190" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="191">
@@ -6332,17 +6445,21 @@
         <v>255</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D191" s="3"/>
-      <c r="E191" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="D191" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
       <c r="H191" s="5"/>
       <c r="I191" s="6"/>
       <c r="J191" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="192">
@@ -6350,16 +6467,16 @@
         <v>192.0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="D192" s="3">
         <v>10000.0</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
@@ -6375,20 +6492,28 @@
         <v>193.0</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D193" s="5"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="D193" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F193" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H193" s="5"/>
       <c r="I193" s="6"/>
       <c r="J193" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="194">
@@ -6396,7 +6521,7 @@
         <v>194.0</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>260</v>
@@ -6421,16 +6546,16 @@
         <v>195.0</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D195" s="3">
         <v>10000.0</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
@@ -6446,16 +6571,16 @@
         <v>196.0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D196" s="3">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
@@ -6463,7 +6588,7 @@
       <c r="I196" s="6"/>
       <c r="J196" s="5">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="197">
@@ -6471,13 +6596,13 @@
         <v>197.0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D197" s="5"/>
-      <c r="E197" s="6"/>
+        <v>264</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="4"/>
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
       <c r="H197" s="5"/>
@@ -6492,20 +6617,24 @@
         <v>198.0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="D198" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
       <c r="H198" s="5"/>
       <c r="I198" s="6"/>
       <c r="J198" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="199">
@@ -6516,21 +6645,17 @@
         <v>265</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D199" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="6"/>
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
       <c r="H199" s="5"/>
       <c r="I199" s="6"/>
       <c r="J199" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6538,10 +6663,10 @@
         <v>200.0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="D200" s="3">
         <v>10000.0</v>
@@ -6563,10 +6688,10 @@
         <v>201.0</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="D201" s="3">
         <v>10000.0</v>
@@ -6588,13 +6713,13 @@
         <v>202.0</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="D202" s="3">
-        <v>20000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>13</v>
@@ -6605,7 +6730,7 @@
       <c r="I202" s="6"/>
       <c r="J202" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="203">
@@ -6613,24 +6738,20 @@
         <v>203.0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D203" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="6"/>
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6"/>
       <c r="J203" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -6638,24 +6759,20 @@
         <v>204.0</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D204" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="4"/>
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
       <c r="H204" s="5"/>
       <c r="I204" s="6"/>
       <c r="J204" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -6663,20 +6780,24 @@
         <v>205.0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D205" s="5"/>
-      <c r="E205" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D205" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
       <c r="H205" s="5"/>
       <c r="I205" s="6"/>
       <c r="J205" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="206">
@@ -6684,10 +6805,10 @@
         <v>206.0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="D206" s="3">
         <v>10000.0</v>
@@ -6709,16 +6830,16 @@
         <v>207.0</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="D207" s="3">
         <v>10000.0</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
@@ -6734,13 +6855,13 @@
         <v>208.0</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D208" s="3">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>13</v>
@@ -6751,7 +6872,7 @@
       <c r="I208" s="6"/>
       <c r="J208" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="209">
@@ -6759,20 +6880,24 @@
         <v>209.0</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="D209" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F209" s="5"/>
       <c r="G209" s="6"/>
       <c r="H209" s="5"/>
       <c r="I209" s="6"/>
       <c r="J209" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="210">
@@ -6780,16 +6905,16 @@
         <v>210.0</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="D210" s="3">
         <v>10000.0</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
@@ -6805,24 +6930,20 @@
         <v>211.0</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D211" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="6"/>
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
       <c r="H211" s="5"/>
       <c r="I211" s="6"/>
       <c r="J211" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -6833,7 +6954,7 @@
         <v>274</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D212" s="3">
         <v>10000.0</v>
@@ -6858,13 +6979,13 @@
         <v>274</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="D213" s="3">
         <v>10000.0</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="6"/>
@@ -6880,20 +7001,24 @@
         <v>214.0</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D214" s="5"/>
-      <c r="E214" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="D214" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
       <c r="H214" s="5"/>
       <c r="I214" s="6"/>
       <c r="J214" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="215">
@@ -6901,13 +7026,13 @@
         <v>215.0</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="D215" s="5"/>
-      <c r="E215" s="6"/>
+      <c r="E215" s="4"/>
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
       <c r="H215" s="5"/>
@@ -6922,20 +7047,24 @@
         <v>216.0</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D216" s="5"/>
-      <c r="E216" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="D216" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
       <c r="H216" s="5"/>
       <c r="I216" s="6"/>
       <c r="J216" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="217">
@@ -6943,20 +7072,24 @@
         <v>217.0</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D217" s="5"/>
-      <c r="E217" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="D217" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
       <c r="H217" s="5"/>
       <c r="I217" s="6"/>
       <c r="J217" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="218">
@@ -6964,10 +7097,10 @@
         <v>218.0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D218" s="3">
         <v>10000.0</v>
@@ -6989,10 +7122,10 @@
         <v>219.0</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="D219" s="3">
         <v>10000.0</v>
@@ -7014,13 +7147,13 @@
         <v>220.0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D220" s="5"/>
-      <c r="E220" s="4"/>
+      <c r="E220" s="6"/>
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
       <c r="H220" s="5"/>
@@ -7035,20 +7168,32 @@
         <v>221.0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="6"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="6"/>
+        <v>285</v>
+      </c>
+      <c r="D221" s="3">
+        <v>17000.0</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F221" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H221" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J221" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="222">
@@ -7056,24 +7201,20 @@
         <v>222.0</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D222" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="6"/>
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
       <c r="H222" s="5"/>
       <c r="I222" s="6"/>
       <c r="J222" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -7081,24 +7222,20 @@
         <v>223.0</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D223" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="6"/>
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
       <c r="H223" s="5"/>
       <c r="I223" s="6"/>
       <c r="J223" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -7106,16 +7243,16 @@
         <v>224.0</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D224" s="3">
         <v>10000.0</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
@@ -7131,20 +7268,24 @@
         <v>225.0</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D225" s="5"/>
-      <c r="E225" s="6"/>
+        <v>276</v>
+      </c>
+      <c r="D225" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
       <c r="H225" s="5"/>
       <c r="I225" s="6"/>
       <c r="J225" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="226">
@@ -7152,13 +7293,13 @@
         <v>226.0</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="D226" s="5"/>
-      <c r="E226" s="6"/>
+      <c r="E226" s="4"/>
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
       <c r="H226" s="5"/>
@@ -7173,13 +7314,13 @@
         <v>227.0</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D227" s="5"/>
-      <c r="E227" s="6"/>
+      <c r="E227" s="4"/>
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
       <c r="H227" s="5"/>
@@ -7194,13 +7335,13 @@
         <v>228.0</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="D228" s="3">
-        <v>10000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>18</v>
@@ -7211,7 +7352,7 @@
       <c r="I228" s="6"/>
       <c r="J228" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="229">
@@ -7219,20 +7360,24 @@
         <v>229.0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D229" s="3"/>
-      <c r="E229" s="4"/>
+        <v>292</v>
+      </c>
+      <c r="D229" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
       <c r="H229" s="5"/>
       <c r="I229" s="6"/>
       <c r="J229" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="230">
@@ -7240,20 +7385,24 @@
         <v>230.0</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D230" s="3"/>
-      <c r="E230" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="D230" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
       <c r="H230" s="5"/>
       <c r="I230" s="6"/>
       <c r="J230" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="231">
@@ -7261,20 +7410,24 @@
         <v>231.0</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D231" s="3"/>
-      <c r="E231" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="D231" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
       <c r="H231" s="5"/>
       <c r="I231" s="6"/>
       <c r="J231" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="232">
@@ -7282,20 +7435,32 @@
         <v>232.0</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D232" s="5"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="6"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="D232" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H232" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J232" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="233">
@@ -7303,10 +7468,10 @@
         <v>233.0</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="6"/>
@@ -7324,10 +7489,10 @@
         <v>234.0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="6"/>
@@ -7345,20 +7510,24 @@
         <v>235.0</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D235" s="5"/>
-      <c r="E235" s="6"/>
+        <v>285</v>
+      </c>
+      <c r="D235" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
       <c r="H235" s="5"/>
       <c r="I235" s="6"/>
       <c r="J235" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="236">
@@ -7366,32 +7535,20 @@
         <v>236.0</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D236" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F236" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H236" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D236" s="3"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="6"/>
       <c r="J236" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -7399,24 +7556,20 @@
         <v>237.0</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D237" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D237" s="3"/>
+      <c r="E237" s="4"/>
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
       <c r="H237" s="5"/>
       <c r="I237" s="6"/>
       <c r="J237" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -7424,24 +7577,20 @@
         <v>238.0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D238" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D238" s="3"/>
+      <c r="E238" s="4"/>
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
       <c r="H238" s="5"/>
       <c r="I238" s="6"/>
       <c r="J238" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -7449,24 +7598,20 @@
         <v>239.0</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D239" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D239" s="5"/>
+      <c r="E239" s="6"/>
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
       <c r="H239" s="5"/>
       <c r="I239" s="6"/>
       <c r="J239" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -7477,7 +7622,7 @@
         <v>300</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="6"/>
@@ -7498,7 +7643,7 @@
         <v>300</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="6"/>
@@ -7519,7 +7664,7 @@
         <v>300</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="6"/>
@@ -7540,21 +7685,29 @@
         <v>300</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="D243" s="3">
         <v>10000.0</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" s="5"/>
-      <c r="G243" s="6"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F243" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J243" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="244">
@@ -7562,16 +7715,16 @@
         <v>244.0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D244" s="3">
         <v>10000.0</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="6"/>
@@ -7587,20 +7740,24 @@
         <v>245.0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="D245" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F245" s="5"/>
       <c r="G245" s="6"/>
       <c r="H245" s="5"/>
       <c r="I245" s="6"/>
       <c r="J245" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="246">
@@ -7611,17 +7768,21 @@
         <v>306</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="D246" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F246" s="5"/>
       <c r="G246" s="6"/>
       <c r="H246" s="5"/>
       <c r="I246" s="6"/>
       <c r="J246" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="247">
@@ -7629,24 +7790,20 @@
         <v>247.0</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D247" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D247" s="5"/>
+      <c r="E247" s="6"/>
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
       <c r="H247" s="5"/>
       <c r="I247" s="6"/>
       <c r="J247" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -7654,24 +7811,20 @@
         <v>248.0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D248" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D248" s="5"/>
+      <c r="E248" s="6"/>
       <c r="F248" s="5"/>
       <c r="G248" s="6"/>
       <c r="H248" s="5"/>
       <c r="I248" s="6"/>
       <c r="J248" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -7679,10 +7832,10 @@
         <v>249.0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="6"/>
@@ -7700,16 +7853,16 @@
         <v>250.0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="D250" s="3">
         <v>10000.0</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
@@ -7725,16 +7878,16 @@
         <v>251.0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D251" s="3">
         <v>10000.0</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
@@ -7750,24 +7903,20 @@
         <v>252.0</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D252" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D252" s="5"/>
+      <c r="E252" s="6"/>
       <c r="F252" s="5"/>
       <c r="G252" s="6"/>
       <c r="H252" s="5"/>
       <c r="I252" s="6"/>
       <c r="J252" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -7775,24 +7924,20 @@
         <v>253.0</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D253" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="4"/>
       <c r="F253" s="5"/>
       <c r="G253" s="6"/>
       <c r="H253" s="5"/>
       <c r="I253" s="6"/>
       <c r="J253" s="5">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7800,10 +7945,10 @@
         <v>254.0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="D254" s="3">
         <v>10000.0</v>
@@ -7825,10 +7970,10 @@
         <v>255.0</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D255" s="3">
         <v>10000.0</v>
@@ -7853,7 +7998,7 @@
         <v>315</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="6"/>
@@ -7871,20 +8016,24 @@
         <v>257.0</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D257" s="5"/>
-      <c r="E257" s="6"/>
+      <c r="D257" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F257" s="5"/>
       <c r="G257" s="6"/>
       <c r="H257" s="5"/>
       <c r="I257" s="6"/>
       <c r="J257" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="258">
@@ -7892,20 +8041,24 @@
         <v>258.0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D258" s="5"/>
-      <c r="E258" s="4"/>
+      <c r="D258" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F258" s="5"/>
       <c r="G258" s="6"/>
       <c r="H258" s="5"/>
       <c r="I258" s="6"/>
       <c r="J258" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="259">
@@ -7913,20 +8066,24 @@
         <v>259.0</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D259" s="5"/>
-      <c r="E259" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="D259" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F259" s="5"/>
       <c r="G259" s="6"/>
       <c r="H259" s="5"/>
       <c r="I259" s="6"/>
       <c r="J259" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="260">
@@ -7934,20 +8091,24 @@
         <v>260.0</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D260" s="5"/>
-      <c r="E260" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="D260" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="F260" s="5"/>
       <c r="G260" s="6"/>
       <c r="H260" s="5"/>
       <c r="I260" s="6"/>
       <c r="J260" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="261">
@@ -7955,20 +8116,24 @@
         <v>261.0</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D261" s="5"/>
-      <c r="E261" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="D261" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F261" s="5"/>
       <c r="G261" s="6"/>
       <c r="H261" s="5"/>
       <c r="I261" s="6"/>
       <c r="J261" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="262">
@@ -7976,16 +8141,16 @@
         <v>262.0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="D262" s="3">
         <v>10000.0</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="6"/>
@@ -8001,10 +8166,10 @@
         <v>263.0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D263" s="3">
         <v>10000.0</v>
@@ -8026,24 +8191,20 @@
         <v>264.0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D264" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="6"/>
       <c r="F264" s="5"/>
       <c r="G264" s="6"/>
       <c r="H264" s="5"/>
       <c r="I264" s="6"/>
       <c r="J264" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -8051,24 +8212,20 @@
         <v>265.0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D265" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="6"/>
       <c r="F265" s="5"/>
       <c r="G265" s="6"/>
       <c r="H265" s="5"/>
       <c r="I265" s="6"/>
       <c r="J265" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -8076,28 +8233,20 @@
         <v>266.0</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D266" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G266" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="6"/>
       <c r="H266" s="5"/>
       <c r="I266" s="6"/>
       <c r="J266" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -8105,24 +8254,20 @@
         <v>267.0</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D267" s="3">
-        <v>15000.0</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="4"/>
       <c r="F267" s="5"/>
       <c r="G267" s="6"/>
       <c r="H267" s="5"/>
       <c r="I267" s="6"/>
       <c r="J267" s="5">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -8130,24 +8275,20 @@
         <v>268.0</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D268" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D268" s="5"/>
+      <c r="E268" s="4"/>
       <c r="F268" s="5"/>
       <c r="G268" s="6"/>
       <c r="H268" s="5"/>
       <c r="I268" s="6"/>
       <c r="J268" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -8155,28 +8296,20 @@
         <v>269.0</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D269" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F269" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D269" s="5"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="6"/>
       <c r="H269" s="5"/>
       <c r="I269" s="6"/>
       <c r="J269" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -8184,20 +8317,24 @@
         <v>270.0</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D270" s="5"/>
-      <c r="E270" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="D270" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F270" s="5"/>
       <c r="G270" s="6"/>
       <c r="H270" s="5"/>
       <c r="I270" s="6"/>
       <c r="J270" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="271">
@@ -8205,20 +8342,24 @@
         <v>271.0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D271" s="5"/>
-      <c r="E271" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="D271" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F271" s="5"/>
       <c r="G271" s="6"/>
       <c r="H271" s="5"/>
       <c r="I271" s="6"/>
       <c r="J271" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="272">
@@ -8226,10 +8367,10 @@
         <v>272.0</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="D272" s="3">
         <v>10000.0</v>
@@ -8237,17 +8378,13 @@
       <c r="E272" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F272" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G272" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F272" s="5"/>
+      <c r="G272" s="6"/>
       <c r="H272" s="5"/>
       <c r="I272" s="6"/>
       <c r="J272" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="273">
@@ -8255,20 +8392,24 @@
         <v>273.0</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D273" s="5"/>
-      <c r="E273" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="D273" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F273" s="5"/>
       <c r="G273" s="6"/>
       <c r="H273" s="5"/>
       <c r="I273" s="6"/>
       <c r="J273" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="274">
@@ -8276,10 +8417,10 @@
         <v>274.0</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D274" s="3">
         <v>10000.0</v>
@@ -8301,32 +8442,24 @@
         <v>275.0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D275" s="3">
         <v>10000.0</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F275" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H275" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I275" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F275" s="5"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="6"/>
       <c r="J275" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="276">
@@ -8334,10 +8467,10 @@
         <v>276.0</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D276" s="3">
         <v>10000.0</v>
@@ -8345,13 +8478,17 @@
       <c r="E276" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F276" s="5"/>
-      <c r="G276" s="6"/>
+      <c r="F276" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H276" s="5"/>
       <c r="I276" s="6"/>
       <c r="J276" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="277">
@@ -8359,32 +8496,24 @@
         <v>277.0</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D277" s="3">
-        <v>10000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F277" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H277" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I277" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F277" s="5"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="6"/>
       <c r="J277" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="278">
@@ -8392,10 +8521,10 @@
         <v>278.0</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="D278" s="3">
         <v>10000.0</v>
@@ -8403,21 +8532,13 @@
       <c r="E278" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F278" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H278" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F278" s="5"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="6"/>
       <c r="J278" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="279">
@@ -8425,10 +8546,10 @@
         <v>279.0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="D279" s="3">
         <v>10000.0</v>
@@ -8436,13 +8557,17 @@
       <c r="E279" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F279" s="5"/>
-      <c r="G279" s="6"/>
+      <c r="F279" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H279" s="5"/>
       <c r="I279" s="6"/>
       <c r="J279" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="280">
@@ -8450,24 +8575,20 @@
         <v>280.0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D280" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="4"/>
       <c r="F280" s="5"/>
       <c r="G280" s="6"/>
       <c r="H280" s="5"/>
       <c r="I280" s="6"/>
       <c r="J280" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -8475,24 +8596,20 @@
         <v>281.0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D281" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="4"/>
       <c r="F281" s="5"/>
       <c r="G281" s="6"/>
       <c r="H281" s="5"/>
       <c r="I281" s="6"/>
       <c r="J281" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -8500,24 +8617,28 @@
         <v>282.0</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D282" s="3">
         <v>10000.0</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" s="5"/>
-      <c r="G282" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F282" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H282" s="5"/>
       <c r="I282" s="6"/>
       <c r="J282" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="283">
@@ -8525,24 +8646,20 @@
         <v>283.0</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D283" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="6"/>
       <c r="F283" s="5"/>
       <c r="G283" s="6"/>
       <c r="H283" s="5"/>
       <c r="I283" s="6"/>
       <c r="J283" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -8550,10 +8667,10 @@
         <v>284.0</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="D284" s="3">
         <v>10000.0</v>
@@ -8561,17 +8678,13 @@
       <c r="E284" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F284" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F284" s="5"/>
+      <c r="G284" s="6"/>
       <c r="H284" s="5"/>
       <c r="I284" s="6"/>
       <c r="J284" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="285">
@@ -8582,17 +8695,29 @@
         <v>341</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D285" s="5"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="5"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="6"/>
+        <v>342</v>
+      </c>
+      <c r="D285" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F285" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H285" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J285" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="286">
@@ -8600,16 +8725,16 @@
         <v>286.0</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="D286" s="3">
         <v>10000.0</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="6"/>
@@ -8625,28 +8750,28 @@
         <v>287.0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>198</v>
+        <v>346</v>
       </c>
       <c r="D287" s="3">
         <v>10000.0</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F287" s="3">
         <v>10000.0</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H287" s="3">
         <v>10000.0</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J287" s="5">
         <f t="shared" si="2"/>
@@ -8658,24 +8783,32 @@
         <v>288.0</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="D288" s="3">
         <v>10000.0</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F288" s="5"/>
-      <c r="G288" s="6"/>
-      <c r="H288" s="5"/>
-      <c r="I288" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F288" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H288" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J288" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="289">
@@ -8683,10 +8816,10 @@
         <v>289.0</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D289" s="3">
         <v>10000.0</v>
@@ -8694,17 +8827,13 @@
       <c r="E289" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F289" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G289" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F289" s="5"/>
+      <c r="G289" s="6"/>
       <c r="H289" s="5"/>
       <c r="I289" s="6"/>
       <c r="J289" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="290">
@@ -8712,10 +8841,10 @@
         <v>290.0</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="D290" s="3">
         <v>10000.0</v>
@@ -8737,20 +8866,24 @@
         <v>291.0</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D291" s="5"/>
-      <c r="E291" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="D291" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F291" s="5"/>
       <c r="G291" s="6"/>
       <c r="H291" s="5"/>
       <c r="I291" s="6"/>
       <c r="J291" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="292">
@@ -8758,10 +8891,10 @@
         <v>293.0</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="D292" s="3">
         <v>10000.0</v>
@@ -8783,10 +8916,10 @@
         <v>294.0</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D293" s="3">
         <v>10000.0</v>
@@ -8811,17 +8944,25 @@
         <v>347</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D294" s="5"/>
-      <c r="E294" s="6"/>
-      <c r="F294" s="5"/>
-      <c r="G294" s="6"/>
+        <v>351</v>
+      </c>
+      <c r="D294" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F294" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H294" s="5"/>
       <c r="I294" s="6"/>
       <c r="J294" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="295">
@@ -8829,20 +8970,24 @@
         <v>296.0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D295" s="5"/>
-      <c r="E295" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="D295" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F295" s="5"/>
       <c r="G295" s="6"/>
       <c r="H295" s="5"/>
       <c r="I295" s="6"/>
       <c r="J295" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="296">
@@ -8850,28 +8995,24 @@
         <v>297.0</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="D296" s="3">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F296" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F296" s="5"/>
+      <c r="G296" s="6"/>
       <c r="H296" s="5"/>
       <c r="I296" s="6"/>
       <c r="J296" s="5">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="297">
@@ -8879,24 +9020,32 @@
         <v>298.0</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>351</v>
+        <v>206</v>
       </c>
       <c r="D297" s="3">
         <v>10000.0</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F297" s="5"/>
-      <c r="G297" s="6"/>
-      <c r="H297" s="5"/>
-      <c r="I297" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F297" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H297" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I297" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J297" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="298">
@@ -8904,10 +9053,10 @@
         <v>299.0</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="D298" s="3">
         <v>10000.0</v>
@@ -8929,24 +9078,28 @@
         <v>300.0</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D299" s="3">
         <v>10000.0</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F299" s="5"/>
-      <c r="G299" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F299" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H299" s="5"/>
       <c r="I299" s="6"/>
       <c r="J299" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="300">
@@ -8954,16 +9107,16 @@
         <v>301.0</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="D300" s="3">
         <v>10000.0</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="6"/>
@@ -8982,21 +9135,17 @@
         <v>354</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D301" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D301" s="5"/>
+      <c r="E301" s="6"/>
       <c r="F301" s="5"/>
       <c r="G301" s="6"/>
       <c r="H301" s="5"/>
       <c r="I301" s="6"/>
       <c r="J301" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -9004,10 +9153,10 @@
         <v>303.0</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="D302" s="3">
         <v>10000.0</v>
@@ -9029,7 +9178,7 @@
         <v>304.0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>357</v>
@@ -9054,24 +9203,20 @@
         <v>305.0</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D304" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D304" s="5"/>
+      <c r="E304" s="6"/>
       <c r="F304" s="5"/>
       <c r="G304" s="6"/>
       <c r="H304" s="5"/>
       <c r="I304" s="6"/>
       <c r="J304" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -9079,13 +9224,13 @@
         <v>306.0</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="D305" s="5"/>
-      <c r="E305" s="4"/>
+      <c r="E305" s="6"/>
       <c r="F305" s="5"/>
       <c r="G305" s="6"/>
       <c r="H305" s="5"/>
@@ -9103,17 +9248,25 @@
         <v>358</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D306" s="5"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="5"/>
-      <c r="G306" s="6"/>
+        <v>360</v>
+      </c>
+      <c r="D306" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F306" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H306" s="5"/>
       <c r="I306" s="6"/>
       <c r="J306" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="307">
@@ -9121,20 +9274,24 @@
         <v>308.0</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D307" s="5"/>
-      <c r="E307" s="4"/>
+        <v>362</v>
+      </c>
+      <c r="D307" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F307" s="5"/>
       <c r="G307" s="6"/>
       <c r="H307" s="5"/>
       <c r="I307" s="6"/>
       <c r="J307" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="308">
@@ -9142,10 +9299,10 @@
         <v>309.0</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="D308" s="3">
         <v>10000.0</v>
@@ -9167,16 +9324,16 @@
         <v>310.0</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>59</v>
+        <v>366</v>
       </c>
       <c r="D309" s="3">
         <v>10000.0</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F309" s="5"/>
       <c r="G309" s="6"/>
@@ -9192,10 +9349,10 @@
         <v>311.0</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="D310" s="3">
         <v>10000.0</v>
@@ -9217,16 +9374,16 @@
         <v>312.0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="D311" s="3">
         <v>10000.0</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F311" s="5"/>
       <c r="G311" s="6"/>
@@ -9242,20 +9399,24 @@
         <v>313.0</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D312" s="5"/>
-      <c r="E312" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="D312" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F312" s="5"/>
       <c r="G312" s="6"/>
       <c r="H312" s="5"/>
       <c r="I312" s="6"/>
       <c r="J312" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="313">
@@ -9263,20 +9424,24 @@
         <v>314.0</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D313" s="5"/>
-      <c r="E313" s="4"/>
+        <v>369</v>
+      </c>
+      <c r="D313" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F313" s="5"/>
       <c r="G313" s="6"/>
       <c r="H313" s="5"/>
       <c r="I313" s="6"/>
       <c r="J313" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="314">
@@ -9284,16 +9449,16 @@
         <v>315.0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D314" s="3">
         <v>10000.0</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="6"/>
@@ -9309,16 +9474,16 @@
         <v>316.0</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D315" s="3">
         <v>10000.0</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F315" s="5"/>
       <c r="G315" s="6"/>
@@ -9334,16 +9499,16 @@
         <v>317.0</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="D316" s="3">
         <v>10000.0</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F316" s="5"/>
       <c r="G316" s="6"/>
@@ -9359,24 +9524,20 @@
         <v>318.0</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D317" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E317" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="4"/>
       <c r="F317" s="5"/>
       <c r="G317" s="6"/>
       <c r="H317" s="5"/>
       <c r="I317" s="6"/>
       <c r="J317" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -9384,24 +9545,20 @@
         <v>319.0</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D318" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="4"/>
       <c r="F318" s="5"/>
       <c r="G318" s="6"/>
       <c r="H318" s="5"/>
       <c r="I318" s="6"/>
       <c r="J318" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -9409,24 +9566,20 @@
         <v>320.0</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D319" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="4"/>
       <c r="F319" s="5"/>
       <c r="G319" s="6"/>
       <c r="H319" s="5"/>
       <c r="I319" s="6"/>
       <c r="J319" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -9434,10 +9587,10 @@
         <v>321.0</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>370</v>
+        <v>47</v>
       </c>
       <c r="D320" s="3">
         <v>10000.0</v>
@@ -9459,10 +9612,10 @@
         <v>322.0</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="D321" s="3">
         <v>10000.0</v>
@@ -9484,16 +9637,16 @@
         <v>323.0</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="D322" s="3">
         <v>10000.0</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="6"/>
@@ -9512,13 +9665,13 @@
         <v>373</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="D323" s="3">
         <v>10000.0</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="6"/>
@@ -9534,24 +9687,20 @@
         <v>325.0</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D324" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D324" s="5"/>
+      <c r="E324" s="6"/>
       <c r="F324" s="5"/>
       <c r="G324" s="6"/>
       <c r="H324" s="5"/>
       <c r="I324" s="6"/>
       <c r="J324" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -9559,13 +9708,13 @@
         <v>326.0</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="D325" s="5"/>
-      <c r="E325" s="6"/>
+      <c r="E325" s="4"/>
       <c r="F325" s="5"/>
       <c r="G325" s="6"/>
       <c r="H325" s="5"/>
@@ -9580,16 +9729,16 @@
         <v>327.0</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D326" s="3">
         <v>10000.0</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="6"/>
@@ -9605,20 +9754,24 @@
         <v>328.0</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D327" s="5"/>
-      <c r="E327" s="4"/>
+        <v>379</v>
+      </c>
+      <c r="D327" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F327" s="5"/>
       <c r="G327" s="6"/>
       <c r="H327" s="5"/>
       <c r="I327" s="6"/>
       <c r="J327" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="328">
@@ -9626,10 +9779,10 @@
         <v>329.0</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="D328" s="3">
         <v>10000.0</v>
@@ -9651,10 +9804,10 @@
         <v>330.0</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="D329" s="3">
         <v>10000.0</v>
@@ -9662,21 +9815,13 @@
       <c r="E329" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F329" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="G329" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H329" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I329" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F329" s="5"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="6"/>
       <c r="J329" s="5">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="330">
@@ -9684,10 +9829,10 @@
         <v>331.0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>205</v>
+        <v>381</v>
       </c>
       <c r="D330" s="3">
         <v>10000.0</v>
@@ -9709,20 +9854,24 @@
         <v>332.0</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D331" s="5"/>
-      <c r="E331" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="D331" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F331" s="5"/>
       <c r="G331" s="6"/>
       <c r="H331" s="5"/>
       <c r="I331" s="6"/>
       <c r="J331" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="332">
@@ -9730,16 +9879,16 @@
         <v>333.0</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D332" s="3">
         <v>10000.0</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="6"/>
@@ -9755,16 +9904,16 @@
         <v>334.0</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="D333" s="3">
         <v>10000.0</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="6"/>
@@ -9780,20 +9929,24 @@
         <v>335.0</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D334" s="5"/>
-      <c r="E334" s="6"/>
+        <v>386</v>
+      </c>
+      <c r="D334" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F334" s="5"/>
       <c r="G334" s="6"/>
       <c r="H334" s="5"/>
       <c r="I334" s="6"/>
       <c r="J334" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="335">
@@ -9801,20 +9954,24 @@
         <v>336.0</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D335" s="5"/>
-      <c r="E335" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="D335" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F335" s="5"/>
       <c r="G335" s="6"/>
       <c r="H335" s="5"/>
       <c r="I335" s="6"/>
       <c r="J335" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="336">
@@ -9822,20 +9979,24 @@
         <v>337.0</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D336" s="5"/>
-      <c r="E336" s="4"/>
+        <v>388</v>
+      </c>
+      <c r="D336" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F336" s="5"/>
       <c r="G336" s="6"/>
       <c r="H336" s="5"/>
       <c r="I336" s="6"/>
       <c r="J336" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="337">
@@ -9843,13 +10004,13 @@
         <v>338.0</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="D337" s="5"/>
-      <c r="E337" s="4"/>
+      <c r="E337" s="6"/>
       <c r="F337" s="5"/>
       <c r="G337" s="6"/>
       <c r="H337" s="5"/>
@@ -9864,10 +10025,10 @@
         <v>339.0</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="D338" s="3">
         <v>10000.0</v>
@@ -9889,13 +10050,13 @@
         <v>340.0</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="D339" s="5"/>
-      <c r="E339" s="6"/>
+      <c r="E339" s="4"/>
       <c r="F339" s="5"/>
       <c r="G339" s="6"/>
       <c r="H339" s="5"/>
@@ -9910,20 +10071,418 @@
         <v>341.0</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D340" s="5"/>
-      <c r="E340" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="D340" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F340" s="5"/>
       <c r="G340" s="6"/>
       <c r="H340" s="5"/>
       <c r="I340" s="6"/>
       <c r="J340" s="5">
         <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>342.0</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D341" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F341" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H341" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I341" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J341" s="5">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>343.0</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D342" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F342" s="5"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="6"/>
+      <c r="J342" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>344.0</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D343" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F343" s="5"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="6"/>
+      <c r="J343" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D344" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F344" s="5"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="6"/>
+      <c r="J344" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D345" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F345" s="5"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="6"/>
+      <c r="J345" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>347.0</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D346" s="5"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>348.0</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="6"/>
+      <c r="J347" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>349.0</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D348" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F348" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="I348" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J348" s="5">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>350.0</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D349" s="5"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="6"/>
+      <c r="J349" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>351.0</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D350" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F350" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H350" s="5"/>
+      <c r="I350" s="6"/>
+      <c r="J350" s="5">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>352.0</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D351" s="5"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="6"/>
+      <c r="J351" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>353.0</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="4"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="6"/>
+      <c r="J352" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>354.0</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D353" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F353" s="5"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="6"/>
+      <c r="J353" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>355.0</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D354" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F354" s="5"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="6"/>
+      <c r="J354" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>356.0</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D355" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F355" s="5"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="6"/>
+      <c r="J355" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>357.0</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D356" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F356" s="5"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="6"/>
+      <c r="J356" s="5">
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -9932,28 +10491,28 @@
       <sortCondition ref="B1:B1023"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D340 F2:F340 H2:H340">
+  <conditionalFormatting sqref="D2:D356 F2:F356 H2:H356">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D340 F2:F340 H2:H340">
+  <conditionalFormatting sqref="D2:D356 F2:F356 H2:H356">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D340 F2:F340 H2:H340">
+  <conditionalFormatting sqref="D2:D356 F2:F356 H2:H356">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J340">
+  <conditionalFormatting sqref="J2:J356">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>0</formula>
       <formula>9999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J340">
+  <conditionalFormatting sqref="J2:J356">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>10000</formula>
       <formula>29999</formula>
@@ -9964,14 +10523,14 @@
       <formula>30000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J20 J40 J68 J73 J80:J85 J110:J112 J124:J148 J160:J169 J181 J213 J235 J249:J253 J260:J296 J301 J328">
+  <conditionalFormatting sqref="J2:J20 J40 J44 J61 J68 J73 J80:J86 J91 J110:J112 J124:J148 J153 J160:J170 J181 J188 J190 J213 J221 J232 J235 J243 J249:J253 J260:J297 J301 J306 J328 J341 J348">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
       <formula>30000</formula>
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E340 G2:G340 I2:I340">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E356 G2:G356 I2:I356">
       <formula1>"Efectivo,Transferencia"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="409">
   <si>
     <t>Apellido</t>
   </si>
@@ -1231,6 +1231,15 @@
   </si>
   <si>
     <t>ZAPATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZILLI </t>
+  </si>
+  <si>
+    <t>GRISELDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $10.000,00</t>
   </si>
 </sst>
 </file>
@@ -1677,14 +1686,14 @@
       </c>
       <c r="M2" s="8">
         <f>SUMIF(D:I,"&lt;&gt;0")</f>
-        <v>3383000</v>
+        <v>3663000</v>
       </c>
       <c r="N2" s="8">
         <v>9000000.0</v>
       </c>
       <c r="O2" s="9">
         <f>(N2-M2)*-1</f>
-        <v>-5617000</v>
+        <v>-5337000</v>
       </c>
     </row>
     <row r="3">
@@ -1926,15 +1935,17 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>36</v>
@@ -2145,13 +2156,15 @@
       <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="19">
@@ -2597,15 +2610,21 @@
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="I36" s="6"/>
       <c r="J36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="37">
@@ -3087,13 +3106,15 @@
       <c r="E56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
       <c r="J56" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="57">
@@ -3431,7 +3452,9 @@
       <c r="C70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
@@ -3439,7 +3462,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="71">
@@ -3452,7 +3475,9 @@
       <c r="C71" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
@@ -3460,7 +3485,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="72">
@@ -3583,13 +3608,15 @@
       <c r="E76" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F76" s="5"/>
+      <c r="F76" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G76" s="6"/>
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
       <c r="J76" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="77">
@@ -3629,13 +3656,15 @@
       <c r="E78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F78" s="5"/>
+      <c r="F78" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G78" s="6"/>
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
       <c r="J78" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="79">
@@ -4002,15 +4031,19 @@
       <c r="C93" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D93" s="5"/>
+      <c r="D93" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G93" s="6"/>
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
       <c r="J93" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="94">
@@ -4179,13 +4212,15 @@
       <c r="E100" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="5"/>
+      <c r="F100" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G100" s="6"/>
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
       <c r="J100" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="101">
@@ -4565,7 +4600,9 @@
       <c r="C116" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D116" s="5"/>
+      <c r="D116" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E116" s="4"/>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
@@ -4573,7 +4610,7 @@
       <c r="I116" s="6"/>
       <c r="J116" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="117">
@@ -4642,7 +4679,7 @@
       <c r="E119" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="5"/>
+      <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="5"/>
       <c r="I119" s="6"/>
@@ -5993,7 +6030,9 @@
       <c r="C172" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D172" s="3"/>
+      <c r="D172" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
@@ -6001,7 +6040,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="173">
@@ -6014,7 +6053,9 @@
       <c r="C173" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D173" s="5"/>
+      <c r="D173" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
@@ -6022,7 +6063,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="174">
@@ -6041,13 +6082,15 @@
       <c r="E174" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F174" s="5"/>
+      <c r="F174" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G174" s="6"/>
       <c r="H174" s="5"/>
       <c r="I174" s="6"/>
       <c r="J174" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="175">
@@ -6110,7 +6153,9 @@
       <c r="C177" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D177" s="5"/>
+      <c r="D177" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E177" s="6"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
@@ -6118,7 +6163,7 @@
       <c r="I177" s="6"/>
       <c r="J177" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="178">
@@ -7795,7 +7840,9 @@
       <c r="C247" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D247" s="5"/>
+      <c r="D247" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E247" s="6"/>
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
@@ -7803,7 +7850,7 @@
       <c r="I247" s="6"/>
       <c r="J247" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="248">
@@ -8563,11 +8610,13 @@
       <c r="G279" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H279" s="5"/>
+      <c r="H279" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="I279" s="6"/>
       <c r="J279" s="5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="280">
@@ -9550,15 +9599,17 @@
       <c r="C318" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D318" s="5"/>
+      <c r="D318" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E318" s="4"/>
-      <c r="F318" s="5"/>
+      <c r="F318" s="6"/>
       <c r="G318" s="6"/>
       <c r="H318" s="5"/>
       <c r="I318" s="6"/>
       <c r="J318" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="319">
@@ -10055,7 +10106,9 @@
       <c r="C339" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D339" s="5"/>
+      <c r="D339" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E339" s="4"/>
       <c r="F339" s="5"/>
       <c r="G339" s="6"/>
@@ -10063,7 +10116,7 @@
       <c r="I339" s="6"/>
       <c r="J339" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="340">
@@ -10165,13 +10218,15 @@
       <c r="E343" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F343" s="5"/>
+      <c r="F343" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="G343" s="6"/>
       <c r="H343" s="5"/>
       <c r="I343" s="6"/>
       <c r="J343" s="5">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="344">
@@ -10380,7 +10435,9 @@
       <c r="C352" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D352" s="5"/>
+      <c r="D352" s="3">
+        <v>10000.0</v>
+      </c>
       <c r="E352" s="4"/>
       <c r="F352" s="5"/>
       <c r="G352" s="6"/>
@@ -10388,7 +10445,7 @@
       <c r="I352" s="6"/>
       <c r="J352" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="353">
@@ -10483,6 +10540,43 @@
       <c r="J356" s="5">
         <f t="shared" si="2"/>
         <v>10000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>357.0</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D357" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="F357" s="3">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>357.0</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D358" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="F358" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -10491,17 +10585,17 @@
       <sortCondition ref="B1:B1023"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D356 F2:F356 H2:H356">
+  <conditionalFormatting sqref="D2:D358 F2:F358 H2:H356">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D356 F2:F356 H2:H356">
+  <conditionalFormatting sqref="D2:D358 F2:F358 H2:H356">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D356 F2:F356 H2:H356">
+  <conditionalFormatting sqref="D2:D358 F2:F358 H2:H356">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>

--- a/src/data/Proyecto 330.xlsx
+++ b/src/data/Proyecto 330.xlsx
@@ -7219,7 +7219,7 @@
         <v>285</v>
       </c>
       <c r="D221" s="3">
-        <v>17000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>18</v>
@@ -7231,14 +7231,12 @@
         <v>18</v>
       </c>
       <c r="H221" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="I221" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>7000.0</v>
+      </c>
+      <c r="I221" s="6"/>
       <c r="J221" s="5">
         <f t="shared" si="2"/>
-        <v>37000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="222">
@@ -7251,15 +7249,19 @@
       <c r="C222" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="6"/>
+      <c r="D222" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
       <c r="H222" s="5"/>
       <c r="I222" s="6"/>
       <c r="J222" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="223">
